--- a/wafer-mapping-automation-test.xlsx
+++ b/wafer-mapping-automation-test.xlsx
@@ -2007,7 +2007,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -2069,7 +2069,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -3456,7 +3456,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -3518,7 +3518,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -4848,7 +4848,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -4910,7 +4910,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -6416,7 +6416,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -6478,7 +6478,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -6501,25 +6501,19 @@
       <tx>
         <rich>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-SG"/>
               <a:t>Scatter Chart Automation Test</a:t>
             </a:r>
           </a:p>
         </rich>
       </tx>
-      <overlay val="0"/>
     </title>
     <plotArea>
-      <layout/>
       <scatterChart>
-        <scatterStyle val="lineMarker"/>
-        <varyColors val="0"/>
         <ser>
           <idx val="0"/>
           <order val="0"/>
@@ -6538,328 +6532,864 @@
               </a:ln>
             </spPr>
           </marker>
-          <xVal>
-            <numRef>
-              <f>'13th Wafer (ML RT 7)'!$C$2:$C$50</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="49"/>
-                <pt idx="0">
-                  <v>0</v>
-                </pt>
-                <pt idx="1">
-                  <v>32</v>
-                </pt>
-                <pt idx="2">
-                  <v>22.6273</v>
-                </pt>
-                <pt idx="3">
-                  <v>-0.0001</v>
-                </pt>
-                <pt idx="4">
-                  <v>-22.6275</v>
-                </pt>
-                <pt idx="5">
-                  <v>-32</v>
-                </pt>
-                <pt idx="6">
-                  <v>-22.6273</v>
-                </pt>
-                <pt idx="7">
-                  <v>0.0001</v>
-                </pt>
-                <pt idx="8">
-                  <v>22.6275</v>
-                </pt>
-                <pt idx="9">
-                  <v>64</v>
-                </pt>
-                <pt idx="10">
-                  <v>59.1282</v>
-                </pt>
-                <pt idx="11">
-                  <v>45.2547</v>
-                </pt>
-                <pt idx="12">
-                  <v>24.4915</v>
-                </pt>
-                <pt idx="13">
-                  <v>-0.0003</v>
-                </pt>
-                <pt idx="14">
-                  <v>-24.492</v>
-                </pt>
-                <pt idx="15">
-                  <v>-45.255</v>
-                </pt>
-                <pt idx="16">
-                  <v>-59.1284</v>
-                </pt>
-                <pt idx="17">
-                  <v>-64</v>
-                </pt>
-                <pt idx="18">
-                  <v>-59.1282</v>
-                </pt>
-                <pt idx="19">
-                  <v>-45.2547</v>
-                </pt>
-                <pt idx="20">
-                  <v>-24.4915</v>
-                </pt>
-                <pt idx="21">
-                  <v>0.0003</v>
-                </pt>
-                <pt idx="22">
-                  <v>24.492</v>
-                </pt>
-                <pt idx="23">
-                  <v>45.2551</v>
-                </pt>
-                <pt idx="24">
-                  <v>59.1284</v>
-                </pt>
-                <pt idx="25">
-                  <v>96</v>
-                </pt>
-                <pt idx="26">
-                  <v>92.72880000000001</v>
-                </pt>
-                <pt idx="27">
-                  <v>83.1383</v>
-                </pt>
-                <pt idx="28">
-                  <v>67.88200000000001</v>
-                </pt>
-                <pt idx="29">
-                  <v>47.9997</v>
-                </pt>
-                <pt idx="30">
-                  <v>24.8462</v>
-                </pt>
-                <pt idx="31">
-                  <v>-0.0004</v>
-                </pt>
-                <pt idx="32">
-                  <v>-24.847</v>
-                </pt>
-                <pt idx="33">
-                  <v>-48.0003</v>
-                </pt>
-                <pt idx="34">
-                  <v>-67.8826</v>
-                </pt>
-                <pt idx="35">
-                  <v>-83.1386</v>
-                </pt>
-                <pt idx="36">
-                  <v>-92.729</v>
-                </pt>
-                <pt idx="37">
-                  <v>-96</v>
-                </pt>
-                <pt idx="38">
-                  <v>-92.72880000000001</v>
-                </pt>
-                <pt idx="39">
-                  <v>-83.1382</v>
-                </pt>
-                <pt idx="40">
-                  <v>-67.88200000000001</v>
-                </pt>
-                <pt idx="41">
-                  <v>-47.9996</v>
-                </pt>
-                <pt idx="42">
-                  <v>-24.8462</v>
-                </pt>
-                <pt idx="43">
-                  <v>0.0004</v>
-                </pt>
-                <pt idx="44">
-                  <v>24.847</v>
-                </pt>
-                <pt idx="45">
-                  <v>48.0004</v>
-                </pt>
-                <pt idx="46">
-                  <v>67.8826</v>
-                </pt>
-                <pt idx="47">
-                  <v>83.1387</v>
-                </pt>
-                <pt idx="48">
-                  <v>92.729</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'13th Wafer (ML RT 7)'!$B$2:$B$50</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="49"/>
-                <pt idx="0">
-                  <v>0</v>
-                </pt>
-                <pt idx="1">
-                  <v>-0.0001</v>
-                </pt>
-                <pt idx="2">
-                  <v>-22.6275</v>
-                </pt>
-                <pt idx="3">
-                  <v>-32</v>
-                </pt>
-                <pt idx="4">
-                  <v>-22.6273</v>
-                </pt>
-                <pt idx="5">
-                  <v>0.0001</v>
-                </pt>
-                <pt idx="6">
-                  <v>22.6275</v>
-                </pt>
-                <pt idx="7">
-                  <v>32</v>
-                </pt>
-                <pt idx="8">
-                  <v>22.6273</v>
-                </pt>
-                <pt idx="9">
-                  <v>-0.0002</v>
-                </pt>
-                <pt idx="10">
-                  <v>-24.492</v>
-                </pt>
-                <pt idx="11">
-                  <v>-45.255</v>
-                </pt>
-                <pt idx="12">
-                  <v>-59.1284</v>
-                </pt>
-                <pt idx="13">
-                  <v>-64</v>
-                </pt>
-                <pt idx="14">
-                  <v>-59.1282</v>
-                </pt>
-                <pt idx="15">
-                  <v>-45.2547</v>
-                </pt>
-                <pt idx="16">
-                  <v>-24.4915</v>
-                </pt>
-                <pt idx="17">
-                  <v>0.0003</v>
-                </pt>
-                <pt idx="18">
-                  <v>24.492</v>
-                </pt>
-                <pt idx="19">
-                  <v>45.2551</v>
-                </pt>
-                <pt idx="20">
-                  <v>59.1284</v>
-                </pt>
-                <pt idx="21">
-                  <v>64</v>
-                </pt>
-                <pt idx="22">
-                  <v>59.1282</v>
-                </pt>
-                <pt idx="23">
-                  <v>45.2546</v>
-                </pt>
-                <pt idx="24">
-                  <v>24.4915</v>
-                </pt>
-                <pt idx="25">
-                  <v>-0.0004</v>
-                </pt>
-                <pt idx="26">
-                  <v>-24.847</v>
-                </pt>
-                <pt idx="27">
-                  <v>-48.0003</v>
-                </pt>
-                <pt idx="28">
-                  <v>-67.88249999999999</v>
-                </pt>
-                <pt idx="29">
-                  <v>-83.1386</v>
-                </pt>
-                <pt idx="30">
-                  <v>-92.729</v>
-                </pt>
-                <pt idx="31">
-                  <v>-96</v>
-                </pt>
-                <pt idx="32">
-                  <v>-92.72880000000001</v>
-                </pt>
-                <pt idx="33">
-                  <v>-83.1382</v>
-                </pt>
-                <pt idx="34">
-                  <v>-67.88200000000001</v>
-                </pt>
-                <pt idx="35">
-                  <v>-47.9996</v>
-                </pt>
-                <pt idx="36">
-                  <v>-24.8462</v>
-                </pt>
-                <pt idx="37">
-                  <v>0.0004</v>
-                </pt>
-                <pt idx="38">
-                  <v>24.847</v>
-                </pt>
-                <pt idx="39">
-                  <v>48.0004</v>
-                </pt>
-                <pt idx="40">
-                  <v>67.8826</v>
-                </pt>
-                <pt idx="41">
-                  <v>83.1387</v>
-                </pt>
-                <pt idx="42">
-                  <v>92.729</v>
-                </pt>
-                <pt idx="43">
-                  <v>96</v>
-                </pt>
-                <pt idx="44">
-                  <v>92.72880000000001</v>
-                </pt>
-                <pt idx="45">
-                  <v>83.1382</v>
-                </pt>
-                <pt idx="46">
-                  <v>67.88200000000001</v>
-                </pt>
-                <pt idx="47">
-                  <v>47.9996</v>
-                </pt>
-                <pt idx="48">
-                  <v>24.8462</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </yVal>
-          <smooth val="0"/>
+          <dPt>
+            <idx val="5"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="800000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
         </ser>
-        <dLbls>
-          <showLegendKey val="0"/>
-          <showVal val="0"/>
-          <showCatName val="0"/>
-          <showSerName val="0"/>
-          <showPercent val="0"/>
-          <showBubbleSize val="0"/>
-        </dLbls>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+        </ser>
+        <ser>
+          <idx val="5"/>
+          <order val="5"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+        </ser>
+        <ser>
+          <idx val="6"/>
+          <order val="6"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+        </ser>
+        <ser>
+          <idx val="7"/>
+          <order val="7"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+        </ser>
+        <ser>
+          <idx val="8"/>
+          <order val="8"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+        </ser>
+        <ser>
+          <idx val="9"/>
+          <order val="9"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+        </ser>
+        <ser>
+          <idx val="10"/>
+          <order val="10"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+        </ser>
+        <ser>
+          <idx val="11"/>
+          <order val="11"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+        </ser>
+        <ser>
+          <idx val="12"/>
+          <order val="12"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+        </ser>
+        <ser>
+          <idx val="13"/>
+          <order val="13"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+        </ser>
+        <ser>
+          <idx val="14"/>
+          <order val="14"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+        </ser>
+        <ser>
+          <idx val="15"/>
+          <order val="15"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+        </ser>
+        <ser>
+          <idx val="16"/>
+          <order val="16"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+        </ser>
+        <ser>
+          <idx val="17"/>
+          <order val="17"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+        </ser>
+        <ser>
+          <idx val="18"/>
+          <order val="18"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+        </ser>
+        <ser>
+          <idx val="19"/>
+          <order val="19"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+        </ser>
+        <ser>
+          <idx val="20"/>
+          <order val="20"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+        </ser>
+        <ser>
+          <idx val="21"/>
+          <order val="21"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+        </ser>
+        <ser>
+          <idx val="22"/>
+          <order val="22"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+        </ser>
+        <ser>
+          <idx val="23"/>
+          <order val="23"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+        </ser>
+        <ser>
+          <idx val="24"/>
+          <order val="24"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+        </ser>
+        <ser>
+          <idx val="25"/>
+          <order val="25"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+        </ser>
+        <ser>
+          <idx val="26"/>
+          <order val="26"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+        </ser>
+        <ser>
+          <idx val="27"/>
+          <order val="27"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+        </ser>
+        <ser>
+          <idx val="28"/>
+          <order val="28"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+        </ser>
+        <ser>
+          <idx val="29"/>
+          <order val="29"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+        </ser>
+        <ser>
+          <idx val="30"/>
+          <order val="30"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+        </ser>
+        <ser>
+          <idx val="31"/>
+          <order val="31"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+        </ser>
+        <ser>
+          <idx val="32"/>
+          <order val="32"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+        </ser>
+        <ser>
+          <idx val="33"/>
+          <order val="33"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+        </ser>
+        <ser>
+          <idx val="34"/>
+          <order val="34"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+        </ser>
+        <ser>
+          <idx val="35"/>
+          <order val="35"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+        </ser>
+        <ser>
+          <idx val="36"/>
+          <order val="36"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+        </ser>
+        <ser>
+          <idx val="37"/>
+          <order val="37"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+        </ser>
+        <ser>
+          <idx val="38"/>
+          <order val="38"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+        </ser>
+        <ser>
+          <idx val="39"/>
+          <order val="39"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+        </ser>
+        <ser>
+          <idx val="40"/>
+          <order val="40"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+        </ser>
+        <ser>
+          <idx val="41"/>
+          <order val="41"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+        </ser>
+        <ser>
+          <idx val="42"/>
+          <order val="42"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+        </ser>
+        <ser>
+          <idx val="43"/>
+          <order val="43"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+        </ser>
+        <ser>
+          <idx val="44"/>
+          <order val="44"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+        </ser>
+        <ser>
+          <idx val="45"/>
+          <order val="45"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+        </ser>
+        <ser>
+          <idx val="46"/>
+          <order val="46"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+        </ser>
+        <ser>
+          <idx val="47"/>
+          <order val="47"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+        </ser>
+        <ser>
+          <idx val="48"/>
+          <order val="48"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+        </ser>
+        <ser>
+          <idx val="49"/>
+          <order val="49"/>
+          <spPr>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="circle"/>
+            <size val="15"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <dPt>
+            <idx val="5"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="800000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+        </ser>
         <axId val="10"/>
         <axId val="20"/>
       </scatterChart>
@@ -6868,32 +7398,22 @@
         <scaling>
           <orientation val="minMax"/>
         </scaling>
-        <delete val="0"/>
-        <axPos val="b"/>
+        <axPos val="l"/>
         <majorGridlines/>
-        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
         <crossAx val="20"/>
-        <crosses val="autoZero"/>
-        <crossBetween val="midCat"/>
       </valAx>
       <valAx>
         <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
-        <delete val="0"/>
         <axPos val="l"/>
         <majorGridlines/>
-        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
         <crossAx val="10"/>
-        <crosses val="autoZero"/>
-        <crossBetween val="midCat"/>
       </valAx>
     </plotArea>
     <plotVisOnly val="1"/>
@@ -6909,25 +7429,19 @@
       <tx>
         <rich>
           <a:bodyPr/>
-          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-SG"/>
               <a:t>Scatter Chart Automation Test</a:t>
             </a:r>
           </a:p>
         </rich>
       </tx>
-      <overlay val="0"/>
     </title>
     <plotArea>
-      <layout/>
       <scatterChart>
-        <scatterStyle val="lineMarker"/>
-        <varyColors val="0"/>
         <ser>
           <idx val="0"/>
           <order val="0"/>
@@ -6946,328 +7460,28 @@
               </a:ln>
             </spPr>
           </marker>
+          <dPt>
+            <idx val="5"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="800000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
           <xVal>
             <numRef>
               <f>'13th Wafer (ML RT 7)'!$C$2:$C$50</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="49"/>
-                <pt idx="0">
-                  <v>0</v>
-                </pt>
-                <pt idx="1">
-                  <v>32</v>
-                </pt>
-                <pt idx="2">
-                  <v>22.6273</v>
-                </pt>
-                <pt idx="3">
-                  <v>-0.0001</v>
-                </pt>
-                <pt idx="4">
-                  <v>-22.6275</v>
-                </pt>
-                <pt idx="5">
-                  <v>-32</v>
-                </pt>
-                <pt idx="6">
-                  <v>-22.6273</v>
-                </pt>
-                <pt idx="7">
-                  <v>0.0001</v>
-                </pt>
-                <pt idx="8">
-                  <v>22.6275</v>
-                </pt>
-                <pt idx="9">
-                  <v>64</v>
-                </pt>
-                <pt idx="10">
-                  <v>59.1282</v>
-                </pt>
-                <pt idx="11">
-                  <v>45.2547</v>
-                </pt>
-                <pt idx="12">
-                  <v>24.4915</v>
-                </pt>
-                <pt idx="13">
-                  <v>-0.0003</v>
-                </pt>
-                <pt idx="14">
-                  <v>-24.492</v>
-                </pt>
-                <pt idx="15">
-                  <v>-45.255</v>
-                </pt>
-                <pt idx="16">
-                  <v>-59.1284</v>
-                </pt>
-                <pt idx="17">
-                  <v>-64</v>
-                </pt>
-                <pt idx="18">
-                  <v>-59.1282</v>
-                </pt>
-                <pt idx="19">
-                  <v>-45.2547</v>
-                </pt>
-                <pt idx="20">
-                  <v>-24.4915</v>
-                </pt>
-                <pt idx="21">
-                  <v>0.0003</v>
-                </pt>
-                <pt idx="22">
-                  <v>24.492</v>
-                </pt>
-                <pt idx="23">
-                  <v>45.2551</v>
-                </pt>
-                <pt idx="24">
-                  <v>59.1284</v>
-                </pt>
-                <pt idx="25">
-                  <v>96</v>
-                </pt>
-                <pt idx="26">
-                  <v>92.72880000000001</v>
-                </pt>
-                <pt idx="27">
-                  <v>83.1383</v>
-                </pt>
-                <pt idx="28">
-                  <v>67.88200000000001</v>
-                </pt>
-                <pt idx="29">
-                  <v>47.9997</v>
-                </pt>
-                <pt idx="30">
-                  <v>24.8462</v>
-                </pt>
-                <pt idx="31">
-                  <v>-0.0004</v>
-                </pt>
-                <pt idx="32">
-                  <v>-24.847</v>
-                </pt>
-                <pt idx="33">
-                  <v>-48.0003</v>
-                </pt>
-                <pt idx="34">
-                  <v>-67.8826</v>
-                </pt>
-                <pt idx="35">
-                  <v>-83.1386</v>
-                </pt>
-                <pt idx="36">
-                  <v>-92.729</v>
-                </pt>
-                <pt idx="37">
-                  <v>-96</v>
-                </pt>
-                <pt idx="38">
-                  <v>-92.72880000000001</v>
-                </pt>
-                <pt idx="39">
-                  <v>-83.1382</v>
-                </pt>
-                <pt idx="40">
-                  <v>-67.88200000000001</v>
-                </pt>
-                <pt idx="41">
-                  <v>-47.9996</v>
-                </pt>
-                <pt idx="42">
-                  <v>-24.8462</v>
-                </pt>
-                <pt idx="43">
-                  <v>0.0004</v>
-                </pt>
-                <pt idx="44">
-                  <v>24.847</v>
-                </pt>
-                <pt idx="45">
-                  <v>48.0004</v>
-                </pt>
-                <pt idx="46">
-                  <v>67.8826</v>
-                </pt>
-                <pt idx="47">
-                  <v>83.1387</v>
-                </pt>
-                <pt idx="48">
-                  <v>92.729</v>
-                </pt>
-              </numCache>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
               <f>'13th Wafer (ML RT 7)'!$B$2:$B$50</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="49"/>
-                <pt idx="0">
-                  <v>0</v>
-                </pt>
-                <pt idx="1">
-                  <v>-0.0001</v>
-                </pt>
-                <pt idx="2">
-                  <v>-22.6275</v>
-                </pt>
-                <pt idx="3">
-                  <v>-32</v>
-                </pt>
-                <pt idx="4">
-                  <v>-22.6273</v>
-                </pt>
-                <pt idx="5">
-                  <v>0.0001</v>
-                </pt>
-                <pt idx="6">
-                  <v>22.6275</v>
-                </pt>
-                <pt idx="7">
-                  <v>32</v>
-                </pt>
-                <pt idx="8">
-                  <v>22.6273</v>
-                </pt>
-                <pt idx="9">
-                  <v>-0.0002</v>
-                </pt>
-                <pt idx="10">
-                  <v>-24.492</v>
-                </pt>
-                <pt idx="11">
-                  <v>-45.255</v>
-                </pt>
-                <pt idx="12">
-                  <v>-59.1284</v>
-                </pt>
-                <pt idx="13">
-                  <v>-64</v>
-                </pt>
-                <pt idx="14">
-                  <v>-59.1282</v>
-                </pt>
-                <pt idx="15">
-                  <v>-45.2547</v>
-                </pt>
-                <pt idx="16">
-                  <v>-24.4915</v>
-                </pt>
-                <pt idx="17">
-                  <v>0.0003</v>
-                </pt>
-                <pt idx="18">
-                  <v>24.492</v>
-                </pt>
-                <pt idx="19">
-                  <v>45.2551</v>
-                </pt>
-                <pt idx="20">
-                  <v>59.1284</v>
-                </pt>
-                <pt idx="21">
-                  <v>64</v>
-                </pt>
-                <pt idx="22">
-                  <v>59.1282</v>
-                </pt>
-                <pt idx="23">
-                  <v>45.2546</v>
-                </pt>
-                <pt idx="24">
-                  <v>24.4915</v>
-                </pt>
-                <pt idx="25">
-                  <v>-0.0004</v>
-                </pt>
-                <pt idx="26">
-                  <v>-24.847</v>
-                </pt>
-                <pt idx="27">
-                  <v>-48.0003</v>
-                </pt>
-                <pt idx="28">
-                  <v>-67.88249999999999</v>
-                </pt>
-                <pt idx="29">
-                  <v>-83.1386</v>
-                </pt>
-                <pt idx="30">
-                  <v>-92.729</v>
-                </pt>
-                <pt idx="31">
-                  <v>-96</v>
-                </pt>
-                <pt idx="32">
-                  <v>-92.72880000000001</v>
-                </pt>
-                <pt idx="33">
-                  <v>-83.1382</v>
-                </pt>
-                <pt idx="34">
-                  <v>-67.88200000000001</v>
-                </pt>
-                <pt idx="35">
-                  <v>-47.9996</v>
-                </pt>
-                <pt idx="36">
-                  <v>-24.8462</v>
-                </pt>
-                <pt idx="37">
-                  <v>0.0004</v>
-                </pt>
-                <pt idx="38">
-                  <v>24.847</v>
-                </pt>
-                <pt idx="39">
-                  <v>48.0004</v>
-                </pt>
-                <pt idx="40">
-                  <v>67.8826</v>
-                </pt>
-                <pt idx="41">
-                  <v>83.1387</v>
-                </pt>
-                <pt idx="42">
-                  <v>92.729</v>
-                </pt>
-                <pt idx="43">
-                  <v>96</v>
-                </pt>
-                <pt idx="44">
-                  <v>92.72880000000001</v>
-                </pt>
-                <pt idx="45">
-                  <v>83.1382</v>
-                </pt>
-                <pt idx="46">
-                  <v>67.88200000000001</v>
-                </pt>
-                <pt idx="47">
-                  <v>47.9996</v>
-                </pt>
-                <pt idx="48">
-                  <v>24.8462</v>
-                </pt>
-              </numCache>
             </numRef>
           </yVal>
-          <smooth val="0"/>
         </ser>
-        <dLbls>
-          <showLegendKey val="0"/>
-          <showVal val="0"/>
-          <showCatName val="0"/>
-          <showSerName val="0"/>
-          <showPercent val="0"/>
-          <showBubbleSize val="0"/>
-        </dLbls>
         <axId val="10"/>
         <axId val="20"/>
       </scatterChart>
@@ -7276,32 +7490,22 @@
         <scaling>
           <orientation val="minMax"/>
         </scaling>
-        <delete val="0"/>
-        <axPos val="b"/>
+        <axPos val="l"/>
         <majorGridlines/>
-        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
         <crossAx val="20"/>
-        <crosses val="autoZero"/>
-        <crossBetween val="midCat"/>
       </valAx>
       <valAx>
         <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
-        <delete val="0"/>
         <axPos val="l"/>
         <majorGridlines/>
-        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
         <crossAx val="10"/>
-        <crosses val="autoZero"/>
-        <crossBetween val="midCat"/>
       </valAx>
     </plotArea>
     <plotVisOnly val="1"/>
@@ -8613,7 +8817,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -8675,7 +8879,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -9994,7 +10198,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -10056,7 +10260,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -11375,7 +11579,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -11437,7 +11641,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -12756,7 +12960,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -12818,7 +13022,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -14137,7 +14341,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -14199,7 +14403,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -15518,7 +15722,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -15580,7 +15784,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -16967,7 +17171,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -17029,7 +17233,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -18535,7 +18739,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -18597,7 +18801,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -23549,8 +23753,8 @@
   </sheetPr>
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>

--- a/wafer-mapping-automation-test.xlsx
+++ b/wafer-mapping-automation-test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gohja\Desktop\wafer-map-automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5002D8F8-D40A-4E3C-9394-47103F2D95DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C399AED7-8DCD-46AD-B8C9-3B249FA623E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="532" firstSheet="11" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -811,7 +811,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-43A9-43A4-98AB-D419064EC806}"/>
+              <c16:uniqueId val="{00000000-4466-4507-A721-A611E8BB695C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -863,7 +863,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-43A9-43A4-98AB-D419064EC806}"/>
+              <c16:uniqueId val="{00000001-4466-4507-A721-A611E8BB695C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -915,7 +915,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-43A9-43A4-98AB-D419064EC806}"/>
+              <c16:uniqueId val="{00000002-4466-4507-A721-A611E8BB695C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -967,7 +967,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-43A9-43A4-98AB-D419064EC806}"/>
+              <c16:uniqueId val="{00000003-4466-4507-A721-A611E8BB695C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1019,7 +1019,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-43A9-43A4-98AB-D419064EC806}"/>
+              <c16:uniqueId val="{00000004-4466-4507-A721-A611E8BB695C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1071,7 +1071,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-43A9-43A4-98AB-D419064EC806}"/>
+              <c16:uniqueId val="{00000005-4466-4507-A721-A611E8BB695C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1123,7 +1123,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-43A9-43A4-98AB-D419064EC806}"/>
+              <c16:uniqueId val="{00000006-4466-4507-A721-A611E8BB695C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1175,7 +1175,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-43A9-43A4-98AB-D419064EC806}"/>
+              <c16:uniqueId val="{00000007-4466-4507-A721-A611E8BB695C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1227,7 +1227,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-43A9-43A4-98AB-D419064EC806}"/>
+              <c16:uniqueId val="{00000008-4466-4507-A721-A611E8BB695C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1279,7 +1279,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-43A9-43A4-98AB-D419064EC806}"/>
+              <c16:uniqueId val="{00000009-4466-4507-A721-A611E8BB695C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1331,7 +1331,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-43A9-43A4-98AB-D419064EC806}"/>
+              <c16:uniqueId val="{0000000A-4466-4507-A721-A611E8BB695C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1383,7 +1383,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-43A9-43A4-98AB-D419064EC806}"/>
+              <c16:uniqueId val="{0000000B-4466-4507-A721-A611E8BB695C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1435,7 +1435,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-43A9-43A4-98AB-D419064EC806}"/>
+              <c16:uniqueId val="{0000000C-4466-4507-A721-A611E8BB695C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1487,7 +1487,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000D-43A9-43A4-98AB-D419064EC806}"/>
+              <c16:uniqueId val="{0000000D-4466-4507-A721-A611E8BB695C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1539,7 +1539,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000E-43A9-43A4-98AB-D419064EC806}"/>
+              <c16:uniqueId val="{0000000E-4466-4507-A721-A611E8BB695C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1591,7 +1591,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000F-43A9-43A4-98AB-D419064EC806}"/>
+              <c16:uniqueId val="{0000000F-4466-4507-A721-A611E8BB695C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1643,7 +1643,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000010-43A9-43A4-98AB-D419064EC806}"/>
+              <c16:uniqueId val="{00000010-4466-4507-A721-A611E8BB695C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1695,7 +1695,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000011-43A9-43A4-98AB-D419064EC806}"/>
+              <c16:uniqueId val="{00000011-4466-4507-A721-A611E8BB695C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1747,7 +1747,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000012-43A9-43A4-98AB-D419064EC806}"/>
+              <c16:uniqueId val="{00000012-4466-4507-A721-A611E8BB695C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1799,7 +1799,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000013-43A9-43A4-98AB-D419064EC806}"/>
+              <c16:uniqueId val="{00000013-4466-4507-A721-A611E8BB695C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1851,7 +1851,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000014-43A9-43A4-98AB-D419064EC806}"/>
+              <c16:uniqueId val="{00000014-4466-4507-A721-A611E8BB695C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1903,7 +1903,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000015-43A9-43A4-98AB-D419064EC806}"/>
+              <c16:uniqueId val="{00000015-4466-4507-A721-A611E8BB695C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1955,7 +1955,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000016-43A9-43A4-98AB-D419064EC806}"/>
+              <c16:uniqueId val="{00000016-4466-4507-A721-A611E8BB695C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2007,7 +2007,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000017-43A9-43A4-98AB-D419064EC806}"/>
+              <c16:uniqueId val="{00000017-4466-4507-A721-A611E8BB695C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2059,7 +2059,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000018-43A9-43A4-98AB-D419064EC806}"/>
+              <c16:uniqueId val="{00000018-4466-4507-A721-A611E8BB695C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2111,7 +2111,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000019-43A9-43A4-98AB-D419064EC806}"/>
+              <c16:uniqueId val="{00000019-4466-4507-A721-A611E8BB695C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2163,7 +2163,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001A-43A9-43A4-98AB-D419064EC806}"/>
+              <c16:uniqueId val="{0000001A-4466-4507-A721-A611E8BB695C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2215,7 +2215,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001B-43A9-43A4-98AB-D419064EC806}"/>
+              <c16:uniqueId val="{0000001B-4466-4507-A721-A611E8BB695C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2267,7 +2267,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001C-43A9-43A4-98AB-D419064EC806}"/>
+              <c16:uniqueId val="{0000001C-4466-4507-A721-A611E8BB695C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2319,7 +2319,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001D-43A9-43A4-98AB-D419064EC806}"/>
+              <c16:uniqueId val="{0000001D-4466-4507-A721-A611E8BB695C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2371,7 +2371,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001E-43A9-43A4-98AB-D419064EC806}"/>
+              <c16:uniqueId val="{0000001E-4466-4507-A721-A611E8BB695C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2423,7 +2423,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001F-43A9-43A4-98AB-D419064EC806}"/>
+              <c16:uniqueId val="{0000001F-4466-4507-A721-A611E8BB695C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2475,7 +2475,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000020-43A9-43A4-98AB-D419064EC806}"/>
+              <c16:uniqueId val="{00000020-4466-4507-A721-A611E8BB695C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2527,7 +2527,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000021-43A9-43A4-98AB-D419064EC806}"/>
+              <c16:uniqueId val="{00000021-4466-4507-A721-A611E8BB695C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2579,7 +2579,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000022-43A9-43A4-98AB-D419064EC806}"/>
+              <c16:uniqueId val="{00000022-4466-4507-A721-A611E8BB695C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2631,7 +2631,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000023-43A9-43A4-98AB-D419064EC806}"/>
+              <c16:uniqueId val="{00000023-4466-4507-A721-A611E8BB695C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2683,7 +2683,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000024-43A9-43A4-98AB-D419064EC806}"/>
+              <c16:uniqueId val="{00000024-4466-4507-A721-A611E8BB695C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2735,7 +2735,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000025-43A9-43A4-98AB-D419064EC806}"/>
+              <c16:uniqueId val="{00000025-4466-4507-A721-A611E8BB695C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2787,7 +2787,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000026-43A9-43A4-98AB-D419064EC806}"/>
+              <c16:uniqueId val="{00000026-4466-4507-A721-A611E8BB695C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2839,7 +2839,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000027-43A9-43A4-98AB-D419064EC806}"/>
+              <c16:uniqueId val="{00000027-4466-4507-A721-A611E8BB695C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2891,7 +2891,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000028-43A9-43A4-98AB-D419064EC806}"/>
+              <c16:uniqueId val="{00000028-4466-4507-A721-A611E8BB695C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2943,7 +2943,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000029-43A9-43A4-98AB-D419064EC806}"/>
+              <c16:uniqueId val="{00000029-4466-4507-A721-A611E8BB695C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2995,7 +2995,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002A-43A9-43A4-98AB-D419064EC806}"/>
+              <c16:uniqueId val="{0000002A-4466-4507-A721-A611E8BB695C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3047,7 +3047,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002B-43A9-43A4-98AB-D419064EC806}"/>
+              <c16:uniqueId val="{0000002B-4466-4507-A721-A611E8BB695C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3099,7 +3099,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002C-43A9-43A4-98AB-D419064EC806}"/>
+              <c16:uniqueId val="{0000002C-4466-4507-A721-A611E8BB695C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3151,7 +3151,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002D-43A9-43A4-98AB-D419064EC806}"/>
+              <c16:uniqueId val="{0000002D-4466-4507-A721-A611E8BB695C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3203,7 +3203,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002E-43A9-43A4-98AB-D419064EC806}"/>
+              <c16:uniqueId val="{0000002E-4466-4507-A721-A611E8BB695C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3255,7 +3255,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002F-43A9-43A4-98AB-D419064EC806}"/>
+              <c16:uniqueId val="{0000002F-4466-4507-A721-A611E8BB695C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3307,7 +3307,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000030-43A9-43A4-98AB-D419064EC806}"/>
+              <c16:uniqueId val="{00000030-4466-4507-A721-A611E8BB695C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3495,7 +3495,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-0DF4-4CCC-AAD5-0CBFB54CC091}"/>
+                <c16:uniqueId val="{00000001-4432-4C86-A191-0EB36D3EADC1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3512,7 +3512,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-0DF4-4CCC-AAD5-0CBFB54CC091}"/>
+                <c16:uniqueId val="{00000003-4432-4C86-A191-0EB36D3EADC1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3529,7 +3529,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-0DF4-4CCC-AAD5-0CBFB54CC091}"/>
+                <c16:uniqueId val="{00000005-4432-4C86-A191-0EB36D3EADC1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3546,7 +3546,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-0DF4-4CCC-AAD5-0CBFB54CC091}"/>
+                <c16:uniqueId val="{00000007-4432-4C86-A191-0EB36D3EADC1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3563,7 +3563,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-0DF4-4CCC-AAD5-0CBFB54CC091}"/>
+                <c16:uniqueId val="{00000009-4432-4C86-A191-0EB36D3EADC1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3580,7 +3580,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-0DF4-4CCC-AAD5-0CBFB54CC091}"/>
+                <c16:uniqueId val="{0000000B-4432-4C86-A191-0EB36D3EADC1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3597,7 +3597,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-0DF4-4CCC-AAD5-0CBFB54CC091}"/>
+                <c16:uniqueId val="{0000000D-4432-4C86-A191-0EB36D3EADC1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3614,7 +3614,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000F-0DF4-4CCC-AAD5-0CBFB54CC091}"/>
+                <c16:uniqueId val="{0000000F-4432-4C86-A191-0EB36D3EADC1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3631,7 +3631,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000011-0DF4-4CCC-AAD5-0CBFB54CC091}"/>
+                <c16:uniqueId val="{00000011-4432-4C86-A191-0EB36D3EADC1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3648,7 +3648,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000013-0DF4-4CCC-AAD5-0CBFB54CC091}"/>
+                <c16:uniqueId val="{00000013-4432-4C86-A191-0EB36D3EADC1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3665,7 +3665,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000015-0DF4-4CCC-AAD5-0CBFB54CC091}"/>
+                <c16:uniqueId val="{00000015-4432-4C86-A191-0EB36D3EADC1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3682,7 +3682,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000017-0DF4-4CCC-AAD5-0CBFB54CC091}"/>
+                <c16:uniqueId val="{00000017-4432-4C86-A191-0EB36D3EADC1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3699,7 +3699,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000019-0DF4-4CCC-AAD5-0CBFB54CC091}"/>
+                <c16:uniqueId val="{00000019-4432-4C86-A191-0EB36D3EADC1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3716,7 +3716,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001B-0DF4-4CCC-AAD5-0CBFB54CC091}"/>
+                <c16:uniqueId val="{0000001B-4432-4C86-A191-0EB36D3EADC1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3733,7 +3733,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001D-0DF4-4CCC-AAD5-0CBFB54CC091}"/>
+                <c16:uniqueId val="{0000001D-4432-4C86-A191-0EB36D3EADC1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3750,7 +3750,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001F-0DF4-4CCC-AAD5-0CBFB54CC091}"/>
+                <c16:uniqueId val="{0000001F-4432-4C86-A191-0EB36D3EADC1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3767,7 +3767,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000021-0DF4-4CCC-AAD5-0CBFB54CC091}"/>
+                <c16:uniqueId val="{00000021-4432-4C86-A191-0EB36D3EADC1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3784,7 +3784,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000023-0DF4-4CCC-AAD5-0CBFB54CC091}"/>
+                <c16:uniqueId val="{00000023-4432-4C86-A191-0EB36D3EADC1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3801,7 +3801,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000025-0DF4-4CCC-AAD5-0CBFB54CC091}"/>
+                <c16:uniqueId val="{00000025-4432-4C86-A191-0EB36D3EADC1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3818,7 +3818,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000027-0DF4-4CCC-AAD5-0CBFB54CC091}"/>
+                <c16:uniqueId val="{00000027-4432-4C86-A191-0EB36D3EADC1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3835,7 +3835,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000029-0DF4-4CCC-AAD5-0CBFB54CC091}"/>
+                <c16:uniqueId val="{00000029-4432-4C86-A191-0EB36D3EADC1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3852,7 +3852,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002B-0DF4-4CCC-AAD5-0CBFB54CC091}"/>
+                <c16:uniqueId val="{0000002B-4432-4C86-A191-0EB36D3EADC1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3869,7 +3869,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002D-0DF4-4CCC-AAD5-0CBFB54CC091}"/>
+                <c16:uniqueId val="{0000002D-4432-4C86-A191-0EB36D3EADC1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3886,7 +3886,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002F-0DF4-4CCC-AAD5-0CBFB54CC091}"/>
+                <c16:uniqueId val="{0000002F-4432-4C86-A191-0EB36D3EADC1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3903,7 +3903,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000031-0DF4-4CCC-AAD5-0CBFB54CC091}"/>
+                <c16:uniqueId val="{00000031-4432-4C86-A191-0EB36D3EADC1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3920,7 +3920,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000033-0DF4-4CCC-AAD5-0CBFB54CC091}"/>
+                <c16:uniqueId val="{00000033-4432-4C86-A191-0EB36D3EADC1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3937,7 +3937,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000035-0DF4-4CCC-AAD5-0CBFB54CC091}"/>
+                <c16:uniqueId val="{00000035-4432-4C86-A191-0EB36D3EADC1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3954,7 +3954,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000037-0DF4-4CCC-AAD5-0CBFB54CC091}"/>
+                <c16:uniqueId val="{00000037-4432-4C86-A191-0EB36D3EADC1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3971,7 +3971,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000039-0DF4-4CCC-AAD5-0CBFB54CC091}"/>
+                <c16:uniqueId val="{00000039-4432-4C86-A191-0EB36D3EADC1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3988,7 +3988,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000003B-0DF4-4CCC-AAD5-0CBFB54CC091}"/>
+                <c16:uniqueId val="{0000003B-4432-4C86-A191-0EB36D3EADC1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4005,7 +4005,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000003D-0DF4-4CCC-AAD5-0CBFB54CC091}"/>
+                <c16:uniqueId val="{0000003D-4432-4C86-A191-0EB36D3EADC1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4022,7 +4022,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000003F-0DF4-4CCC-AAD5-0CBFB54CC091}"/>
+                <c16:uniqueId val="{0000003F-4432-4C86-A191-0EB36D3EADC1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4039,7 +4039,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000041-0DF4-4CCC-AAD5-0CBFB54CC091}"/>
+                <c16:uniqueId val="{00000041-4432-4C86-A191-0EB36D3EADC1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4056,7 +4056,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000043-0DF4-4CCC-AAD5-0CBFB54CC091}"/>
+                <c16:uniqueId val="{00000043-4432-4C86-A191-0EB36D3EADC1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4073,7 +4073,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000045-0DF4-4CCC-AAD5-0CBFB54CC091}"/>
+                <c16:uniqueId val="{00000045-4432-4C86-A191-0EB36D3EADC1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4090,7 +4090,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000047-0DF4-4CCC-AAD5-0CBFB54CC091}"/>
+                <c16:uniqueId val="{00000047-4432-4C86-A191-0EB36D3EADC1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4107,7 +4107,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000049-0DF4-4CCC-AAD5-0CBFB54CC091}"/>
+                <c16:uniqueId val="{00000049-4432-4C86-A191-0EB36D3EADC1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4124,7 +4124,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000004B-0DF4-4CCC-AAD5-0CBFB54CC091}"/>
+                <c16:uniqueId val="{0000004B-4432-4C86-A191-0EB36D3EADC1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4141,7 +4141,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000004D-0DF4-4CCC-AAD5-0CBFB54CC091}"/>
+                <c16:uniqueId val="{0000004D-4432-4C86-A191-0EB36D3EADC1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4158,7 +4158,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000004F-0DF4-4CCC-AAD5-0CBFB54CC091}"/>
+                <c16:uniqueId val="{0000004F-4432-4C86-A191-0EB36D3EADC1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4175,7 +4175,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000051-0DF4-4CCC-AAD5-0CBFB54CC091}"/>
+                <c16:uniqueId val="{00000051-4432-4C86-A191-0EB36D3EADC1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4192,7 +4192,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000053-0DF4-4CCC-AAD5-0CBFB54CC091}"/>
+                <c16:uniqueId val="{00000053-4432-4C86-A191-0EB36D3EADC1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4209,7 +4209,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000055-0DF4-4CCC-AAD5-0CBFB54CC091}"/>
+                <c16:uniqueId val="{00000055-4432-4C86-A191-0EB36D3EADC1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4226,7 +4226,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000057-0DF4-4CCC-AAD5-0CBFB54CC091}"/>
+                <c16:uniqueId val="{00000057-4432-4C86-A191-0EB36D3EADC1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4243,7 +4243,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000059-0DF4-4CCC-AAD5-0CBFB54CC091}"/>
+                <c16:uniqueId val="{00000059-4432-4C86-A191-0EB36D3EADC1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4260,7 +4260,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000005B-0DF4-4CCC-AAD5-0CBFB54CC091}"/>
+                <c16:uniqueId val="{0000005B-4432-4C86-A191-0EB36D3EADC1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4277,7 +4277,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000005D-0DF4-4CCC-AAD5-0CBFB54CC091}"/>
+                <c16:uniqueId val="{0000005D-4432-4C86-A191-0EB36D3EADC1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4294,7 +4294,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000005F-0DF4-4CCC-AAD5-0CBFB54CC091}"/>
+                <c16:uniqueId val="{0000005F-4432-4C86-A191-0EB36D3EADC1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4311,7 +4311,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000061-0DF4-4CCC-AAD5-0CBFB54CC091}"/>
+                <c16:uniqueId val="{00000061-4432-4C86-A191-0EB36D3EADC1}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4630,7 +4630,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000062-0DF4-4CCC-AAD5-0CBFB54CC091}"/>
+              <c16:uniqueId val="{00000062-4432-4C86-A191-0EB36D3EADC1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4862,7 +4862,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FEB3-4F21-B833-7E2B9B6C7631}"/>
+              <c16:uniqueId val="{00000000-C43E-491C-8FD2-124E4E3B8D26}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4914,7 +4914,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FEB3-4F21-B833-7E2B9B6C7631}"/>
+              <c16:uniqueId val="{00000001-C43E-491C-8FD2-124E4E3B8D26}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4966,7 +4966,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-FEB3-4F21-B833-7E2B9B6C7631}"/>
+              <c16:uniqueId val="{00000002-C43E-491C-8FD2-124E4E3B8D26}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5018,7 +5018,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-FEB3-4F21-B833-7E2B9B6C7631}"/>
+              <c16:uniqueId val="{00000003-C43E-491C-8FD2-124E4E3B8D26}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5070,7 +5070,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-FEB3-4F21-B833-7E2B9B6C7631}"/>
+              <c16:uniqueId val="{00000004-C43E-491C-8FD2-124E4E3B8D26}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5122,7 +5122,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-FEB3-4F21-B833-7E2B9B6C7631}"/>
+              <c16:uniqueId val="{00000005-C43E-491C-8FD2-124E4E3B8D26}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5174,7 +5174,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-FEB3-4F21-B833-7E2B9B6C7631}"/>
+              <c16:uniqueId val="{00000006-C43E-491C-8FD2-124E4E3B8D26}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5226,7 +5226,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-FEB3-4F21-B833-7E2B9B6C7631}"/>
+              <c16:uniqueId val="{00000007-C43E-491C-8FD2-124E4E3B8D26}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5278,7 +5278,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-FEB3-4F21-B833-7E2B9B6C7631}"/>
+              <c16:uniqueId val="{00000008-C43E-491C-8FD2-124E4E3B8D26}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5330,7 +5330,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-FEB3-4F21-B833-7E2B9B6C7631}"/>
+              <c16:uniqueId val="{00000009-C43E-491C-8FD2-124E4E3B8D26}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5382,7 +5382,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-FEB3-4F21-B833-7E2B9B6C7631}"/>
+              <c16:uniqueId val="{0000000A-C43E-491C-8FD2-124E4E3B8D26}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5434,7 +5434,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-FEB3-4F21-B833-7E2B9B6C7631}"/>
+              <c16:uniqueId val="{0000000B-C43E-491C-8FD2-124E4E3B8D26}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5486,7 +5486,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-FEB3-4F21-B833-7E2B9B6C7631}"/>
+              <c16:uniqueId val="{0000000C-C43E-491C-8FD2-124E4E3B8D26}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5538,7 +5538,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000D-FEB3-4F21-B833-7E2B9B6C7631}"/>
+              <c16:uniqueId val="{0000000D-C43E-491C-8FD2-124E4E3B8D26}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5590,7 +5590,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000E-FEB3-4F21-B833-7E2B9B6C7631}"/>
+              <c16:uniqueId val="{0000000E-C43E-491C-8FD2-124E4E3B8D26}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5642,7 +5642,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000F-FEB3-4F21-B833-7E2B9B6C7631}"/>
+              <c16:uniqueId val="{0000000F-C43E-491C-8FD2-124E4E3B8D26}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5694,7 +5694,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000010-FEB3-4F21-B833-7E2B9B6C7631}"/>
+              <c16:uniqueId val="{00000010-C43E-491C-8FD2-124E4E3B8D26}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5746,7 +5746,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000011-FEB3-4F21-B833-7E2B9B6C7631}"/>
+              <c16:uniqueId val="{00000011-C43E-491C-8FD2-124E4E3B8D26}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5798,7 +5798,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000012-FEB3-4F21-B833-7E2B9B6C7631}"/>
+              <c16:uniqueId val="{00000012-C43E-491C-8FD2-124E4E3B8D26}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5850,7 +5850,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000013-FEB3-4F21-B833-7E2B9B6C7631}"/>
+              <c16:uniqueId val="{00000013-C43E-491C-8FD2-124E4E3B8D26}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5902,7 +5902,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000014-FEB3-4F21-B833-7E2B9B6C7631}"/>
+              <c16:uniqueId val="{00000014-C43E-491C-8FD2-124E4E3B8D26}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5954,7 +5954,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000015-FEB3-4F21-B833-7E2B9B6C7631}"/>
+              <c16:uniqueId val="{00000015-C43E-491C-8FD2-124E4E3B8D26}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6006,7 +6006,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000016-FEB3-4F21-B833-7E2B9B6C7631}"/>
+              <c16:uniqueId val="{00000016-C43E-491C-8FD2-124E4E3B8D26}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6058,7 +6058,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000017-FEB3-4F21-B833-7E2B9B6C7631}"/>
+              <c16:uniqueId val="{00000017-C43E-491C-8FD2-124E4E3B8D26}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6110,7 +6110,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000018-FEB3-4F21-B833-7E2B9B6C7631}"/>
+              <c16:uniqueId val="{00000018-C43E-491C-8FD2-124E4E3B8D26}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6162,7 +6162,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000019-FEB3-4F21-B833-7E2B9B6C7631}"/>
+              <c16:uniqueId val="{00000019-C43E-491C-8FD2-124E4E3B8D26}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6214,7 +6214,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001A-FEB3-4F21-B833-7E2B9B6C7631}"/>
+              <c16:uniqueId val="{0000001A-C43E-491C-8FD2-124E4E3B8D26}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6266,7 +6266,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001B-FEB3-4F21-B833-7E2B9B6C7631}"/>
+              <c16:uniqueId val="{0000001B-C43E-491C-8FD2-124E4E3B8D26}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6318,7 +6318,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001C-FEB3-4F21-B833-7E2B9B6C7631}"/>
+              <c16:uniqueId val="{0000001C-C43E-491C-8FD2-124E4E3B8D26}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6370,7 +6370,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001D-FEB3-4F21-B833-7E2B9B6C7631}"/>
+              <c16:uniqueId val="{0000001D-C43E-491C-8FD2-124E4E3B8D26}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6422,7 +6422,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001E-FEB3-4F21-B833-7E2B9B6C7631}"/>
+              <c16:uniqueId val="{0000001E-C43E-491C-8FD2-124E4E3B8D26}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6474,7 +6474,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001F-FEB3-4F21-B833-7E2B9B6C7631}"/>
+              <c16:uniqueId val="{0000001F-C43E-491C-8FD2-124E4E3B8D26}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6526,7 +6526,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000020-FEB3-4F21-B833-7E2B9B6C7631}"/>
+              <c16:uniqueId val="{00000020-C43E-491C-8FD2-124E4E3B8D26}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6578,7 +6578,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000021-FEB3-4F21-B833-7E2B9B6C7631}"/>
+              <c16:uniqueId val="{00000021-C43E-491C-8FD2-124E4E3B8D26}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6630,7 +6630,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000022-FEB3-4F21-B833-7E2B9B6C7631}"/>
+              <c16:uniqueId val="{00000022-C43E-491C-8FD2-124E4E3B8D26}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6682,7 +6682,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000023-FEB3-4F21-B833-7E2B9B6C7631}"/>
+              <c16:uniqueId val="{00000023-C43E-491C-8FD2-124E4E3B8D26}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6734,7 +6734,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000024-FEB3-4F21-B833-7E2B9B6C7631}"/>
+              <c16:uniqueId val="{00000024-C43E-491C-8FD2-124E4E3B8D26}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6786,7 +6786,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000025-FEB3-4F21-B833-7E2B9B6C7631}"/>
+              <c16:uniqueId val="{00000025-C43E-491C-8FD2-124E4E3B8D26}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6838,7 +6838,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000026-FEB3-4F21-B833-7E2B9B6C7631}"/>
+              <c16:uniqueId val="{00000026-C43E-491C-8FD2-124E4E3B8D26}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6890,7 +6890,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000027-FEB3-4F21-B833-7E2B9B6C7631}"/>
+              <c16:uniqueId val="{00000027-C43E-491C-8FD2-124E4E3B8D26}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6942,7 +6942,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000028-FEB3-4F21-B833-7E2B9B6C7631}"/>
+              <c16:uniqueId val="{00000028-C43E-491C-8FD2-124E4E3B8D26}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6994,7 +6994,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000029-FEB3-4F21-B833-7E2B9B6C7631}"/>
+              <c16:uniqueId val="{00000029-C43E-491C-8FD2-124E4E3B8D26}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7046,7 +7046,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002A-FEB3-4F21-B833-7E2B9B6C7631}"/>
+              <c16:uniqueId val="{0000002A-C43E-491C-8FD2-124E4E3B8D26}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7098,7 +7098,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002B-FEB3-4F21-B833-7E2B9B6C7631}"/>
+              <c16:uniqueId val="{0000002B-C43E-491C-8FD2-124E4E3B8D26}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7150,7 +7150,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002C-FEB3-4F21-B833-7E2B9B6C7631}"/>
+              <c16:uniqueId val="{0000002C-C43E-491C-8FD2-124E4E3B8D26}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7202,7 +7202,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002D-FEB3-4F21-B833-7E2B9B6C7631}"/>
+              <c16:uniqueId val="{0000002D-C43E-491C-8FD2-124E4E3B8D26}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7254,7 +7254,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002E-FEB3-4F21-B833-7E2B9B6C7631}"/>
+              <c16:uniqueId val="{0000002E-C43E-491C-8FD2-124E4E3B8D26}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7306,7 +7306,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002F-FEB3-4F21-B833-7E2B9B6C7631}"/>
+              <c16:uniqueId val="{0000002F-C43E-491C-8FD2-124E4E3B8D26}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7358,7 +7358,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000030-FEB3-4F21-B833-7E2B9B6C7631}"/>
+              <c16:uniqueId val="{00000030-C43E-491C-8FD2-124E4E3B8D26}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7504,7 +7504,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5D6E-4495-8CBC-8AAB84EC42C6}"/>
+              <c16:uniqueId val="{00000000-6A11-44F1-9471-7ACC027BA1E3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7522,7 +7522,7 @@
             <c:size val="15"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="000080"/>
+                <a:srgbClr val="0000FF"/>
               </a:solidFill>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -7556,7 +7556,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5D6E-4495-8CBC-8AAB84EC42C6}"/>
+              <c16:uniqueId val="{00000001-6A11-44F1-9471-7ACC027BA1E3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7574,7 +7574,7 @@
             <c:size val="15"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="000080"/>
+                <a:srgbClr val="0000FF"/>
               </a:solidFill>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -7608,7 +7608,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5D6E-4495-8CBC-8AAB84EC42C6}"/>
+              <c16:uniqueId val="{00000002-6A11-44F1-9471-7ACC027BA1E3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7626,7 +7626,7 @@
             <c:size val="15"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="000080"/>
+                <a:srgbClr val="0000FF"/>
               </a:solidFill>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -7660,7 +7660,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-5D6E-4495-8CBC-8AAB84EC42C6}"/>
+              <c16:uniqueId val="{00000003-6A11-44F1-9471-7ACC027BA1E3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7678,7 +7678,7 @@
             <c:size val="15"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="000080"/>
+                <a:srgbClr val="0000FF"/>
               </a:solidFill>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -7712,7 +7712,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-5D6E-4495-8CBC-8AAB84EC42C6}"/>
+              <c16:uniqueId val="{00000004-6A11-44F1-9471-7ACC027BA1E3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7730,7 +7730,7 @@
             <c:size val="15"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="000080"/>
+                <a:srgbClr val="0000FF"/>
               </a:solidFill>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -7764,7 +7764,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-5D6E-4495-8CBC-8AAB84EC42C6}"/>
+              <c16:uniqueId val="{00000005-6A11-44F1-9471-7ACC027BA1E3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7782,7 +7782,7 @@
             <c:size val="15"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="000080"/>
+                <a:srgbClr val="0000FF"/>
               </a:solidFill>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -7816,7 +7816,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-5D6E-4495-8CBC-8AAB84EC42C6}"/>
+              <c16:uniqueId val="{00000006-6A11-44F1-9471-7ACC027BA1E3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7834,7 +7834,7 @@
             <c:size val="15"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="000080"/>
+                <a:srgbClr val="0000FF"/>
               </a:solidFill>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -7868,7 +7868,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-5D6E-4495-8CBC-8AAB84EC42C6}"/>
+              <c16:uniqueId val="{00000007-6A11-44F1-9471-7ACC027BA1E3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7886,7 +7886,7 @@
             <c:size val="15"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="000080"/>
+                <a:srgbClr val="0000FF"/>
               </a:solidFill>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -7920,7 +7920,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-5D6E-4495-8CBC-8AAB84EC42C6}"/>
+              <c16:uniqueId val="{00000008-6A11-44F1-9471-7ACC027BA1E3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7938,7 +7938,7 @@
             <c:size val="15"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="000080"/>
+                <a:srgbClr val="0000FF"/>
               </a:solidFill>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -7972,7 +7972,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-5D6E-4495-8CBC-8AAB84EC42C6}"/>
+              <c16:uniqueId val="{00000009-6A11-44F1-9471-7ACC027BA1E3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7990,7 +7990,7 @@
             <c:size val="15"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="000080"/>
+                <a:srgbClr val="0000FF"/>
               </a:solidFill>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -8024,7 +8024,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-5D6E-4495-8CBC-8AAB84EC42C6}"/>
+              <c16:uniqueId val="{0000000A-6A11-44F1-9471-7ACC027BA1E3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8042,7 +8042,7 @@
             <c:size val="15"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="000080"/>
+                <a:srgbClr val="0000FF"/>
               </a:solidFill>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -8076,7 +8076,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-5D6E-4495-8CBC-8AAB84EC42C6}"/>
+              <c16:uniqueId val="{0000000B-6A11-44F1-9471-7ACC027BA1E3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8094,7 +8094,7 @@
             <c:size val="15"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="000080"/>
+                <a:srgbClr val="0000FF"/>
               </a:solidFill>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -8128,7 +8128,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-5D6E-4495-8CBC-8AAB84EC42C6}"/>
+              <c16:uniqueId val="{0000000C-6A11-44F1-9471-7ACC027BA1E3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8146,7 +8146,7 @@
             <c:size val="15"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="000080"/>
+                <a:srgbClr val="0000FF"/>
               </a:solidFill>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -8180,7 +8180,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000D-5D6E-4495-8CBC-8AAB84EC42C6}"/>
+              <c16:uniqueId val="{0000000D-6A11-44F1-9471-7ACC027BA1E3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8198,7 +8198,7 @@
             <c:size val="15"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="000080"/>
+                <a:srgbClr val="0000FF"/>
               </a:solidFill>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -8232,7 +8232,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000E-5D6E-4495-8CBC-8AAB84EC42C6}"/>
+              <c16:uniqueId val="{0000000E-6A11-44F1-9471-7ACC027BA1E3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8250,7 +8250,7 @@
             <c:size val="15"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="000080"/>
+                <a:srgbClr val="0000FF"/>
               </a:solidFill>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -8284,7 +8284,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000F-5D6E-4495-8CBC-8AAB84EC42C6}"/>
+              <c16:uniqueId val="{0000000F-6A11-44F1-9471-7ACC027BA1E3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8302,7 +8302,7 @@
             <c:size val="15"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="000080"/>
+                <a:srgbClr val="0000FF"/>
               </a:solidFill>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -8336,7 +8336,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000010-5D6E-4495-8CBC-8AAB84EC42C6}"/>
+              <c16:uniqueId val="{00000010-6A11-44F1-9471-7ACC027BA1E3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8354,7 +8354,7 @@
             <c:size val="15"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="000080"/>
+                <a:srgbClr val="0000FF"/>
               </a:solidFill>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -8388,7 +8388,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000011-5D6E-4495-8CBC-8AAB84EC42C6}"/>
+              <c16:uniqueId val="{00000011-6A11-44F1-9471-7ACC027BA1E3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8406,7 +8406,7 @@
             <c:size val="15"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="000080"/>
+                <a:srgbClr val="0000FF"/>
               </a:solidFill>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -8440,7 +8440,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000012-5D6E-4495-8CBC-8AAB84EC42C6}"/>
+              <c16:uniqueId val="{00000012-6A11-44F1-9471-7ACC027BA1E3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8458,7 +8458,7 @@
             <c:size val="15"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="000080"/>
+                <a:srgbClr val="0000FF"/>
               </a:solidFill>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -8492,7 +8492,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000013-5D6E-4495-8CBC-8AAB84EC42C6}"/>
+              <c16:uniqueId val="{00000013-6A11-44F1-9471-7ACC027BA1E3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8510,7 +8510,7 @@
             <c:size val="15"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="000080"/>
+                <a:srgbClr val="0000FF"/>
               </a:solidFill>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -8544,7 +8544,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000014-5D6E-4495-8CBC-8AAB84EC42C6}"/>
+              <c16:uniqueId val="{00000014-6A11-44F1-9471-7ACC027BA1E3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8562,7 +8562,7 @@
             <c:size val="15"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="000080"/>
+                <a:srgbClr val="0000FF"/>
               </a:solidFill>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -8596,7 +8596,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000015-5D6E-4495-8CBC-8AAB84EC42C6}"/>
+              <c16:uniqueId val="{00000015-6A11-44F1-9471-7ACC027BA1E3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8614,7 +8614,7 @@
             <c:size val="15"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="000080"/>
+                <a:srgbClr val="0000FF"/>
               </a:solidFill>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -8648,7 +8648,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000016-5D6E-4495-8CBC-8AAB84EC42C6}"/>
+              <c16:uniqueId val="{00000016-6A11-44F1-9471-7ACC027BA1E3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8666,7 +8666,7 @@
             <c:size val="15"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="000080"/>
+                <a:srgbClr val="0000FF"/>
               </a:solidFill>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -8700,7 +8700,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000017-5D6E-4495-8CBC-8AAB84EC42C6}"/>
+              <c16:uniqueId val="{00000017-6A11-44F1-9471-7ACC027BA1E3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8718,7 +8718,7 @@
             <c:size val="15"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="000080"/>
+                <a:srgbClr val="0000FF"/>
               </a:solidFill>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -8752,7 +8752,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000018-5D6E-4495-8CBC-8AAB84EC42C6}"/>
+              <c16:uniqueId val="{00000018-6A11-44F1-9471-7ACC027BA1E3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8770,7 +8770,7 @@
             <c:size val="15"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="000080"/>
+                <a:srgbClr val="0000FF"/>
               </a:solidFill>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -8804,7 +8804,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000019-5D6E-4495-8CBC-8AAB84EC42C6}"/>
+              <c16:uniqueId val="{00000019-6A11-44F1-9471-7ACC027BA1E3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8822,7 +8822,7 @@
             <c:size val="15"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="000080"/>
+                <a:srgbClr val="0000FF"/>
               </a:solidFill>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -8856,7 +8856,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001A-5D6E-4495-8CBC-8AAB84EC42C6}"/>
+              <c16:uniqueId val="{0000001A-6A11-44F1-9471-7ACC027BA1E3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8874,7 +8874,7 @@
             <c:size val="15"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="000080"/>
+                <a:srgbClr val="0000FF"/>
               </a:solidFill>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -8908,7 +8908,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001B-5D6E-4495-8CBC-8AAB84EC42C6}"/>
+              <c16:uniqueId val="{0000001B-6A11-44F1-9471-7ACC027BA1E3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8926,7 +8926,7 @@
             <c:size val="15"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="000080"/>
+                <a:srgbClr val="0000FF"/>
               </a:solidFill>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -8960,7 +8960,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001C-5D6E-4495-8CBC-8AAB84EC42C6}"/>
+              <c16:uniqueId val="{0000001C-6A11-44F1-9471-7ACC027BA1E3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8978,7 +8978,7 @@
             <c:size val="15"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="000080"/>
+                <a:srgbClr val="0000FF"/>
               </a:solidFill>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -9012,7 +9012,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001D-5D6E-4495-8CBC-8AAB84EC42C6}"/>
+              <c16:uniqueId val="{0000001D-6A11-44F1-9471-7ACC027BA1E3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9030,7 +9030,7 @@
             <c:size val="15"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="000080"/>
+                <a:srgbClr val="0000FF"/>
               </a:solidFill>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -9064,7 +9064,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001E-5D6E-4495-8CBC-8AAB84EC42C6}"/>
+              <c16:uniqueId val="{0000001E-6A11-44F1-9471-7ACC027BA1E3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9082,7 +9082,7 @@
             <c:size val="15"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="000080"/>
+                <a:srgbClr val="0000FF"/>
               </a:solidFill>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -9116,7 +9116,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001F-5D6E-4495-8CBC-8AAB84EC42C6}"/>
+              <c16:uniqueId val="{0000001F-6A11-44F1-9471-7ACC027BA1E3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9134,7 +9134,7 @@
             <c:size val="15"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="000080"/>
+                <a:srgbClr val="0000FF"/>
               </a:solidFill>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -9168,7 +9168,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000020-5D6E-4495-8CBC-8AAB84EC42C6}"/>
+              <c16:uniqueId val="{00000020-6A11-44F1-9471-7ACC027BA1E3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9186,7 +9186,7 @@
             <c:size val="15"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="000080"/>
+                <a:srgbClr val="0000FF"/>
               </a:solidFill>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -9220,7 +9220,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000021-5D6E-4495-8CBC-8AAB84EC42C6}"/>
+              <c16:uniqueId val="{00000021-6A11-44F1-9471-7ACC027BA1E3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9238,7 +9238,7 @@
             <c:size val="15"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="000080"/>
+                <a:srgbClr val="0000FF"/>
               </a:solidFill>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -9272,7 +9272,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000022-5D6E-4495-8CBC-8AAB84EC42C6}"/>
+              <c16:uniqueId val="{00000022-6A11-44F1-9471-7ACC027BA1E3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9324,7 +9324,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000023-5D6E-4495-8CBC-8AAB84EC42C6}"/>
+              <c16:uniqueId val="{00000023-6A11-44F1-9471-7ACC027BA1E3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9376,7 +9376,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000024-5D6E-4495-8CBC-8AAB84EC42C6}"/>
+              <c16:uniqueId val="{00000024-6A11-44F1-9471-7ACC027BA1E3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9394,7 +9394,7 @@
             <c:size val="15"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="000080"/>
+                <a:srgbClr val="0000FF"/>
               </a:solidFill>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -9428,7 +9428,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000025-5D6E-4495-8CBC-8AAB84EC42C6}"/>
+              <c16:uniqueId val="{00000025-6A11-44F1-9471-7ACC027BA1E3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9446,7 +9446,7 @@
             <c:size val="15"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="000080"/>
+                <a:srgbClr val="0000FF"/>
               </a:solidFill>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -9480,7 +9480,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000026-5D6E-4495-8CBC-8AAB84EC42C6}"/>
+              <c16:uniqueId val="{00000026-6A11-44F1-9471-7ACC027BA1E3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9498,7 +9498,7 @@
             <c:size val="15"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="000080"/>
+                <a:srgbClr val="0000FF"/>
               </a:solidFill>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -9532,7 +9532,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000027-5D6E-4495-8CBC-8AAB84EC42C6}"/>
+              <c16:uniqueId val="{00000027-6A11-44F1-9471-7ACC027BA1E3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9550,7 +9550,7 @@
             <c:size val="15"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="000080"/>
+                <a:srgbClr val="0000FF"/>
               </a:solidFill>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -9584,7 +9584,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000028-5D6E-4495-8CBC-8AAB84EC42C6}"/>
+              <c16:uniqueId val="{00000028-6A11-44F1-9471-7ACC027BA1E3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9602,7 +9602,7 @@
             <c:size val="15"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="000080"/>
+                <a:srgbClr val="0000FF"/>
               </a:solidFill>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -9636,7 +9636,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000029-5D6E-4495-8CBC-8AAB84EC42C6}"/>
+              <c16:uniqueId val="{00000029-6A11-44F1-9471-7ACC027BA1E3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9654,7 +9654,7 @@
             <c:size val="15"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="000080"/>
+                <a:srgbClr val="0000FF"/>
               </a:solidFill>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -9688,7 +9688,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002A-5D6E-4495-8CBC-8AAB84EC42C6}"/>
+              <c16:uniqueId val="{0000002A-6A11-44F1-9471-7ACC027BA1E3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9706,7 +9706,7 @@
             <c:size val="15"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="000080"/>
+                <a:srgbClr val="0000FF"/>
               </a:solidFill>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -9740,7 +9740,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002B-5D6E-4495-8CBC-8AAB84EC42C6}"/>
+              <c16:uniqueId val="{0000002B-6A11-44F1-9471-7ACC027BA1E3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9758,7 +9758,7 @@
             <c:size val="15"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="000080"/>
+                <a:srgbClr val="0000FF"/>
               </a:solidFill>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -9792,7 +9792,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002C-5D6E-4495-8CBC-8AAB84EC42C6}"/>
+              <c16:uniqueId val="{0000002C-6A11-44F1-9471-7ACC027BA1E3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9810,7 +9810,7 @@
             <c:size val="15"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="000080"/>
+                <a:srgbClr val="0000FF"/>
               </a:solidFill>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -9844,7 +9844,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002D-5D6E-4495-8CBC-8AAB84EC42C6}"/>
+              <c16:uniqueId val="{0000002D-6A11-44F1-9471-7ACC027BA1E3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9862,7 +9862,7 @@
             <c:size val="15"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="000080"/>
+                <a:srgbClr val="0000FF"/>
               </a:solidFill>
               <a:ln>
                 <a:prstDash val="solid"/>
@@ -9896,7 +9896,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002E-5D6E-4495-8CBC-8AAB84EC42C6}"/>
+              <c16:uniqueId val="{0000002E-6A11-44F1-9471-7ACC027BA1E3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9948,7 +9948,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002F-5D6E-4495-8CBC-8AAB84EC42C6}"/>
+              <c16:uniqueId val="{0000002F-6A11-44F1-9471-7ACC027BA1E3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10000,2649 +10000,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000030-5D6E-4495-8CBC-8AAB84EC42C6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="10"/>
-        <c:axId val="20"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="10"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="20"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="20"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="10"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-SG"/>
-              <a:t>Scatter Chart Automation Test</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="15"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ADD8E6"/>
-              </a:solidFill>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$C$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$B$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E069-467A-94C9-4554A7AC4970}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="15"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$C$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$B$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>-1E-4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E069-467A-94C9-4554A7AC4970}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="15"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$C$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>22.627300000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$B$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>-22.627500000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E069-467A-94C9-4554A7AC4970}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="15"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$C$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>-1E-4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$B$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>-32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-E069-467A-94C9-4554A7AC4970}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="15"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$C$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>-22.627500000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$B$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>-22.627300000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-E069-467A-94C9-4554A7AC4970}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="15"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$C$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>-32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$B$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1E-4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-E069-467A-94C9-4554A7AC4970}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="15"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$C$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>-22.627300000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$B$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>22.627500000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-E069-467A-94C9-4554A7AC4970}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="15"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$C$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1E-4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$B$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-E069-467A-94C9-4554A7AC4970}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="15"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$C$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>22.627500000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$B$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>22.627300000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-E069-467A-94C9-4554A7AC4970}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="15"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$C$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>64</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>-2.0000000000000001E-4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-E069-467A-94C9-4554A7AC4970}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="15"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$C$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>59.1282</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>-24.492000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-E069-467A-94C9-4554A7AC4970}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="11"/>
-          <c:order val="11"/>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="15"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$C$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>45.2547</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>-45.255000000000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-E069-467A-94C9-4554A7AC4970}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="12"/>
-          <c:order val="12"/>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="15"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$C$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>24.491499999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$B$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>-59.128399999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-E069-467A-94C9-4554A7AC4970}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="13"/>
-          <c:order val="13"/>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="15"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$C$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>-2.9999999999999997E-4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$B$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>-64</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000D-E069-467A-94C9-4554A7AC4970}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="14"/>
-          <c:order val="14"/>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="15"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$C$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>-24.492000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$B$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>-59.1282</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000E-E069-467A-94C9-4554A7AC4970}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="15"/>
-          <c:order val="15"/>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="15"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$C$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>-45.255000000000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$B$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>-45.2547</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000F-E069-467A-94C9-4554A7AC4970}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="16"/>
-          <c:order val="16"/>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="15"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$C$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>-59.128399999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$B$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>-24.491499999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000010-E069-467A-94C9-4554A7AC4970}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="17"/>
-          <c:order val="17"/>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="15"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$C$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>-64</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$B$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2.9999999999999997E-4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000011-E069-467A-94C9-4554A7AC4970}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="18"/>
-          <c:order val="18"/>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="15"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$C$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>-59.1282</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$B$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>24.492000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000012-E069-467A-94C9-4554A7AC4970}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="19"/>
-          <c:order val="19"/>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="15"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$C$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>-45.2547</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$B$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>45.255099999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000013-E069-467A-94C9-4554A7AC4970}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="20"/>
-          <c:order val="20"/>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="15"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$C$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>-24.491499999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$B$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>59.128399999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000014-E069-467A-94C9-4554A7AC4970}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="21"/>
-          <c:order val="21"/>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="15"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$C$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2.9999999999999997E-4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$B$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>64</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000015-E069-467A-94C9-4554A7AC4970}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="22"/>
-          <c:order val="22"/>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="15"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$C$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>24.492000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$B$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>59.1282</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000016-E069-467A-94C9-4554A7AC4970}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="23"/>
-          <c:order val="23"/>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="15"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$C$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>45.255099999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$B$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>45.254600000000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000017-E069-467A-94C9-4554A7AC4970}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="24"/>
-          <c:order val="24"/>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="15"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$C$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>59.128399999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$B$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>24.491499999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000018-E069-467A-94C9-4554A7AC4970}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="25"/>
-          <c:order val="25"/>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="15"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$C$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>96</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$B$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>-4.0000000000000002E-4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000019-E069-467A-94C9-4554A7AC4970}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="26"/>
-          <c:order val="26"/>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="15"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$C$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>92.728800000000007</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$B$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>-24.847000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001A-E069-467A-94C9-4554A7AC4970}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="27"/>
-          <c:order val="27"/>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="15"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$C$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>83.138300000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$B$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>-48.000300000000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001B-E069-467A-94C9-4554A7AC4970}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="28"/>
-          <c:order val="28"/>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="15"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$C$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>67.882000000000005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$B$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>-67.882499999999993</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001C-E069-467A-94C9-4554A7AC4970}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="29"/>
-          <c:order val="29"/>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="15"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$C$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>47.999699999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$B$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>-83.138599999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001D-E069-467A-94C9-4554A7AC4970}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="30"/>
-          <c:order val="30"/>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="15"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$C$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>24.8462</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$B$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>-92.728999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001E-E069-467A-94C9-4554A7AC4970}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="31"/>
-          <c:order val="31"/>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="15"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$C$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>-4.0000000000000002E-4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$B$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>-96</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001F-E069-467A-94C9-4554A7AC4970}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="32"/>
-          <c:order val="32"/>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="15"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$C$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>-24.847000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$B$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>-92.728800000000007</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000020-E069-467A-94C9-4554A7AC4970}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="33"/>
-          <c:order val="33"/>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="15"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$C$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>-48.000300000000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$B$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>-83.138199999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000021-E069-467A-94C9-4554A7AC4970}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="34"/>
-          <c:order val="34"/>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="15"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$C$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>-67.882599999999996</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$B$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>-67.882000000000005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000022-E069-467A-94C9-4554A7AC4970}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="35"/>
-          <c:order val="35"/>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="15"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$C$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>-83.138599999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$B$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>-47.999600000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000023-E069-467A-94C9-4554A7AC4970}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="36"/>
-          <c:order val="36"/>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="15"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF7F7F"/>
-              </a:solidFill>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$C$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>-92.728999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$B$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>-24.8462</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000024-E069-467A-94C9-4554A7AC4970}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="37"/>
-          <c:order val="37"/>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="15"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$C$39</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>-96</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$B$39</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>4.0000000000000002E-4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000025-E069-467A-94C9-4554A7AC4970}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="38"/>
-          <c:order val="38"/>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="15"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$C$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>-92.728800000000007</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$B$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>24.847000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000026-E069-467A-94C9-4554A7AC4970}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="39"/>
-          <c:order val="39"/>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="15"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$C$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>-83.138199999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$B$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>48.000399999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000027-E069-467A-94C9-4554A7AC4970}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="40"/>
-          <c:order val="40"/>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="15"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$C$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>-67.882000000000005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$B$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>67.882599999999996</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000028-E069-467A-94C9-4554A7AC4970}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="41"/>
-          <c:order val="41"/>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="15"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$C$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>-47.999600000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$B$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>83.1387</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000029-E069-467A-94C9-4554A7AC4970}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="42"/>
-          <c:order val="42"/>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="15"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$C$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>-24.8462</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$B$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>92.728999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002A-E069-467A-94C9-4554A7AC4970}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="43"/>
-          <c:order val="43"/>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="15"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$C$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>4.0000000000000002E-4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$B$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>96</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002B-E069-467A-94C9-4554A7AC4970}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="44"/>
-          <c:order val="44"/>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="15"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$C$46</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>24.847000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$B$46</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>92.728800000000007</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002C-E069-467A-94C9-4554A7AC4970}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="45"/>
-          <c:order val="45"/>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="15"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$C$47</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>48.000399999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$B$47</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>83.138199999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002D-E069-467A-94C9-4554A7AC4970}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="46"/>
-          <c:order val="46"/>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="15"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$C$48</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>67.882599999999996</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$B$48</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>67.882000000000005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002E-E069-467A-94C9-4554A7AC4970}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="47"/>
-          <c:order val="47"/>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="15"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF7F7F"/>
-              </a:solidFill>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$C$49</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>83.1387</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$B$49</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>47.999600000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002F-E069-467A-94C9-4554A7AC4970}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="48"/>
-          <c:order val="48"/>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="15"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$C$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>92.728999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'13th Wafer (ML RT 7)'!$B$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>24.8462</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000030-E069-467A-94C9-4554A7AC4970}"/>
+              <c16:uniqueId val="{00000030-6A11-44F1-9471-7ACC027BA1E3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12819,7 +10177,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-46D2-4711-B0F3-61DB664AA4E4}"/>
+                <c16:uniqueId val="{00000001-B669-4A5A-B027-823BDF88DF9E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -12836,7 +10194,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-46D2-4711-B0F3-61DB664AA4E4}"/>
+                <c16:uniqueId val="{00000003-B669-4A5A-B027-823BDF88DF9E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -12853,7 +10211,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-46D2-4711-B0F3-61DB664AA4E4}"/>
+                <c16:uniqueId val="{00000005-B669-4A5A-B027-823BDF88DF9E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -12870,7 +10228,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-46D2-4711-B0F3-61DB664AA4E4}"/>
+                <c16:uniqueId val="{00000007-B669-4A5A-B027-823BDF88DF9E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -12887,7 +10245,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-46D2-4711-B0F3-61DB664AA4E4}"/>
+                <c16:uniqueId val="{00000009-B669-4A5A-B027-823BDF88DF9E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -12904,7 +10262,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-46D2-4711-B0F3-61DB664AA4E4}"/>
+                <c16:uniqueId val="{0000000B-B669-4A5A-B027-823BDF88DF9E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -12921,7 +10279,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-46D2-4711-B0F3-61DB664AA4E4}"/>
+                <c16:uniqueId val="{0000000D-B669-4A5A-B027-823BDF88DF9E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -12938,7 +10296,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000F-46D2-4711-B0F3-61DB664AA4E4}"/>
+                <c16:uniqueId val="{0000000F-B669-4A5A-B027-823BDF88DF9E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -12955,7 +10313,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000011-46D2-4711-B0F3-61DB664AA4E4}"/>
+                <c16:uniqueId val="{00000011-B669-4A5A-B027-823BDF88DF9E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -12972,7 +10330,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000013-46D2-4711-B0F3-61DB664AA4E4}"/>
+                <c16:uniqueId val="{00000013-B669-4A5A-B027-823BDF88DF9E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -12989,7 +10347,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000015-46D2-4711-B0F3-61DB664AA4E4}"/>
+                <c16:uniqueId val="{00000015-B669-4A5A-B027-823BDF88DF9E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -13006,7 +10364,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000017-46D2-4711-B0F3-61DB664AA4E4}"/>
+                <c16:uniqueId val="{00000017-B669-4A5A-B027-823BDF88DF9E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -13023,7 +10381,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000019-46D2-4711-B0F3-61DB664AA4E4}"/>
+                <c16:uniqueId val="{00000019-B669-4A5A-B027-823BDF88DF9E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -13040,7 +10398,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001B-46D2-4711-B0F3-61DB664AA4E4}"/>
+                <c16:uniqueId val="{0000001B-B669-4A5A-B027-823BDF88DF9E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -13057,7 +10415,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001D-46D2-4711-B0F3-61DB664AA4E4}"/>
+                <c16:uniqueId val="{0000001D-B669-4A5A-B027-823BDF88DF9E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -13074,7 +10432,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001F-46D2-4711-B0F3-61DB664AA4E4}"/>
+                <c16:uniqueId val="{0000001F-B669-4A5A-B027-823BDF88DF9E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -13091,7 +10449,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000021-46D2-4711-B0F3-61DB664AA4E4}"/>
+                <c16:uniqueId val="{00000021-B669-4A5A-B027-823BDF88DF9E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -13108,7 +10466,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000023-46D2-4711-B0F3-61DB664AA4E4}"/>
+                <c16:uniqueId val="{00000023-B669-4A5A-B027-823BDF88DF9E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -13125,7 +10483,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000025-46D2-4711-B0F3-61DB664AA4E4}"/>
+                <c16:uniqueId val="{00000025-B669-4A5A-B027-823BDF88DF9E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -13142,7 +10500,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000027-46D2-4711-B0F3-61DB664AA4E4}"/>
+                <c16:uniqueId val="{00000027-B669-4A5A-B027-823BDF88DF9E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -13159,7 +10517,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000029-46D2-4711-B0F3-61DB664AA4E4}"/>
+                <c16:uniqueId val="{00000029-B669-4A5A-B027-823BDF88DF9E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -13176,7 +10534,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002B-46D2-4711-B0F3-61DB664AA4E4}"/>
+                <c16:uniqueId val="{0000002B-B669-4A5A-B027-823BDF88DF9E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -13193,7 +10551,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002D-46D2-4711-B0F3-61DB664AA4E4}"/>
+                <c16:uniqueId val="{0000002D-B669-4A5A-B027-823BDF88DF9E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -13210,7 +10568,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002F-46D2-4711-B0F3-61DB664AA4E4}"/>
+                <c16:uniqueId val="{0000002F-B669-4A5A-B027-823BDF88DF9E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -13227,7 +10585,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000031-46D2-4711-B0F3-61DB664AA4E4}"/>
+                <c16:uniqueId val="{00000031-B669-4A5A-B027-823BDF88DF9E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -13244,7 +10602,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000033-46D2-4711-B0F3-61DB664AA4E4}"/>
+                <c16:uniqueId val="{00000033-B669-4A5A-B027-823BDF88DF9E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -13261,7 +10619,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000035-46D2-4711-B0F3-61DB664AA4E4}"/>
+                <c16:uniqueId val="{00000035-B669-4A5A-B027-823BDF88DF9E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -13278,7 +10636,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000037-46D2-4711-B0F3-61DB664AA4E4}"/>
+                <c16:uniqueId val="{00000037-B669-4A5A-B027-823BDF88DF9E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -13295,7 +10653,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000039-46D2-4711-B0F3-61DB664AA4E4}"/>
+                <c16:uniqueId val="{00000039-B669-4A5A-B027-823BDF88DF9E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -13312,7 +10670,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000003B-46D2-4711-B0F3-61DB664AA4E4}"/>
+                <c16:uniqueId val="{0000003B-B669-4A5A-B027-823BDF88DF9E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -13329,7 +10687,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000003D-46D2-4711-B0F3-61DB664AA4E4}"/>
+                <c16:uniqueId val="{0000003D-B669-4A5A-B027-823BDF88DF9E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -13346,7 +10704,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000003F-46D2-4711-B0F3-61DB664AA4E4}"/>
+                <c16:uniqueId val="{0000003F-B669-4A5A-B027-823BDF88DF9E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -13363,7 +10721,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000041-46D2-4711-B0F3-61DB664AA4E4}"/>
+                <c16:uniqueId val="{00000041-B669-4A5A-B027-823BDF88DF9E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -13380,7 +10738,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000043-46D2-4711-B0F3-61DB664AA4E4}"/>
+                <c16:uniqueId val="{00000043-B669-4A5A-B027-823BDF88DF9E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -13397,7 +10755,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000045-46D2-4711-B0F3-61DB664AA4E4}"/>
+                <c16:uniqueId val="{00000045-B669-4A5A-B027-823BDF88DF9E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -13414,7 +10772,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000047-46D2-4711-B0F3-61DB664AA4E4}"/>
+                <c16:uniqueId val="{00000047-B669-4A5A-B027-823BDF88DF9E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -13431,7 +10789,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000049-46D2-4711-B0F3-61DB664AA4E4}"/>
+                <c16:uniqueId val="{00000049-B669-4A5A-B027-823BDF88DF9E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -13448,7 +10806,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000004B-46D2-4711-B0F3-61DB664AA4E4}"/>
+                <c16:uniqueId val="{0000004B-B669-4A5A-B027-823BDF88DF9E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -13465,7 +10823,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000004D-46D2-4711-B0F3-61DB664AA4E4}"/>
+                <c16:uniqueId val="{0000004D-B669-4A5A-B027-823BDF88DF9E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -13482,7 +10840,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000004F-46D2-4711-B0F3-61DB664AA4E4}"/>
+                <c16:uniqueId val="{0000004F-B669-4A5A-B027-823BDF88DF9E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -13499,7 +10857,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000051-46D2-4711-B0F3-61DB664AA4E4}"/>
+                <c16:uniqueId val="{00000051-B669-4A5A-B027-823BDF88DF9E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -13516,7 +10874,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000053-46D2-4711-B0F3-61DB664AA4E4}"/>
+                <c16:uniqueId val="{00000053-B669-4A5A-B027-823BDF88DF9E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -13533,7 +10891,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000055-46D2-4711-B0F3-61DB664AA4E4}"/>
+                <c16:uniqueId val="{00000055-B669-4A5A-B027-823BDF88DF9E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -13550,7 +10908,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000057-46D2-4711-B0F3-61DB664AA4E4}"/>
+                <c16:uniqueId val="{00000057-B669-4A5A-B027-823BDF88DF9E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -13567,7 +10925,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000059-46D2-4711-B0F3-61DB664AA4E4}"/>
+                <c16:uniqueId val="{00000059-B669-4A5A-B027-823BDF88DF9E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -13584,7 +10942,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000005B-46D2-4711-B0F3-61DB664AA4E4}"/>
+                <c16:uniqueId val="{0000005B-B669-4A5A-B027-823BDF88DF9E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -13601,7 +10959,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000005D-46D2-4711-B0F3-61DB664AA4E4}"/>
+                <c16:uniqueId val="{0000005D-B669-4A5A-B027-823BDF88DF9E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -13618,7 +10976,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000005F-46D2-4711-B0F3-61DB664AA4E4}"/>
+                <c16:uniqueId val="{0000005F-B669-4A5A-B027-823BDF88DF9E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -13635,7 +10993,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000061-46D2-4711-B0F3-61DB664AA4E4}"/>
+                <c16:uniqueId val="{00000061-B669-4A5A-B027-823BDF88DF9E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -13954,7 +11312,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000062-46D2-4711-B0F3-61DB664AA4E4}"/>
+              <c16:uniqueId val="{00000062-B669-4A5A-B027-823BDF88DF9E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -14217,7 +11575,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-4533-4E8B-9DA1-BD4BF6024B14}"/>
+                <c16:uniqueId val="{00000001-D68B-4DA5-9913-F2EF95881633}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -14234,7 +11592,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-4533-4E8B-9DA1-BD4BF6024B14}"/>
+                <c16:uniqueId val="{00000003-D68B-4DA5-9913-F2EF95881633}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -14251,7 +11609,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-4533-4E8B-9DA1-BD4BF6024B14}"/>
+                <c16:uniqueId val="{00000005-D68B-4DA5-9913-F2EF95881633}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -14268,7 +11626,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-4533-4E8B-9DA1-BD4BF6024B14}"/>
+                <c16:uniqueId val="{00000007-D68B-4DA5-9913-F2EF95881633}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -14285,7 +11643,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-4533-4E8B-9DA1-BD4BF6024B14}"/>
+                <c16:uniqueId val="{00000009-D68B-4DA5-9913-F2EF95881633}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -14302,7 +11660,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-4533-4E8B-9DA1-BD4BF6024B14}"/>
+                <c16:uniqueId val="{0000000B-D68B-4DA5-9913-F2EF95881633}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -14319,7 +11677,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-4533-4E8B-9DA1-BD4BF6024B14}"/>
+                <c16:uniqueId val="{0000000D-D68B-4DA5-9913-F2EF95881633}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -14336,7 +11694,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000F-4533-4E8B-9DA1-BD4BF6024B14}"/>
+                <c16:uniqueId val="{0000000F-D68B-4DA5-9913-F2EF95881633}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -14353,7 +11711,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000011-4533-4E8B-9DA1-BD4BF6024B14}"/>
+                <c16:uniqueId val="{00000011-D68B-4DA5-9913-F2EF95881633}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -14370,7 +11728,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000013-4533-4E8B-9DA1-BD4BF6024B14}"/>
+                <c16:uniqueId val="{00000013-D68B-4DA5-9913-F2EF95881633}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -14387,7 +11745,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000015-4533-4E8B-9DA1-BD4BF6024B14}"/>
+                <c16:uniqueId val="{00000015-D68B-4DA5-9913-F2EF95881633}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -14404,7 +11762,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000017-4533-4E8B-9DA1-BD4BF6024B14}"/>
+                <c16:uniqueId val="{00000017-D68B-4DA5-9913-F2EF95881633}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -14421,7 +11779,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000019-4533-4E8B-9DA1-BD4BF6024B14}"/>
+                <c16:uniqueId val="{00000019-D68B-4DA5-9913-F2EF95881633}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -14438,7 +11796,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001B-4533-4E8B-9DA1-BD4BF6024B14}"/>
+                <c16:uniqueId val="{0000001B-D68B-4DA5-9913-F2EF95881633}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -14455,7 +11813,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001D-4533-4E8B-9DA1-BD4BF6024B14}"/>
+                <c16:uniqueId val="{0000001D-D68B-4DA5-9913-F2EF95881633}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -14472,7 +11830,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001F-4533-4E8B-9DA1-BD4BF6024B14}"/>
+                <c16:uniqueId val="{0000001F-D68B-4DA5-9913-F2EF95881633}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -14489,7 +11847,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000021-4533-4E8B-9DA1-BD4BF6024B14}"/>
+                <c16:uniqueId val="{00000021-D68B-4DA5-9913-F2EF95881633}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -14506,7 +11864,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000023-4533-4E8B-9DA1-BD4BF6024B14}"/>
+                <c16:uniqueId val="{00000023-D68B-4DA5-9913-F2EF95881633}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -14523,7 +11881,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000025-4533-4E8B-9DA1-BD4BF6024B14}"/>
+                <c16:uniqueId val="{00000025-D68B-4DA5-9913-F2EF95881633}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -14540,7 +11898,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000027-4533-4E8B-9DA1-BD4BF6024B14}"/>
+                <c16:uniqueId val="{00000027-D68B-4DA5-9913-F2EF95881633}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -14557,7 +11915,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000029-4533-4E8B-9DA1-BD4BF6024B14}"/>
+                <c16:uniqueId val="{00000029-D68B-4DA5-9913-F2EF95881633}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -14574,7 +11932,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002B-4533-4E8B-9DA1-BD4BF6024B14}"/>
+                <c16:uniqueId val="{0000002B-D68B-4DA5-9913-F2EF95881633}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -14591,7 +11949,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002D-4533-4E8B-9DA1-BD4BF6024B14}"/>
+                <c16:uniqueId val="{0000002D-D68B-4DA5-9913-F2EF95881633}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -14608,7 +11966,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002F-4533-4E8B-9DA1-BD4BF6024B14}"/>
+                <c16:uniqueId val="{0000002F-D68B-4DA5-9913-F2EF95881633}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -14625,7 +11983,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000031-4533-4E8B-9DA1-BD4BF6024B14}"/>
+                <c16:uniqueId val="{00000031-D68B-4DA5-9913-F2EF95881633}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -14642,7 +12000,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000033-4533-4E8B-9DA1-BD4BF6024B14}"/>
+                <c16:uniqueId val="{00000033-D68B-4DA5-9913-F2EF95881633}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -14659,7 +12017,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000035-4533-4E8B-9DA1-BD4BF6024B14}"/>
+                <c16:uniqueId val="{00000035-D68B-4DA5-9913-F2EF95881633}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -14676,7 +12034,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000037-4533-4E8B-9DA1-BD4BF6024B14}"/>
+                <c16:uniqueId val="{00000037-D68B-4DA5-9913-F2EF95881633}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -14693,7 +12051,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000039-4533-4E8B-9DA1-BD4BF6024B14}"/>
+                <c16:uniqueId val="{00000039-D68B-4DA5-9913-F2EF95881633}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -14710,7 +12068,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000003B-4533-4E8B-9DA1-BD4BF6024B14}"/>
+                <c16:uniqueId val="{0000003B-D68B-4DA5-9913-F2EF95881633}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -14727,7 +12085,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000003D-4533-4E8B-9DA1-BD4BF6024B14}"/>
+                <c16:uniqueId val="{0000003D-D68B-4DA5-9913-F2EF95881633}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -14744,7 +12102,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000003F-4533-4E8B-9DA1-BD4BF6024B14}"/>
+                <c16:uniqueId val="{0000003F-D68B-4DA5-9913-F2EF95881633}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -14761,7 +12119,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000041-4533-4E8B-9DA1-BD4BF6024B14}"/>
+                <c16:uniqueId val="{00000041-D68B-4DA5-9913-F2EF95881633}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -14778,7 +12136,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000043-4533-4E8B-9DA1-BD4BF6024B14}"/>
+                <c16:uniqueId val="{00000043-D68B-4DA5-9913-F2EF95881633}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -14795,7 +12153,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000045-4533-4E8B-9DA1-BD4BF6024B14}"/>
+                <c16:uniqueId val="{00000045-D68B-4DA5-9913-F2EF95881633}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -14812,7 +12170,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000047-4533-4E8B-9DA1-BD4BF6024B14}"/>
+                <c16:uniqueId val="{00000047-D68B-4DA5-9913-F2EF95881633}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -14829,7 +12187,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000049-4533-4E8B-9DA1-BD4BF6024B14}"/>
+                <c16:uniqueId val="{00000049-D68B-4DA5-9913-F2EF95881633}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -14846,7 +12204,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000004B-4533-4E8B-9DA1-BD4BF6024B14}"/>
+                <c16:uniqueId val="{0000004B-D68B-4DA5-9913-F2EF95881633}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -14863,7 +12221,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000004D-4533-4E8B-9DA1-BD4BF6024B14}"/>
+                <c16:uniqueId val="{0000004D-D68B-4DA5-9913-F2EF95881633}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -14880,7 +12238,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000004F-4533-4E8B-9DA1-BD4BF6024B14}"/>
+                <c16:uniqueId val="{0000004F-D68B-4DA5-9913-F2EF95881633}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -14897,7 +12255,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000051-4533-4E8B-9DA1-BD4BF6024B14}"/>
+                <c16:uniqueId val="{00000051-D68B-4DA5-9913-F2EF95881633}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -14914,7 +12272,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000053-4533-4E8B-9DA1-BD4BF6024B14}"/>
+                <c16:uniqueId val="{00000053-D68B-4DA5-9913-F2EF95881633}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -14931,7 +12289,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000055-4533-4E8B-9DA1-BD4BF6024B14}"/>
+                <c16:uniqueId val="{00000055-D68B-4DA5-9913-F2EF95881633}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -14948,7 +12306,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000057-4533-4E8B-9DA1-BD4BF6024B14}"/>
+                <c16:uniqueId val="{00000057-D68B-4DA5-9913-F2EF95881633}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -14965,7 +12323,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000059-4533-4E8B-9DA1-BD4BF6024B14}"/>
+                <c16:uniqueId val="{00000059-D68B-4DA5-9913-F2EF95881633}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -14982,7 +12340,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000005B-4533-4E8B-9DA1-BD4BF6024B14}"/>
+                <c16:uniqueId val="{0000005B-D68B-4DA5-9913-F2EF95881633}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -14999,7 +12357,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000005D-4533-4E8B-9DA1-BD4BF6024B14}"/>
+                <c16:uniqueId val="{0000005D-D68B-4DA5-9913-F2EF95881633}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -15016,7 +12374,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000005F-4533-4E8B-9DA1-BD4BF6024B14}"/>
+                <c16:uniqueId val="{0000005F-D68B-4DA5-9913-F2EF95881633}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -15033,7 +12391,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000061-4533-4E8B-9DA1-BD4BF6024B14}"/>
+                <c16:uniqueId val="{00000061-D68B-4DA5-9913-F2EF95881633}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -15352,7 +12710,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000062-4533-4E8B-9DA1-BD4BF6024B14}"/>
+              <c16:uniqueId val="{00000062-D68B-4DA5-9913-F2EF95881633}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -15615,7 +12973,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-1D19-4591-8EF4-19DDE76B8D4F}"/>
+                <c16:uniqueId val="{00000001-92EE-4B7D-A85D-5ED3CE526D0F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -15632,7 +12990,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-1D19-4591-8EF4-19DDE76B8D4F}"/>
+                <c16:uniqueId val="{00000003-92EE-4B7D-A85D-5ED3CE526D0F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -15649,7 +13007,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-1D19-4591-8EF4-19DDE76B8D4F}"/>
+                <c16:uniqueId val="{00000005-92EE-4B7D-A85D-5ED3CE526D0F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -15666,7 +13024,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-1D19-4591-8EF4-19DDE76B8D4F}"/>
+                <c16:uniqueId val="{00000007-92EE-4B7D-A85D-5ED3CE526D0F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -15683,7 +13041,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-1D19-4591-8EF4-19DDE76B8D4F}"/>
+                <c16:uniqueId val="{00000009-92EE-4B7D-A85D-5ED3CE526D0F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -15700,7 +13058,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-1D19-4591-8EF4-19DDE76B8D4F}"/>
+                <c16:uniqueId val="{0000000B-92EE-4B7D-A85D-5ED3CE526D0F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -15717,7 +13075,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-1D19-4591-8EF4-19DDE76B8D4F}"/>
+                <c16:uniqueId val="{0000000D-92EE-4B7D-A85D-5ED3CE526D0F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -15734,7 +13092,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000F-1D19-4591-8EF4-19DDE76B8D4F}"/>
+                <c16:uniqueId val="{0000000F-92EE-4B7D-A85D-5ED3CE526D0F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -15751,7 +13109,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000011-1D19-4591-8EF4-19DDE76B8D4F}"/>
+                <c16:uniqueId val="{00000011-92EE-4B7D-A85D-5ED3CE526D0F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -15768,7 +13126,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000013-1D19-4591-8EF4-19DDE76B8D4F}"/>
+                <c16:uniqueId val="{00000013-92EE-4B7D-A85D-5ED3CE526D0F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -15785,7 +13143,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000015-1D19-4591-8EF4-19DDE76B8D4F}"/>
+                <c16:uniqueId val="{00000015-92EE-4B7D-A85D-5ED3CE526D0F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -15802,7 +13160,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000017-1D19-4591-8EF4-19DDE76B8D4F}"/>
+                <c16:uniqueId val="{00000017-92EE-4B7D-A85D-5ED3CE526D0F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -15819,7 +13177,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000019-1D19-4591-8EF4-19DDE76B8D4F}"/>
+                <c16:uniqueId val="{00000019-92EE-4B7D-A85D-5ED3CE526D0F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -15836,7 +13194,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001B-1D19-4591-8EF4-19DDE76B8D4F}"/>
+                <c16:uniqueId val="{0000001B-92EE-4B7D-A85D-5ED3CE526D0F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -15853,7 +13211,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001D-1D19-4591-8EF4-19DDE76B8D4F}"/>
+                <c16:uniqueId val="{0000001D-92EE-4B7D-A85D-5ED3CE526D0F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -15870,7 +13228,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001F-1D19-4591-8EF4-19DDE76B8D4F}"/>
+                <c16:uniqueId val="{0000001F-92EE-4B7D-A85D-5ED3CE526D0F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -15887,7 +13245,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000021-1D19-4591-8EF4-19DDE76B8D4F}"/>
+                <c16:uniqueId val="{00000021-92EE-4B7D-A85D-5ED3CE526D0F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -15904,7 +13262,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000023-1D19-4591-8EF4-19DDE76B8D4F}"/>
+                <c16:uniqueId val="{00000023-92EE-4B7D-A85D-5ED3CE526D0F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -15921,7 +13279,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000025-1D19-4591-8EF4-19DDE76B8D4F}"/>
+                <c16:uniqueId val="{00000025-92EE-4B7D-A85D-5ED3CE526D0F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -15938,7 +13296,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000027-1D19-4591-8EF4-19DDE76B8D4F}"/>
+                <c16:uniqueId val="{00000027-92EE-4B7D-A85D-5ED3CE526D0F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -15955,7 +13313,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000029-1D19-4591-8EF4-19DDE76B8D4F}"/>
+                <c16:uniqueId val="{00000029-92EE-4B7D-A85D-5ED3CE526D0F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -15972,7 +13330,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002B-1D19-4591-8EF4-19DDE76B8D4F}"/>
+                <c16:uniqueId val="{0000002B-92EE-4B7D-A85D-5ED3CE526D0F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -15989,7 +13347,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002D-1D19-4591-8EF4-19DDE76B8D4F}"/>
+                <c16:uniqueId val="{0000002D-92EE-4B7D-A85D-5ED3CE526D0F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -16006,7 +13364,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002F-1D19-4591-8EF4-19DDE76B8D4F}"/>
+                <c16:uniqueId val="{0000002F-92EE-4B7D-A85D-5ED3CE526D0F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -16023,7 +13381,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000031-1D19-4591-8EF4-19DDE76B8D4F}"/>
+                <c16:uniqueId val="{00000031-92EE-4B7D-A85D-5ED3CE526D0F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -16040,7 +13398,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000033-1D19-4591-8EF4-19DDE76B8D4F}"/>
+                <c16:uniqueId val="{00000033-92EE-4B7D-A85D-5ED3CE526D0F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -16057,7 +13415,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000035-1D19-4591-8EF4-19DDE76B8D4F}"/>
+                <c16:uniqueId val="{00000035-92EE-4B7D-A85D-5ED3CE526D0F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -16074,7 +13432,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000037-1D19-4591-8EF4-19DDE76B8D4F}"/>
+                <c16:uniqueId val="{00000037-92EE-4B7D-A85D-5ED3CE526D0F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -16091,7 +13449,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000039-1D19-4591-8EF4-19DDE76B8D4F}"/>
+                <c16:uniqueId val="{00000039-92EE-4B7D-A85D-5ED3CE526D0F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -16108,7 +13466,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000003B-1D19-4591-8EF4-19DDE76B8D4F}"/>
+                <c16:uniqueId val="{0000003B-92EE-4B7D-A85D-5ED3CE526D0F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -16125,7 +13483,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000003D-1D19-4591-8EF4-19DDE76B8D4F}"/>
+                <c16:uniqueId val="{0000003D-92EE-4B7D-A85D-5ED3CE526D0F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -16142,7 +13500,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000003F-1D19-4591-8EF4-19DDE76B8D4F}"/>
+                <c16:uniqueId val="{0000003F-92EE-4B7D-A85D-5ED3CE526D0F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -16159,7 +13517,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000041-1D19-4591-8EF4-19DDE76B8D4F}"/>
+                <c16:uniqueId val="{00000041-92EE-4B7D-A85D-5ED3CE526D0F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -16176,7 +13534,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000043-1D19-4591-8EF4-19DDE76B8D4F}"/>
+                <c16:uniqueId val="{00000043-92EE-4B7D-A85D-5ED3CE526D0F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -16193,7 +13551,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000045-1D19-4591-8EF4-19DDE76B8D4F}"/>
+                <c16:uniqueId val="{00000045-92EE-4B7D-A85D-5ED3CE526D0F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -16210,7 +13568,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000047-1D19-4591-8EF4-19DDE76B8D4F}"/>
+                <c16:uniqueId val="{00000047-92EE-4B7D-A85D-5ED3CE526D0F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -16227,7 +13585,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000049-1D19-4591-8EF4-19DDE76B8D4F}"/>
+                <c16:uniqueId val="{00000049-92EE-4B7D-A85D-5ED3CE526D0F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -16244,7 +13602,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000004B-1D19-4591-8EF4-19DDE76B8D4F}"/>
+                <c16:uniqueId val="{0000004B-92EE-4B7D-A85D-5ED3CE526D0F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -16261,7 +13619,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000004D-1D19-4591-8EF4-19DDE76B8D4F}"/>
+                <c16:uniqueId val="{0000004D-92EE-4B7D-A85D-5ED3CE526D0F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -16278,7 +13636,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000004F-1D19-4591-8EF4-19DDE76B8D4F}"/>
+                <c16:uniqueId val="{0000004F-92EE-4B7D-A85D-5ED3CE526D0F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -16295,7 +13653,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000051-1D19-4591-8EF4-19DDE76B8D4F}"/>
+                <c16:uniqueId val="{00000051-92EE-4B7D-A85D-5ED3CE526D0F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -16312,7 +13670,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000053-1D19-4591-8EF4-19DDE76B8D4F}"/>
+                <c16:uniqueId val="{00000053-92EE-4B7D-A85D-5ED3CE526D0F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -16329,7 +13687,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000055-1D19-4591-8EF4-19DDE76B8D4F}"/>
+                <c16:uniqueId val="{00000055-92EE-4B7D-A85D-5ED3CE526D0F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -16346,7 +13704,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000057-1D19-4591-8EF4-19DDE76B8D4F}"/>
+                <c16:uniqueId val="{00000057-92EE-4B7D-A85D-5ED3CE526D0F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -16363,7 +13721,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000059-1D19-4591-8EF4-19DDE76B8D4F}"/>
+                <c16:uniqueId val="{00000059-92EE-4B7D-A85D-5ED3CE526D0F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -16380,7 +13738,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000005B-1D19-4591-8EF4-19DDE76B8D4F}"/>
+                <c16:uniqueId val="{0000005B-92EE-4B7D-A85D-5ED3CE526D0F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -16397,7 +13755,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000005D-1D19-4591-8EF4-19DDE76B8D4F}"/>
+                <c16:uniqueId val="{0000005D-92EE-4B7D-A85D-5ED3CE526D0F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -16414,7 +13772,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000005F-1D19-4591-8EF4-19DDE76B8D4F}"/>
+                <c16:uniqueId val="{0000005F-92EE-4B7D-A85D-5ED3CE526D0F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -16431,7 +13789,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000061-1D19-4591-8EF4-19DDE76B8D4F}"/>
+                <c16:uniqueId val="{00000061-92EE-4B7D-A85D-5ED3CE526D0F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -16750,7 +14108,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000062-1D19-4591-8EF4-19DDE76B8D4F}"/>
+              <c16:uniqueId val="{00000062-92EE-4B7D-A85D-5ED3CE526D0F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -17013,7 +14371,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-14A6-4144-A243-946BBE156E01}"/>
+                <c16:uniqueId val="{00000001-EA2D-4A60-9DEB-618292CEA2D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17030,7 +14388,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-14A6-4144-A243-946BBE156E01}"/>
+                <c16:uniqueId val="{00000003-EA2D-4A60-9DEB-618292CEA2D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17047,7 +14405,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-14A6-4144-A243-946BBE156E01}"/>
+                <c16:uniqueId val="{00000005-EA2D-4A60-9DEB-618292CEA2D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17064,7 +14422,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-14A6-4144-A243-946BBE156E01}"/>
+                <c16:uniqueId val="{00000007-EA2D-4A60-9DEB-618292CEA2D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17081,7 +14439,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-14A6-4144-A243-946BBE156E01}"/>
+                <c16:uniqueId val="{00000009-EA2D-4A60-9DEB-618292CEA2D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17098,7 +14456,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-14A6-4144-A243-946BBE156E01}"/>
+                <c16:uniqueId val="{0000000B-EA2D-4A60-9DEB-618292CEA2D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17115,7 +14473,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-14A6-4144-A243-946BBE156E01}"/>
+                <c16:uniqueId val="{0000000D-EA2D-4A60-9DEB-618292CEA2D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17132,7 +14490,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000F-14A6-4144-A243-946BBE156E01}"/>
+                <c16:uniqueId val="{0000000F-EA2D-4A60-9DEB-618292CEA2D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17149,7 +14507,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000011-14A6-4144-A243-946BBE156E01}"/>
+                <c16:uniqueId val="{00000011-EA2D-4A60-9DEB-618292CEA2D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17166,7 +14524,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000013-14A6-4144-A243-946BBE156E01}"/>
+                <c16:uniqueId val="{00000013-EA2D-4A60-9DEB-618292CEA2D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17183,7 +14541,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000015-14A6-4144-A243-946BBE156E01}"/>
+                <c16:uniqueId val="{00000015-EA2D-4A60-9DEB-618292CEA2D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17200,7 +14558,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000017-14A6-4144-A243-946BBE156E01}"/>
+                <c16:uniqueId val="{00000017-EA2D-4A60-9DEB-618292CEA2D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17217,7 +14575,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000019-14A6-4144-A243-946BBE156E01}"/>
+                <c16:uniqueId val="{00000019-EA2D-4A60-9DEB-618292CEA2D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17234,7 +14592,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001B-14A6-4144-A243-946BBE156E01}"/>
+                <c16:uniqueId val="{0000001B-EA2D-4A60-9DEB-618292CEA2D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17251,7 +14609,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001D-14A6-4144-A243-946BBE156E01}"/>
+                <c16:uniqueId val="{0000001D-EA2D-4A60-9DEB-618292CEA2D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17268,7 +14626,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001F-14A6-4144-A243-946BBE156E01}"/>
+                <c16:uniqueId val="{0000001F-EA2D-4A60-9DEB-618292CEA2D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17285,7 +14643,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000021-14A6-4144-A243-946BBE156E01}"/>
+                <c16:uniqueId val="{00000021-EA2D-4A60-9DEB-618292CEA2D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17302,7 +14660,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000023-14A6-4144-A243-946BBE156E01}"/>
+                <c16:uniqueId val="{00000023-EA2D-4A60-9DEB-618292CEA2D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17319,7 +14677,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000025-14A6-4144-A243-946BBE156E01}"/>
+                <c16:uniqueId val="{00000025-EA2D-4A60-9DEB-618292CEA2D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17336,7 +14694,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000027-14A6-4144-A243-946BBE156E01}"/>
+                <c16:uniqueId val="{00000027-EA2D-4A60-9DEB-618292CEA2D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17353,7 +14711,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000029-14A6-4144-A243-946BBE156E01}"/>
+                <c16:uniqueId val="{00000029-EA2D-4A60-9DEB-618292CEA2D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17370,7 +14728,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002B-14A6-4144-A243-946BBE156E01}"/>
+                <c16:uniqueId val="{0000002B-EA2D-4A60-9DEB-618292CEA2D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17387,7 +14745,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002D-14A6-4144-A243-946BBE156E01}"/>
+                <c16:uniqueId val="{0000002D-EA2D-4A60-9DEB-618292CEA2D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17404,7 +14762,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002F-14A6-4144-A243-946BBE156E01}"/>
+                <c16:uniqueId val="{0000002F-EA2D-4A60-9DEB-618292CEA2D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17421,7 +14779,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000031-14A6-4144-A243-946BBE156E01}"/>
+                <c16:uniqueId val="{00000031-EA2D-4A60-9DEB-618292CEA2D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17438,7 +14796,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000033-14A6-4144-A243-946BBE156E01}"/>
+                <c16:uniqueId val="{00000033-EA2D-4A60-9DEB-618292CEA2D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17455,7 +14813,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000035-14A6-4144-A243-946BBE156E01}"/>
+                <c16:uniqueId val="{00000035-EA2D-4A60-9DEB-618292CEA2D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17472,7 +14830,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000037-14A6-4144-A243-946BBE156E01}"/>
+                <c16:uniqueId val="{00000037-EA2D-4A60-9DEB-618292CEA2D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17489,7 +14847,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000039-14A6-4144-A243-946BBE156E01}"/>
+                <c16:uniqueId val="{00000039-EA2D-4A60-9DEB-618292CEA2D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17506,7 +14864,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000003B-14A6-4144-A243-946BBE156E01}"/>
+                <c16:uniqueId val="{0000003B-EA2D-4A60-9DEB-618292CEA2D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17523,7 +14881,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000003D-14A6-4144-A243-946BBE156E01}"/>
+                <c16:uniqueId val="{0000003D-EA2D-4A60-9DEB-618292CEA2D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17540,7 +14898,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000003F-14A6-4144-A243-946BBE156E01}"/>
+                <c16:uniqueId val="{0000003F-EA2D-4A60-9DEB-618292CEA2D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17557,7 +14915,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000041-14A6-4144-A243-946BBE156E01}"/>
+                <c16:uniqueId val="{00000041-EA2D-4A60-9DEB-618292CEA2D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17574,7 +14932,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000043-14A6-4144-A243-946BBE156E01}"/>
+                <c16:uniqueId val="{00000043-EA2D-4A60-9DEB-618292CEA2D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17591,7 +14949,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000045-14A6-4144-A243-946BBE156E01}"/>
+                <c16:uniqueId val="{00000045-EA2D-4A60-9DEB-618292CEA2D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17608,7 +14966,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000047-14A6-4144-A243-946BBE156E01}"/>
+                <c16:uniqueId val="{00000047-EA2D-4A60-9DEB-618292CEA2D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17625,7 +14983,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000049-14A6-4144-A243-946BBE156E01}"/>
+                <c16:uniqueId val="{00000049-EA2D-4A60-9DEB-618292CEA2D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17642,7 +15000,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000004B-14A6-4144-A243-946BBE156E01}"/>
+                <c16:uniqueId val="{0000004B-EA2D-4A60-9DEB-618292CEA2D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17659,7 +15017,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000004D-14A6-4144-A243-946BBE156E01}"/>
+                <c16:uniqueId val="{0000004D-EA2D-4A60-9DEB-618292CEA2D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17676,7 +15034,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000004F-14A6-4144-A243-946BBE156E01}"/>
+                <c16:uniqueId val="{0000004F-EA2D-4A60-9DEB-618292CEA2D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17693,7 +15051,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000051-14A6-4144-A243-946BBE156E01}"/>
+                <c16:uniqueId val="{00000051-EA2D-4A60-9DEB-618292CEA2D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17710,7 +15068,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000053-14A6-4144-A243-946BBE156E01}"/>
+                <c16:uniqueId val="{00000053-EA2D-4A60-9DEB-618292CEA2D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17727,7 +15085,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000055-14A6-4144-A243-946BBE156E01}"/>
+                <c16:uniqueId val="{00000055-EA2D-4A60-9DEB-618292CEA2D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17744,7 +15102,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000057-14A6-4144-A243-946BBE156E01}"/>
+                <c16:uniqueId val="{00000057-EA2D-4A60-9DEB-618292CEA2D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17761,7 +15119,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000059-14A6-4144-A243-946BBE156E01}"/>
+                <c16:uniqueId val="{00000059-EA2D-4A60-9DEB-618292CEA2D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17778,7 +15136,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000005B-14A6-4144-A243-946BBE156E01}"/>
+                <c16:uniqueId val="{0000005B-EA2D-4A60-9DEB-618292CEA2D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17795,7 +15153,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000005D-14A6-4144-A243-946BBE156E01}"/>
+                <c16:uniqueId val="{0000005D-EA2D-4A60-9DEB-618292CEA2D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17812,7 +15170,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000005F-14A6-4144-A243-946BBE156E01}"/>
+                <c16:uniqueId val="{0000005F-EA2D-4A60-9DEB-618292CEA2D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17829,7 +15187,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000061-14A6-4144-A243-946BBE156E01}"/>
+                <c16:uniqueId val="{00000061-EA2D-4A60-9DEB-618292CEA2D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18148,7 +15506,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000062-14A6-4144-A243-946BBE156E01}"/>
+              <c16:uniqueId val="{00000062-EA2D-4A60-9DEB-618292CEA2D6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -18411,7 +15769,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-0B91-4A9F-92E9-DB26589108A5}"/>
+                <c16:uniqueId val="{00000001-4F85-494B-92BF-0694F714BF83}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18428,7 +15786,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-0B91-4A9F-92E9-DB26589108A5}"/>
+                <c16:uniqueId val="{00000003-4F85-494B-92BF-0694F714BF83}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18445,7 +15803,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-0B91-4A9F-92E9-DB26589108A5}"/>
+                <c16:uniqueId val="{00000005-4F85-494B-92BF-0694F714BF83}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18462,7 +15820,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-0B91-4A9F-92E9-DB26589108A5}"/>
+                <c16:uniqueId val="{00000007-4F85-494B-92BF-0694F714BF83}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18479,7 +15837,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-0B91-4A9F-92E9-DB26589108A5}"/>
+                <c16:uniqueId val="{00000009-4F85-494B-92BF-0694F714BF83}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18496,7 +15854,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-0B91-4A9F-92E9-DB26589108A5}"/>
+                <c16:uniqueId val="{0000000B-4F85-494B-92BF-0694F714BF83}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18513,7 +15871,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-0B91-4A9F-92E9-DB26589108A5}"/>
+                <c16:uniqueId val="{0000000D-4F85-494B-92BF-0694F714BF83}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18530,7 +15888,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000F-0B91-4A9F-92E9-DB26589108A5}"/>
+                <c16:uniqueId val="{0000000F-4F85-494B-92BF-0694F714BF83}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18547,7 +15905,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000011-0B91-4A9F-92E9-DB26589108A5}"/>
+                <c16:uniqueId val="{00000011-4F85-494B-92BF-0694F714BF83}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18564,7 +15922,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000013-0B91-4A9F-92E9-DB26589108A5}"/>
+                <c16:uniqueId val="{00000013-4F85-494B-92BF-0694F714BF83}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18581,7 +15939,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000015-0B91-4A9F-92E9-DB26589108A5}"/>
+                <c16:uniqueId val="{00000015-4F85-494B-92BF-0694F714BF83}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18598,7 +15956,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000017-0B91-4A9F-92E9-DB26589108A5}"/>
+                <c16:uniqueId val="{00000017-4F85-494B-92BF-0694F714BF83}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18615,7 +15973,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000019-0B91-4A9F-92E9-DB26589108A5}"/>
+                <c16:uniqueId val="{00000019-4F85-494B-92BF-0694F714BF83}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18632,7 +15990,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001B-0B91-4A9F-92E9-DB26589108A5}"/>
+                <c16:uniqueId val="{0000001B-4F85-494B-92BF-0694F714BF83}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18649,7 +16007,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001D-0B91-4A9F-92E9-DB26589108A5}"/>
+                <c16:uniqueId val="{0000001D-4F85-494B-92BF-0694F714BF83}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18666,7 +16024,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001F-0B91-4A9F-92E9-DB26589108A5}"/>
+                <c16:uniqueId val="{0000001F-4F85-494B-92BF-0694F714BF83}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18683,7 +16041,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000021-0B91-4A9F-92E9-DB26589108A5}"/>
+                <c16:uniqueId val="{00000021-4F85-494B-92BF-0694F714BF83}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18700,7 +16058,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000023-0B91-4A9F-92E9-DB26589108A5}"/>
+                <c16:uniqueId val="{00000023-4F85-494B-92BF-0694F714BF83}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18717,7 +16075,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000025-0B91-4A9F-92E9-DB26589108A5}"/>
+                <c16:uniqueId val="{00000025-4F85-494B-92BF-0694F714BF83}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18734,7 +16092,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000027-0B91-4A9F-92E9-DB26589108A5}"/>
+                <c16:uniqueId val="{00000027-4F85-494B-92BF-0694F714BF83}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18751,7 +16109,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000029-0B91-4A9F-92E9-DB26589108A5}"/>
+                <c16:uniqueId val="{00000029-4F85-494B-92BF-0694F714BF83}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18768,7 +16126,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002B-0B91-4A9F-92E9-DB26589108A5}"/>
+                <c16:uniqueId val="{0000002B-4F85-494B-92BF-0694F714BF83}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18785,7 +16143,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002D-0B91-4A9F-92E9-DB26589108A5}"/>
+                <c16:uniqueId val="{0000002D-4F85-494B-92BF-0694F714BF83}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18802,7 +16160,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002F-0B91-4A9F-92E9-DB26589108A5}"/>
+                <c16:uniqueId val="{0000002F-4F85-494B-92BF-0694F714BF83}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18819,7 +16177,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000031-0B91-4A9F-92E9-DB26589108A5}"/>
+                <c16:uniqueId val="{00000031-4F85-494B-92BF-0694F714BF83}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18836,7 +16194,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000033-0B91-4A9F-92E9-DB26589108A5}"/>
+                <c16:uniqueId val="{00000033-4F85-494B-92BF-0694F714BF83}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18853,7 +16211,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000035-0B91-4A9F-92E9-DB26589108A5}"/>
+                <c16:uniqueId val="{00000035-4F85-494B-92BF-0694F714BF83}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18870,7 +16228,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000037-0B91-4A9F-92E9-DB26589108A5}"/>
+                <c16:uniqueId val="{00000037-4F85-494B-92BF-0694F714BF83}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18887,7 +16245,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000039-0B91-4A9F-92E9-DB26589108A5}"/>
+                <c16:uniqueId val="{00000039-4F85-494B-92BF-0694F714BF83}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18904,7 +16262,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000003B-0B91-4A9F-92E9-DB26589108A5}"/>
+                <c16:uniqueId val="{0000003B-4F85-494B-92BF-0694F714BF83}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18921,7 +16279,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000003D-0B91-4A9F-92E9-DB26589108A5}"/>
+                <c16:uniqueId val="{0000003D-4F85-494B-92BF-0694F714BF83}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18938,7 +16296,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000003F-0B91-4A9F-92E9-DB26589108A5}"/>
+                <c16:uniqueId val="{0000003F-4F85-494B-92BF-0694F714BF83}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18955,7 +16313,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000041-0B91-4A9F-92E9-DB26589108A5}"/>
+                <c16:uniqueId val="{00000041-4F85-494B-92BF-0694F714BF83}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18972,7 +16330,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000043-0B91-4A9F-92E9-DB26589108A5}"/>
+                <c16:uniqueId val="{00000043-4F85-494B-92BF-0694F714BF83}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18989,7 +16347,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000045-0B91-4A9F-92E9-DB26589108A5}"/>
+                <c16:uniqueId val="{00000045-4F85-494B-92BF-0694F714BF83}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -19006,7 +16364,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000047-0B91-4A9F-92E9-DB26589108A5}"/>
+                <c16:uniqueId val="{00000047-4F85-494B-92BF-0694F714BF83}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -19023,7 +16381,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000049-0B91-4A9F-92E9-DB26589108A5}"/>
+                <c16:uniqueId val="{00000049-4F85-494B-92BF-0694F714BF83}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -19040,7 +16398,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000004B-0B91-4A9F-92E9-DB26589108A5}"/>
+                <c16:uniqueId val="{0000004B-4F85-494B-92BF-0694F714BF83}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -19057,7 +16415,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000004D-0B91-4A9F-92E9-DB26589108A5}"/>
+                <c16:uniqueId val="{0000004D-4F85-494B-92BF-0694F714BF83}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -19074,7 +16432,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000004F-0B91-4A9F-92E9-DB26589108A5}"/>
+                <c16:uniqueId val="{0000004F-4F85-494B-92BF-0694F714BF83}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -19091,7 +16449,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000051-0B91-4A9F-92E9-DB26589108A5}"/>
+                <c16:uniqueId val="{00000051-4F85-494B-92BF-0694F714BF83}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -19108,7 +16466,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000053-0B91-4A9F-92E9-DB26589108A5}"/>
+                <c16:uniqueId val="{00000053-4F85-494B-92BF-0694F714BF83}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -19125,7 +16483,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000055-0B91-4A9F-92E9-DB26589108A5}"/>
+                <c16:uniqueId val="{00000055-4F85-494B-92BF-0694F714BF83}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -19142,7 +16500,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000057-0B91-4A9F-92E9-DB26589108A5}"/>
+                <c16:uniqueId val="{00000057-4F85-494B-92BF-0694F714BF83}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -19159,7 +16517,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000059-0B91-4A9F-92E9-DB26589108A5}"/>
+                <c16:uniqueId val="{00000059-4F85-494B-92BF-0694F714BF83}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -19176,7 +16534,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000005B-0B91-4A9F-92E9-DB26589108A5}"/>
+                <c16:uniqueId val="{0000005B-4F85-494B-92BF-0694F714BF83}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -19193,7 +16551,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000005D-0B91-4A9F-92E9-DB26589108A5}"/>
+                <c16:uniqueId val="{0000005D-4F85-494B-92BF-0694F714BF83}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -19210,7 +16568,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000005F-0B91-4A9F-92E9-DB26589108A5}"/>
+                <c16:uniqueId val="{0000005F-4F85-494B-92BF-0694F714BF83}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -19227,7 +16585,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000061-0B91-4A9F-92E9-DB26589108A5}"/>
+                <c16:uniqueId val="{00000061-4F85-494B-92BF-0694F714BF83}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -19546,7 +16904,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000062-0B91-4A9F-92E9-DB26589108A5}"/>
+              <c16:uniqueId val="{00000062-4F85-494B-92BF-0694F714BF83}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -19820,7 +17178,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-304B-4181-8352-4A1CC4B9077C}"/>
+                <c16:uniqueId val="{00000001-BBA3-40AD-A8B0-E6037145D7DC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -19837,7 +17195,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-304B-4181-8352-4A1CC4B9077C}"/>
+                <c16:uniqueId val="{00000003-BBA3-40AD-A8B0-E6037145D7DC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -19854,7 +17212,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-304B-4181-8352-4A1CC4B9077C}"/>
+                <c16:uniqueId val="{00000005-BBA3-40AD-A8B0-E6037145D7DC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -19871,7 +17229,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-304B-4181-8352-4A1CC4B9077C}"/>
+                <c16:uniqueId val="{00000007-BBA3-40AD-A8B0-E6037145D7DC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -19888,7 +17246,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-304B-4181-8352-4A1CC4B9077C}"/>
+                <c16:uniqueId val="{00000009-BBA3-40AD-A8B0-E6037145D7DC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -19905,7 +17263,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-304B-4181-8352-4A1CC4B9077C}"/>
+                <c16:uniqueId val="{0000000B-BBA3-40AD-A8B0-E6037145D7DC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -19922,7 +17280,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-304B-4181-8352-4A1CC4B9077C}"/>
+                <c16:uniqueId val="{0000000D-BBA3-40AD-A8B0-E6037145D7DC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -19939,7 +17297,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000F-304B-4181-8352-4A1CC4B9077C}"/>
+                <c16:uniqueId val="{0000000F-BBA3-40AD-A8B0-E6037145D7DC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -19956,7 +17314,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000011-304B-4181-8352-4A1CC4B9077C}"/>
+                <c16:uniqueId val="{00000011-BBA3-40AD-A8B0-E6037145D7DC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -19973,7 +17331,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000013-304B-4181-8352-4A1CC4B9077C}"/>
+                <c16:uniqueId val="{00000013-BBA3-40AD-A8B0-E6037145D7DC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -19990,7 +17348,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000015-304B-4181-8352-4A1CC4B9077C}"/>
+                <c16:uniqueId val="{00000015-BBA3-40AD-A8B0-E6037145D7DC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20007,7 +17365,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000017-304B-4181-8352-4A1CC4B9077C}"/>
+                <c16:uniqueId val="{00000017-BBA3-40AD-A8B0-E6037145D7DC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20024,7 +17382,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000019-304B-4181-8352-4A1CC4B9077C}"/>
+                <c16:uniqueId val="{00000019-BBA3-40AD-A8B0-E6037145D7DC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20041,7 +17399,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001B-304B-4181-8352-4A1CC4B9077C}"/>
+                <c16:uniqueId val="{0000001B-BBA3-40AD-A8B0-E6037145D7DC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20058,7 +17416,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001D-304B-4181-8352-4A1CC4B9077C}"/>
+                <c16:uniqueId val="{0000001D-BBA3-40AD-A8B0-E6037145D7DC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20075,7 +17433,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001F-304B-4181-8352-4A1CC4B9077C}"/>
+                <c16:uniqueId val="{0000001F-BBA3-40AD-A8B0-E6037145D7DC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20092,7 +17450,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000021-304B-4181-8352-4A1CC4B9077C}"/>
+                <c16:uniqueId val="{00000021-BBA3-40AD-A8B0-E6037145D7DC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20109,7 +17467,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000023-304B-4181-8352-4A1CC4B9077C}"/>
+                <c16:uniqueId val="{00000023-BBA3-40AD-A8B0-E6037145D7DC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20126,7 +17484,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000025-304B-4181-8352-4A1CC4B9077C}"/>
+                <c16:uniqueId val="{00000025-BBA3-40AD-A8B0-E6037145D7DC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20143,7 +17501,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000027-304B-4181-8352-4A1CC4B9077C}"/>
+                <c16:uniqueId val="{00000027-BBA3-40AD-A8B0-E6037145D7DC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20160,7 +17518,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000029-304B-4181-8352-4A1CC4B9077C}"/>
+                <c16:uniqueId val="{00000029-BBA3-40AD-A8B0-E6037145D7DC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20177,7 +17535,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002B-304B-4181-8352-4A1CC4B9077C}"/>
+                <c16:uniqueId val="{0000002B-BBA3-40AD-A8B0-E6037145D7DC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20194,7 +17552,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002D-304B-4181-8352-4A1CC4B9077C}"/>
+                <c16:uniqueId val="{0000002D-BBA3-40AD-A8B0-E6037145D7DC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20211,7 +17569,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002F-304B-4181-8352-4A1CC4B9077C}"/>
+                <c16:uniqueId val="{0000002F-BBA3-40AD-A8B0-E6037145D7DC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20228,7 +17586,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000031-304B-4181-8352-4A1CC4B9077C}"/>
+                <c16:uniqueId val="{00000031-BBA3-40AD-A8B0-E6037145D7DC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20245,7 +17603,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000033-304B-4181-8352-4A1CC4B9077C}"/>
+                <c16:uniqueId val="{00000033-BBA3-40AD-A8B0-E6037145D7DC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20262,7 +17620,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000035-304B-4181-8352-4A1CC4B9077C}"/>
+                <c16:uniqueId val="{00000035-BBA3-40AD-A8B0-E6037145D7DC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20279,7 +17637,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000037-304B-4181-8352-4A1CC4B9077C}"/>
+                <c16:uniqueId val="{00000037-BBA3-40AD-A8B0-E6037145D7DC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20296,7 +17654,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000039-304B-4181-8352-4A1CC4B9077C}"/>
+                <c16:uniqueId val="{00000039-BBA3-40AD-A8B0-E6037145D7DC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20313,7 +17671,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000003B-304B-4181-8352-4A1CC4B9077C}"/>
+                <c16:uniqueId val="{0000003B-BBA3-40AD-A8B0-E6037145D7DC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20330,7 +17688,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000003D-304B-4181-8352-4A1CC4B9077C}"/>
+                <c16:uniqueId val="{0000003D-BBA3-40AD-A8B0-E6037145D7DC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20347,7 +17705,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000003F-304B-4181-8352-4A1CC4B9077C}"/>
+                <c16:uniqueId val="{0000003F-BBA3-40AD-A8B0-E6037145D7DC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20364,7 +17722,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000041-304B-4181-8352-4A1CC4B9077C}"/>
+                <c16:uniqueId val="{00000041-BBA3-40AD-A8B0-E6037145D7DC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20381,7 +17739,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000043-304B-4181-8352-4A1CC4B9077C}"/>
+                <c16:uniqueId val="{00000043-BBA3-40AD-A8B0-E6037145D7DC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20398,7 +17756,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000045-304B-4181-8352-4A1CC4B9077C}"/>
+                <c16:uniqueId val="{00000045-BBA3-40AD-A8B0-E6037145D7DC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20415,7 +17773,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000047-304B-4181-8352-4A1CC4B9077C}"/>
+                <c16:uniqueId val="{00000047-BBA3-40AD-A8B0-E6037145D7DC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20432,7 +17790,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000049-304B-4181-8352-4A1CC4B9077C}"/>
+                <c16:uniqueId val="{00000049-BBA3-40AD-A8B0-E6037145D7DC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20449,7 +17807,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000004B-304B-4181-8352-4A1CC4B9077C}"/>
+                <c16:uniqueId val="{0000004B-BBA3-40AD-A8B0-E6037145D7DC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20466,7 +17824,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000004D-304B-4181-8352-4A1CC4B9077C}"/>
+                <c16:uniqueId val="{0000004D-BBA3-40AD-A8B0-E6037145D7DC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20483,7 +17841,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000004F-304B-4181-8352-4A1CC4B9077C}"/>
+                <c16:uniqueId val="{0000004F-BBA3-40AD-A8B0-E6037145D7DC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20500,7 +17858,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000051-304B-4181-8352-4A1CC4B9077C}"/>
+                <c16:uniqueId val="{00000051-BBA3-40AD-A8B0-E6037145D7DC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20517,7 +17875,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000053-304B-4181-8352-4A1CC4B9077C}"/>
+                <c16:uniqueId val="{00000053-BBA3-40AD-A8B0-E6037145D7DC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20534,7 +17892,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000055-304B-4181-8352-4A1CC4B9077C}"/>
+                <c16:uniqueId val="{00000055-BBA3-40AD-A8B0-E6037145D7DC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20551,7 +17909,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000057-304B-4181-8352-4A1CC4B9077C}"/>
+                <c16:uniqueId val="{00000057-BBA3-40AD-A8B0-E6037145D7DC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20568,7 +17926,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000059-304B-4181-8352-4A1CC4B9077C}"/>
+                <c16:uniqueId val="{00000059-BBA3-40AD-A8B0-E6037145D7DC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20585,7 +17943,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000005B-304B-4181-8352-4A1CC4B9077C}"/>
+                <c16:uniqueId val="{0000005B-BBA3-40AD-A8B0-E6037145D7DC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20602,7 +17960,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000005D-304B-4181-8352-4A1CC4B9077C}"/>
+                <c16:uniqueId val="{0000005D-BBA3-40AD-A8B0-E6037145D7DC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20619,7 +17977,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000005F-304B-4181-8352-4A1CC4B9077C}"/>
+                <c16:uniqueId val="{0000005F-BBA3-40AD-A8B0-E6037145D7DC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20636,7 +17994,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000061-304B-4181-8352-4A1CC4B9077C}"/>
+                <c16:uniqueId val="{00000061-BBA3-40AD-A8B0-E6037145D7DC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20653,7 +18011,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000063-304B-4181-8352-4A1CC4B9077C}"/>
+                <c16:uniqueId val="{00000063-BBA3-40AD-A8B0-E6037145D7DC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20670,7 +18028,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000065-304B-4181-8352-4A1CC4B9077C}"/>
+                <c16:uniqueId val="{00000065-BBA3-40AD-A8B0-E6037145D7DC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20687,7 +18045,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000067-304B-4181-8352-4A1CC4B9077C}"/>
+                <c16:uniqueId val="{00000067-BBA3-40AD-A8B0-E6037145D7DC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21012,7 +18370,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000068-304B-4181-8352-4A1CC4B9077C}"/>
+              <c16:uniqueId val="{00000068-BBA3-40AD-A8B0-E6037145D7DC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -21286,7 +18644,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-E659-41C3-B7A1-81E67F00D3D2}"/>
+                <c16:uniqueId val="{00000001-BCDC-42E3-BA1B-66974A200329}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21303,7 +18661,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-E659-41C3-B7A1-81E67F00D3D2}"/>
+                <c16:uniqueId val="{00000003-BCDC-42E3-BA1B-66974A200329}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21320,7 +18678,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-E659-41C3-B7A1-81E67F00D3D2}"/>
+                <c16:uniqueId val="{00000005-BCDC-42E3-BA1B-66974A200329}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21337,7 +18695,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-E659-41C3-B7A1-81E67F00D3D2}"/>
+                <c16:uniqueId val="{00000007-BCDC-42E3-BA1B-66974A200329}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21354,7 +18712,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-E659-41C3-B7A1-81E67F00D3D2}"/>
+                <c16:uniqueId val="{00000009-BCDC-42E3-BA1B-66974A200329}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21371,7 +18729,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-E659-41C3-B7A1-81E67F00D3D2}"/>
+                <c16:uniqueId val="{0000000B-BCDC-42E3-BA1B-66974A200329}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21388,7 +18746,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-E659-41C3-B7A1-81E67F00D3D2}"/>
+                <c16:uniqueId val="{0000000D-BCDC-42E3-BA1B-66974A200329}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21405,7 +18763,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000F-E659-41C3-B7A1-81E67F00D3D2}"/>
+                <c16:uniqueId val="{0000000F-BCDC-42E3-BA1B-66974A200329}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21422,7 +18780,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000011-E659-41C3-B7A1-81E67F00D3D2}"/>
+                <c16:uniqueId val="{00000011-BCDC-42E3-BA1B-66974A200329}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21439,7 +18797,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000013-E659-41C3-B7A1-81E67F00D3D2}"/>
+                <c16:uniqueId val="{00000013-BCDC-42E3-BA1B-66974A200329}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21456,7 +18814,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000015-E659-41C3-B7A1-81E67F00D3D2}"/>
+                <c16:uniqueId val="{00000015-BCDC-42E3-BA1B-66974A200329}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21473,7 +18831,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000017-E659-41C3-B7A1-81E67F00D3D2}"/>
+                <c16:uniqueId val="{00000017-BCDC-42E3-BA1B-66974A200329}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21490,7 +18848,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000019-E659-41C3-B7A1-81E67F00D3D2}"/>
+                <c16:uniqueId val="{00000019-BCDC-42E3-BA1B-66974A200329}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21507,7 +18865,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001B-E659-41C3-B7A1-81E67F00D3D2}"/>
+                <c16:uniqueId val="{0000001B-BCDC-42E3-BA1B-66974A200329}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21524,7 +18882,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001D-E659-41C3-B7A1-81E67F00D3D2}"/>
+                <c16:uniqueId val="{0000001D-BCDC-42E3-BA1B-66974A200329}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21541,7 +18899,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001F-E659-41C3-B7A1-81E67F00D3D2}"/>
+                <c16:uniqueId val="{0000001F-BCDC-42E3-BA1B-66974A200329}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21558,7 +18916,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000021-E659-41C3-B7A1-81E67F00D3D2}"/>
+                <c16:uniqueId val="{00000021-BCDC-42E3-BA1B-66974A200329}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21575,7 +18933,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000023-E659-41C3-B7A1-81E67F00D3D2}"/>
+                <c16:uniqueId val="{00000023-BCDC-42E3-BA1B-66974A200329}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21592,7 +18950,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000025-E659-41C3-B7A1-81E67F00D3D2}"/>
+                <c16:uniqueId val="{00000025-BCDC-42E3-BA1B-66974A200329}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21609,7 +18967,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000027-E659-41C3-B7A1-81E67F00D3D2}"/>
+                <c16:uniqueId val="{00000027-BCDC-42E3-BA1B-66974A200329}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21626,7 +18984,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000029-E659-41C3-B7A1-81E67F00D3D2}"/>
+                <c16:uniqueId val="{00000029-BCDC-42E3-BA1B-66974A200329}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21643,7 +19001,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002B-E659-41C3-B7A1-81E67F00D3D2}"/>
+                <c16:uniqueId val="{0000002B-BCDC-42E3-BA1B-66974A200329}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21660,7 +19018,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002D-E659-41C3-B7A1-81E67F00D3D2}"/>
+                <c16:uniqueId val="{0000002D-BCDC-42E3-BA1B-66974A200329}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21677,7 +19035,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002F-E659-41C3-B7A1-81E67F00D3D2}"/>
+                <c16:uniqueId val="{0000002F-BCDC-42E3-BA1B-66974A200329}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21694,7 +19052,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000031-E659-41C3-B7A1-81E67F00D3D2}"/>
+                <c16:uniqueId val="{00000031-BCDC-42E3-BA1B-66974A200329}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21711,7 +19069,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000033-E659-41C3-B7A1-81E67F00D3D2}"/>
+                <c16:uniqueId val="{00000033-BCDC-42E3-BA1B-66974A200329}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21728,7 +19086,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000035-E659-41C3-B7A1-81E67F00D3D2}"/>
+                <c16:uniqueId val="{00000035-BCDC-42E3-BA1B-66974A200329}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21745,7 +19103,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000037-E659-41C3-B7A1-81E67F00D3D2}"/>
+                <c16:uniqueId val="{00000037-BCDC-42E3-BA1B-66974A200329}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21762,7 +19120,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000039-E659-41C3-B7A1-81E67F00D3D2}"/>
+                <c16:uniqueId val="{00000039-BCDC-42E3-BA1B-66974A200329}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21779,7 +19137,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000003B-E659-41C3-B7A1-81E67F00D3D2}"/>
+                <c16:uniqueId val="{0000003B-BCDC-42E3-BA1B-66974A200329}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21796,7 +19154,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000003D-E659-41C3-B7A1-81E67F00D3D2}"/>
+                <c16:uniqueId val="{0000003D-BCDC-42E3-BA1B-66974A200329}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21813,7 +19171,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000003F-E659-41C3-B7A1-81E67F00D3D2}"/>
+                <c16:uniqueId val="{0000003F-BCDC-42E3-BA1B-66974A200329}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21830,7 +19188,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000041-E659-41C3-B7A1-81E67F00D3D2}"/>
+                <c16:uniqueId val="{00000041-BCDC-42E3-BA1B-66974A200329}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21847,7 +19205,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000043-E659-41C3-B7A1-81E67F00D3D2}"/>
+                <c16:uniqueId val="{00000043-BCDC-42E3-BA1B-66974A200329}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21864,7 +19222,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000045-E659-41C3-B7A1-81E67F00D3D2}"/>
+                <c16:uniqueId val="{00000045-BCDC-42E3-BA1B-66974A200329}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21881,7 +19239,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000047-E659-41C3-B7A1-81E67F00D3D2}"/>
+                <c16:uniqueId val="{00000047-BCDC-42E3-BA1B-66974A200329}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21898,7 +19256,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000049-E659-41C3-B7A1-81E67F00D3D2}"/>
+                <c16:uniqueId val="{00000049-BCDC-42E3-BA1B-66974A200329}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21915,7 +19273,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000004B-E659-41C3-B7A1-81E67F00D3D2}"/>
+                <c16:uniqueId val="{0000004B-BCDC-42E3-BA1B-66974A200329}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21932,7 +19290,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000004D-E659-41C3-B7A1-81E67F00D3D2}"/>
+                <c16:uniqueId val="{0000004D-BCDC-42E3-BA1B-66974A200329}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21949,7 +19307,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000004F-E659-41C3-B7A1-81E67F00D3D2}"/>
+                <c16:uniqueId val="{0000004F-BCDC-42E3-BA1B-66974A200329}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21966,7 +19324,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000051-E659-41C3-B7A1-81E67F00D3D2}"/>
+                <c16:uniqueId val="{00000051-BCDC-42E3-BA1B-66974A200329}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21983,7 +19341,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000053-E659-41C3-B7A1-81E67F00D3D2}"/>
+                <c16:uniqueId val="{00000053-BCDC-42E3-BA1B-66974A200329}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -22000,7 +19358,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000055-E659-41C3-B7A1-81E67F00D3D2}"/>
+                <c16:uniqueId val="{00000055-BCDC-42E3-BA1B-66974A200329}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -22017,7 +19375,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000057-E659-41C3-B7A1-81E67F00D3D2}"/>
+                <c16:uniqueId val="{00000057-BCDC-42E3-BA1B-66974A200329}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -22034,7 +19392,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000059-E659-41C3-B7A1-81E67F00D3D2}"/>
+                <c16:uniqueId val="{00000059-BCDC-42E3-BA1B-66974A200329}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -22051,7 +19409,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000005B-E659-41C3-B7A1-81E67F00D3D2}"/>
+                <c16:uniqueId val="{0000005B-BCDC-42E3-BA1B-66974A200329}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -22068,7 +19426,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000005D-E659-41C3-B7A1-81E67F00D3D2}"/>
+                <c16:uniqueId val="{0000005D-BCDC-42E3-BA1B-66974A200329}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -22085,7 +19443,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000005F-E659-41C3-B7A1-81E67F00D3D2}"/>
+                <c16:uniqueId val="{0000005F-BCDC-42E3-BA1B-66974A200329}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -22102,7 +19460,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000061-E659-41C3-B7A1-81E67F00D3D2}"/>
+                <c16:uniqueId val="{00000061-BCDC-42E3-BA1B-66974A200329}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -22119,7 +19477,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000063-E659-41C3-B7A1-81E67F00D3D2}"/>
+                <c16:uniqueId val="{00000063-BCDC-42E3-BA1B-66974A200329}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -22136,7 +19494,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000065-E659-41C3-B7A1-81E67F00D3D2}"/>
+                <c16:uniqueId val="{00000065-BCDC-42E3-BA1B-66974A200329}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -22153,7 +19511,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000067-E659-41C3-B7A1-81E67F00D3D2}"/>
+                <c16:uniqueId val="{00000067-BCDC-42E3-BA1B-66974A200329}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -22170,7 +19528,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000069-E659-41C3-B7A1-81E67F00D3D2}"/>
+                <c16:uniqueId val="{00000069-BCDC-42E3-BA1B-66974A200329}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -22187,7 +19545,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000006B-E659-41C3-B7A1-81E67F00D3D2}"/>
+                <c16:uniqueId val="{0000006B-BCDC-42E3-BA1B-66974A200329}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -22204,7 +19562,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000006D-E659-41C3-B7A1-81E67F00D3D2}"/>
+                <c16:uniqueId val="{0000006D-BCDC-42E3-BA1B-66974A200329}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -22221,7 +19579,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000006F-E659-41C3-B7A1-81E67F00D3D2}"/>
+                <c16:uniqueId val="{0000006F-BCDC-42E3-BA1B-66974A200329}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -22238,7 +19596,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000071-E659-41C3-B7A1-81E67F00D3D2}"/>
+                <c16:uniqueId val="{00000071-BCDC-42E3-BA1B-66974A200329}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -22255,7 +19613,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000073-E659-41C3-B7A1-81E67F00D3D2}"/>
+                <c16:uniqueId val="{00000073-BCDC-42E3-BA1B-66974A200329}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -22272,7 +19630,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000075-E659-41C3-B7A1-81E67F00D3D2}"/>
+                <c16:uniqueId val="{00000075-BCDC-42E3-BA1B-66974A200329}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -22597,7 +19955,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000076-E659-41C3-B7A1-81E67F00D3D2}"/>
+              <c16:uniqueId val="{00000076-BCDC-42E3-BA1B-66974A200329}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -22871,7 +20229,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-C6D2-4AA5-8708-95F9D843872C}"/>
+                <c16:uniqueId val="{00000001-A0EF-4738-8688-C9855FCC1781}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -22888,7 +20246,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-C6D2-4AA5-8708-95F9D843872C}"/>
+                <c16:uniqueId val="{00000003-A0EF-4738-8688-C9855FCC1781}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -22905,7 +20263,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-C6D2-4AA5-8708-95F9D843872C}"/>
+                <c16:uniqueId val="{00000005-A0EF-4738-8688-C9855FCC1781}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -22922,7 +20280,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-C6D2-4AA5-8708-95F9D843872C}"/>
+                <c16:uniqueId val="{00000007-A0EF-4738-8688-C9855FCC1781}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -22939,7 +20297,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-C6D2-4AA5-8708-95F9D843872C}"/>
+                <c16:uniqueId val="{00000009-A0EF-4738-8688-C9855FCC1781}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -22956,7 +20314,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-C6D2-4AA5-8708-95F9D843872C}"/>
+                <c16:uniqueId val="{0000000B-A0EF-4738-8688-C9855FCC1781}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -22973,7 +20331,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-C6D2-4AA5-8708-95F9D843872C}"/>
+                <c16:uniqueId val="{0000000D-A0EF-4738-8688-C9855FCC1781}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -22990,7 +20348,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000F-C6D2-4AA5-8708-95F9D843872C}"/>
+                <c16:uniqueId val="{0000000F-A0EF-4738-8688-C9855FCC1781}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -23007,7 +20365,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000011-C6D2-4AA5-8708-95F9D843872C}"/>
+                <c16:uniqueId val="{00000011-A0EF-4738-8688-C9855FCC1781}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -23024,7 +20382,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000013-C6D2-4AA5-8708-95F9D843872C}"/>
+                <c16:uniqueId val="{00000013-A0EF-4738-8688-C9855FCC1781}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -23041,7 +20399,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000015-C6D2-4AA5-8708-95F9D843872C}"/>
+                <c16:uniqueId val="{00000015-A0EF-4738-8688-C9855FCC1781}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -23058,7 +20416,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000017-C6D2-4AA5-8708-95F9D843872C}"/>
+                <c16:uniqueId val="{00000017-A0EF-4738-8688-C9855FCC1781}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -23075,7 +20433,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000019-C6D2-4AA5-8708-95F9D843872C}"/>
+                <c16:uniqueId val="{00000019-A0EF-4738-8688-C9855FCC1781}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -23092,7 +20450,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001B-C6D2-4AA5-8708-95F9D843872C}"/>
+                <c16:uniqueId val="{0000001B-A0EF-4738-8688-C9855FCC1781}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -23109,7 +20467,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001D-C6D2-4AA5-8708-95F9D843872C}"/>
+                <c16:uniqueId val="{0000001D-A0EF-4738-8688-C9855FCC1781}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -23126,7 +20484,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001F-C6D2-4AA5-8708-95F9D843872C}"/>
+                <c16:uniqueId val="{0000001F-A0EF-4738-8688-C9855FCC1781}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -23143,7 +20501,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000021-C6D2-4AA5-8708-95F9D843872C}"/>
+                <c16:uniqueId val="{00000021-A0EF-4738-8688-C9855FCC1781}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -23160,7 +20518,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000023-C6D2-4AA5-8708-95F9D843872C}"/>
+                <c16:uniqueId val="{00000023-A0EF-4738-8688-C9855FCC1781}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -23177,7 +20535,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000025-C6D2-4AA5-8708-95F9D843872C}"/>
+                <c16:uniqueId val="{00000025-A0EF-4738-8688-C9855FCC1781}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -23194,7 +20552,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000027-C6D2-4AA5-8708-95F9D843872C}"/>
+                <c16:uniqueId val="{00000027-A0EF-4738-8688-C9855FCC1781}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -23211,7 +20569,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000029-C6D2-4AA5-8708-95F9D843872C}"/>
+                <c16:uniqueId val="{00000029-A0EF-4738-8688-C9855FCC1781}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -23228,7 +20586,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002B-C6D2-4AA5-8708-95F9D843872C}"/>
+                <c16:uniqueId val="{0000002B-A0EF-4738-8688-C9855FCC1781}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -23245,7 +20603,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002D-C6D2-4AA5-8708-95F9D843872C}"/>
+                <c16:uniqueId val="{0000002D-A0EF-4738-8688-C9855FCC1781}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -23262,7 +20620,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002F-C6D2-4AA5-8708-95F9D843872C}"/>
+                <c16:uniqueId val="{0000002F-A0EF-4738-8688-C9855FCC1781}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -23279,7 +20637,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000031-C6D2-4AA5-8708-95F9D843872C}"/>
+                <c16:uniqueId val="{00000031-A0EF-4738-8688-C9855FCC1781}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -23296,7 +20654,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000033-C6D2-4AA5-8708-95F9D843872C}"/>
+                <c16:uniqueId val="{00000033-A0EF-4738-8688-C9855FCC1781}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -23313,7 +20671,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000035-C6D2-4AA5-8708-95F9D843872C}"/>
+                <c16:uniqueId val="{00000035-A0EF-4738-8688-C9855FCC1781}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -23330,7 +20688,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000037-C6D2-4AA5-8708-95F9D843872C}"/>
+                <c16:uniqueId val="{00000037-A0EF-4738-8688-C9855FCC1781}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -23347,7 +20705,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000039-C6D2-4AA5-8708-95F9D843872C}"/>
+                <c16:uniqueId val="{00000039-A0EF-4738-8688-C9855FCC1781}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -23364,7 +20722,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000003B-C6D2-4AA5-8708-95F9D843872C}"/>
+                <c16:uniqueId val="{0000003B-A0EF-4738-8688-C9855FCC1781}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -23381,7 +20739,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000003D-C6D2-4AA5-8708-95F9D843872C}"/>
+                <c16:uniqueId val="{0000003D-A0EF-4738-8688-C9855FCC1781}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -23398,7 +20756,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000003F-C6D2-4AA5-8708-95F9D843872C}"/>
+                <c16:uniqueId val="{0000003F-A0EF-4738-8688-C9855FCC1781}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -23415,7 +20773,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000041-C6D2-4AA5-8708-95F9D843872C}"/>
+                <c16:uniqueId val="{00000041-A0EF-4738-8688-C9855FCC1781}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -23432,7 +20790,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000043-C6D2-4AA5-8708-95F9D843872C}"/>
+                <c16:uniqueId val="{00000043-A0EF-4738-8688-C9855FCC1781}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -23449,7 +20807,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000045-C6D2-4AA5-8708-95F9D843872C}"/>
+                <c16:uniqueId val="{00000045-A0EF-4738-8688-C9855FCC1781}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -23466,7 +20824,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000047-C6D2-4AA5-8708-95F9D843872C}"/>
+                <c16:uniqueId val="{00000047-A0EF-4738-8688-C9855FCC1781}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -23483,7 +20841,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000049-C6D2-4AA5-8708-95F9D843872C}"/>
+                <c16:uniqueId val="{00000049-A0EF-4738-8688-C9855FCC1781}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -23500,7 +20858,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000004B-C6D2-4AA5-8708-95F9D843872C}"/>
+                <c16:uniqueId val="{0000004B-A0EF-4738-8688-C9855FCC1781}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -23517,7 +20875,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000004D-C6D2-4AA5-8708-95F9D843872C}"/>
+                <c16:uniqueId val="{0000004D-A0EF-4738-8688-C9855FCC1781}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -23534,7 +20892,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000004F-C6D2-4AA5-8708-95F9D843872C}"/>
+                <c16:uniqueId val="{0000004F-A0EF-4738-8688-C9855FCC1781}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -23551,7 +20909,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000051-C6D2-4AA5-8708-95F9D843872C}"/>
+                <c16:uniqueId val="{00000051-A0EF-4738-8688-C9855FCC1781}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -23568,7 +20926,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000053-C6D2-4AA5-8708-95F9D843872C}"/>
+                <c16:uniqueId val="{00000053-A0EF-4738-8688-C9855FCC1781}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -23585,7 +20943,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000055-C6D2-4AA5-8708-95F9D843872C}"/>
+                <c16:uniqueId val="{00000055-A0EF-4738-8688-C9855FCC1781}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -23602,7 +20960,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000057-C6D2-4AA5-8708-95F9D843872C}"/>
+                <c16:uniqueId val="{00000057-A0EF-4738-8688-C9855FCC1781}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -23619,7 +20977,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000059-C6D2-4AA5-8708-95F9D843872C}"/>
+                <c16:uniqueId val="{00000059-A0EF-4738-8688-C9855FCC1781}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -23636,7 +20994,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000005B-C6D2-4AA5-8708-95F9D843872C}"/>
+                <c16:uniqueId val="{0000005B-A0EF-4738-8688-C9855FCC1781}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -23653,7 +21011,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000005D-C6D2-4AA5-8708-95F9D843872C}"/>
+                <c16:uniqueId val="{0000005D-A0EF-4738-8688-C9855FCC1781}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -23670,7 +21028,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000005F-C6D2-4AA5-8708-95F9D843872C}"/>
+                <c16:uniqueId val="{0000005F-A0EF-4738-8688-C9855FCC1781}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -23687,7 +21045,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000061-C6D2-4AA5-8708-95F9D843872C}"/>
+                <c16:uniqueId val="{00000061-A0EF-4738-8688-C9855FCC1781}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -23704,7 +21062,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000063-C6D2-4AA5-8708-95F9D843872C}"/>
+                <c16:uniqueId val="{00000063-A0EF-4738-8688-C9855FCC1781}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -23721,7 +21079,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000065-C6D2-4AA5-8708-95F9D843872C}"/>
+                <c16:uniqueId val="{00000065-A0EF-4738-8688-C9855FCC1781}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -23738,7 +21096,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000067-C6D2-4AA5-8708-95F9D843872C}"/>
+                <c16:uniqueId val="{00000067-A0EF-4738-8688-C9855FCC1781}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -24063,7 +21421,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000068-C6D2-4AA5-8708-95F9D843872C}"/>
+              <c16:uniqueId val="{00000068-A0EF-4738-8688-C9855FCC1781}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -24327,11 +21685,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:ext cx="4451350" cy="3232150"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -24350,37 +21708,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5397500" cy="3397250"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -29051,8 +26378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/wafer-mapping-automation-test.xlsx
+++ b/wafer-mapping-automation-test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gohja\Desktop\wafer-map-automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D07A0E-AB38-493A-B974-9E50C0037DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1217E68-9BFF-4F8F-B406-860EA28DA26E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="532" firstSheet="11" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,6 +27,9 @@
     <sheet name="12th Wafer (ML RT 3)" sheetId="12" r:id="rId12"/>
     <sheet name="13th Wafer (ML RT 7)" sheetId="13" r:id="rId13"/>
     <sheet name="Coding Testing on ML 10" sheetId="14" r:id="rId14"/>
+    <sheet name="Coding Testing on ML 101" sheetId="15" r:id="rId15"/>
+    <sheet name="Coding Testing on ML 102" sheetId="16" r:id="rId16"/>
+    <sheet name="Coding Testing on ML 103" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="20">
   <si>
     <t>Site #</t>
   </si>
@@ -101,6 +104,9 @@
   </si>
   <si>
     <t>Lowest</t>
+  </si>
+  <si>
+    <t>1fregegergergergergergerg</t>
   </si>
 </sst>
 </file>
@@ -398,13 +404,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -840,7 +846,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FBD2-4BA9-A877-5583D48D8302}"/>
+              <c16:uniqueId val="{00000000-06E8-449A-8A69-AD462DAC29ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -892,7 +898,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FBD2-4BA9-A877-5583D48D8302}"/>
+              <c16:uniqueId val="{00000001-06E8-449A-8A69-AD462DAC29ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -944,7 +950,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-FBD2-4BA9-A877-5583D48D8302}"/>
+              <c16:uniqueId val="{00000002-06E8-449A-8A69-AD462DAC29ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -996,7 +1002,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-FBD2-4BA9-A877-5583D48D8302}"/>
+              <c16:uniqueId val="{00000003-06E8-449A-8A69-AD462DAC29ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1048,7 +1054,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-FBD2-4BA9-A877-5583D48D8302}"/>
+              <c16:uniqueId val="{00000004-06E8-449A-8A69-AD462DAC29ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1100,7 +1106,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-FBD2-4BA9-A877-5583D48D8302}"/>
+              <c16:uniqueId val="{00000005-06E8-449A-8A69-AD462DAC29ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1152,7 +1158,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-FBD2-4BA9-A877-5583D48D8302}"/>
+              <c16:uniqueId val="{00000006-06E8-449A-8A69-AD462DAC29ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1204,7 +1210,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-FBD2-4BA9-A877-5583D48D8302}"/>
+              <c16:uniqueId val="{00000007-06E8-449A-8A69-AD462DAC29ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1256,7 +1262,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-FBD2-4BA9-A877-5583D48D8302}"/>
+              <c16:uniqueId val="{00000008-06E8-449A-8A69-AD462DAC29ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1308,7 +1314,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-FBD2-4BA9-A877-5583D48D8302}"/>
+              <c16:uniqueId val="{00000009-06E8-449A-8A69-AD462DAC29ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1360,7 +1366,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-FBD2-4BA9-A877-5583D48D8302}"/>
+              <c16:uniqueId val="{0000000A-06E8-449A-8A69-AD462DAC29ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1412,7 +1418,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-FBD2-4BA9-A877-5583D48D8302}"/>
+              <c16:uniqueId val="{0000000B-06E8-449A-8A69-AD462DAC29ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1464,7 +1470,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-FBD2-4BA9-A877-5583D48D8302}"/>
+              <c16:uniqueId val="{0000000C-06E8-449A-8A69-AD462DAC29ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1516,7 +1522,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000D-FBD2-4BA9-A877-5583D48D8302}"/>
+              <c16:uniqueId val="{0000000D-06E8-449A-8A69-AD462DAC29ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1568,7 +1574,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000E-FBD2-4BA9-A877-5583D48D8302}"/>
+              <c16:uniqueId val="{0000000E-06E8-449A-8A69-AD462DAC29ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1620,7 +1626,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000F-FBD2-4BA9-A877-5583D48D8302}"/>
+              <c16:uniqueId val="{0000000F-06E8-449A-8A69-AD462DAC29ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1672,7 +1678,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000010-FBD2-4BA9-A877-5583D48D8302}"/>
+              <c16:uniqueId val="{00000010-06E8-449A-8A69-AD462DAC29ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1724,7 +1730,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000011-FBD2-4BA9-A877-5583D48D8302}"/>
+              <c16:uniqueId val="{00000011-06E8-449A-8A69-AD462DAC29ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1776,7 +1782,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000012-FBD2-4BA9-A877-5583D48D8302}"/>
+              <c16:uniqueId val="{00000012-06E8-449A-8A69-AD462DAC29ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1828,7 +1834,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000013-FBD2-4BA9-A877-5583D48D8302}"/>
+              <c16:uniqueId val="{00000013-06E8-449A-8A69-AD462DAC29ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1880,7 +1886,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000014-FBD2-4BA9-A877-5583D48D8302}"/>
+              <c16:uniqueId val="{00000014-06E8-449A-8A69-AD462DAC29ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1932,7 +1938,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000015-FBD2-4BA9-A877-5583D48D8302}"/>
+              <c16:uniqueId val="{00000015-06E8-449A-8A69-AD462DAC29ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1984,7 +1990,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000016-FBD2-4BA9-A877-5583D48D8302}"/>
+              <c16:uniqueId val="{00000016-06E8-449A-8A69-AD462DAC29ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2036,7 +2042,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000017-FBD2-4BA9-A877-5583D48D8302}"/>
+              <c16:uniqueId val="{00000017-06E8-449A-8A69-AD462DAC29ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2088,7 +2094,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000018-FBD2-4BA9-A877-5583D48D8302}"/>
+              <c16:uniqueId val="{00000018-06E8-449A-8A69-AD462DAC29ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2140,7 +2146,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000019-FBD2-4BA9-A877-5583D48D8302}"/>
+              <c16:uniqueId val="{00000019-06E8-449A-8A69-AD462DAC29ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2192,7 +2198,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001A-FBD2-4BA9-A877-5583D48D8302}"/>
+              <c16:uniqueId val="{0000001A-06E8-449A-8A69-AD462DAC29ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2244,7 +2250,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001B-FBD2-4BA9-A877-5583D48D8302}"/>
+              <c16:uniqueId val="{0000001B-06E8-449A-8A69-AD462DAC29ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2296,7 +2302,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001C-FBD2-4BA9-A877-5583D48D8302}"/>
+              <c16:uniqueId val="{0000001C-06E8-449A-8A69-AD462DAC29ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2348,7 +2354,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001D-FBD2-4BA9-A877-5583D48D8302}"/>
+              <c16:uniqueId val="{0000001D-06E8-449A-8A69-AD462DAC29ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2400,7 +2406,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001E-FBD2-4BA9-A877-5583D48D8302}"/>
+              <c16:uniqueId val="{0000001E-06E8-449A-8A69-AD462DAC29ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2452,7 +2458,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001F-FBD2-4BA9-A877-5583D48D8302}"/>
+              <c16:uniqueId val="{0000001F-06E8-449A-8A69-AD462DAC29ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2504,7 +2510,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000020-FBD2-4BA9-A877-5583D48D8302}"/>
+              <c16:uniqueId val="{00000020-06E8-449A-8A69-AD462DAC29ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2556,7 +2562,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000021-FBD2-4BA9-A877-5583D48D8302}"/>
+              <c16:uniqueId val="{00000021-06E8-449A-8A69-AD462DAC29ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2608,7 +2614,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000022-FBD2-4BA9-A877-5583D48D8302}"/>
+              <c16:uniqueId val="{00000022-06E8-449A-8A69-AD462DAC29ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2660,7 +2666,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000023-FBD2-4BA9-A877-5583D48D8302}"/>
+              <c16:uniqueId val="{00000023-06E8-449A-8A69-AD462DAC29ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2712,7 +2718,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000024-FBD2-4BA9-A877-5583D48D8302}"/>
+              <c16:uniqueId val="{00000024-06E8-449A-8A69-AD462DAC29ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2764,7 +2770,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000025-FBD2-4BA9-A877-5583D48D8302}"/>
+              <c16:uniqueId val="{00000025-06E8-449A-8A69-AD462DAC29ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2816,7 +2822,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000026-FBD2-4BA9-A877-5583D48D8302}"/>
+              <c16:uniqueId val="{00000026-06E8-449A-8A69-AD462DAC29ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2868,7 +2874,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000027-FBD2-4BA9-A877-5583D48D8302}"/>
+              <c16:uniqueId val="{00000027-06E8-449A-8A69-AD462DAC29ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2920,7 +2926,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000028-FBD2-4BA9-A877-5583D48D8302}"/>
+              <c16:uniqueId val="{00000028-06E8-449A-8A69-AD462DAC29ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2972,7 +2978,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000029-FBD2-4BA9-A877-5583D48D8302}"/>
+              <c16:uniqueId val="{00000029-06E8-449A-8A69-AD462DAC29ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3024,7 +3030,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002A-FBD2-4BA9-A877-5583D48D8302}"/>
+              <c16:uniqueId val="{0000002A-06E8-449A-8A69-AD462DAC29ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3076,7 +3082,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002B-FBD2-4BA9-A877-5583D48D8302}"/>
+              <c16:uniqueId val="{0000002B-06E8-449A-8A69-AD462DAC29ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3128,7 +3134,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002C-FBD2-4BA9-A877-5583D48D8302}"/>
+              <c16:uniqueId val="{0000002C-06E8-449A-8A69-AD462DAC29ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3180,7 +3186,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002D-FBD2-4BA9-A877-5583D48D8302}"/>
+              <c16:uniqueId val="{0000002D-06E8-449A-8A69-AD462DAC29ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3232,7 +3238,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002E-FBD2-4BA9-A877-5583D48D8302}"/>
+              <c16:uniqueId val="{0000002E-06E8-449A-8A69-AD462DAC29ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3284,7 +3290,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002F-FBD2-4BA9-A877-5583D48D8302}"/>
+              <c16:uniqueId val="{0000002F-06E8-449A-8A69-AD462DAC29ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3336,7 +3342,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000030-FBD2-4BA9-A877-5583D48D8302}"/>
+              <c16:uniqueId val="{00000030-06E8-449A-8A69-AD462DAC29ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3524,7 +3530,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-34EC-4405-9320-5F6869E40500}"/>
+                <c16:uniqueId val="{00000001-29A0-4928-B035-F007210780C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3541,7 +3547,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-34EC-4405-9320-5F6869E40500}"/>
+                <c16:uniqueId val="{00000003-29A0-4928-B035-F007210780C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3558,7 +3564,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-34EC-4405-9320-5F6869E40500}"/>
+                <c16:uniqueId val="{00000005-29A0-4928-B035-F007210780C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3575,7 +3581,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-34EC-4405-9320-5F6869E40500}"/>
+                <c16:uniqueId val="{00000007-29A0-4928-B035-F007210780C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3592,7 +3598,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-34EC-4405-9320-5F6869E40500}"/>
+                <c16:uniqueId val="{00000009-29A0-4928-B035-F007210780C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3609,7 +3615,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-34EC-4405-9320-5F6869E40500}"/>
+                <c16:uniqueId val="{0000000B-29A0-4928-B035-F007210780C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3626,7 +3632,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-34EC-4405-9320-5F6869E40500}"/>
+                <c16:uniqueId val="{0000000D-29A0-4928-B035-F007210780C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3643,7 +3649,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000F-34EC-4405-9320-5F6869E40500}"/>
+                <c16:uniqueId val="{0000000F-29A0-4928-B035-F007210780C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3660,7 +3666,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000011-34EC-4405-9320-5F6869E40500}"/>
+                <c16:uniqueId val="{00000011-29A0-4928-B035-F007210780C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3677,7 +3683,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000013-34EC-4405-9320-5F6869E40500}"/>
+                <c16:uniqueId val="{00000013-29A0-4928-B035-F007210780C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3694,7 +3700,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000015-34EC-4405-9320-5F6869E40500}"/>
+                <c16:uniqueId val="{00000015-29A0-4928-B035-F007210780C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3711,7 +3717,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000017-34EC-4405-9320-5F6869E40500}"/>
+                <c16:uniqueId val="{00000017-29A0-4928-B035-F007210780C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3728,7 +3734,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000019-34EC-4405-9320-5F6869E40500}"/>
+                <c16:uniqueId val="{00000019-29A0-4928-B035-F007210780C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3745,7 +3751,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001B-34EC-4405-9320-5F6869E40500}"/>
+                <c16:uniqueId val="{0000001B-29A0-4928-B035-F007210780C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3762,7 +3768,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001D-34EC-4405-9320-5F6869E40500}"/>
+                <c16:uniqueId val="{0000001D-29A0-4928-B035-F007210780C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3779,7 +3785,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001F-34EC-4405-9320-5F6869E40500}"/>
+                <c16:uniqueId val="{0000001F-29A0-4928-B035-F007210780C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3796,7 +3802,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000021-34EC-4405-9320-5F6869E40500}"/>
+                <c16:uniqueId val="{00000021-29A0-4928-B035-F007210780C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3813,7 +3819,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000023-34EC-4405-9320-5F6869E40500}"/>
+                <c16:uniqueId val="{00000023-29A0-4928-B035-F007210780C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3830,7 +3836,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000025-34EC-4405-9320-5F6869E40500}"/>
+                <c16:uniqueId val="{00000025-29A0-4928-B035-F007210780C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3847,7 +3853,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000027-34EC-4405-9320-5F6869E40500}"/>
+                <c16:uniqueId val="{00000027-29A0-4928-B035-F007210780C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3864,7 +3870,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000029-34EC-4405-9320-5F6869E40500}"/>
+                <c16:uniqueId val="{00000029-29A0-4928-B035-F007210780C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3881,7 +3887,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002B-34EC-4405-9320-5F6869E40500}"/>
+                <c16:uniqueId val="{0000002B-29A0-4928-B035-F007210780C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3898,7 +3904,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002D-34EC-4405-9320-5F6869E40500}"/>
+                <c16:uniqueId val="{0000002D-29A0-4928-B035-F007210780C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3915,7 +3921,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002F-34EC-4405-9320-5F6869E40500}"/>
+                <c16:uniqueId val="{0000002F-29A0-4928-B035-F007210780C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3932,7 +3938,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000031-34EC-4405-9320-5F6869E40500}"/>
+                <c16:uniqueId val="{00000031-29A0-4928-B035-F007210780C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3949,7 +3955,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000033-34EC-4405-9320-5F6869E40500}"/>
+                <c16:uniqueId val="{00000033-29A0-4928-B035-F007210780C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3966,7 +3972,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000035-34EC-4405-9320-5F6869E40500}"/>
+                <c16:uniqueId val="{00000035-29A0-4928-B035-F007210780C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3983,7 +3989,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000037-34EC-4405-9320-5F6869E40500}"/>
+                <c16:uniqueId val="{00000037-29A0-4928-B035-F007210780C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4000,7 +4006,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000039-34EC-4405-9320-5F6869E40500}"/>
+                <c16:uniqueId val="{00000039-29A0-4928-B035-F007210780C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4017,7 +4023,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000003B-34EC-4405-9320-5F6869E40500}"/>
+                <c16:uniqueId val="{0000003B-29A0-4928-B035-F007210780C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4034,7 +4040,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000003D-34EC-4405-9320-5F6869E40500}"/>
+                <c16:uniqueId val="{0000003D-29A0-4928-B035-F007210780C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4051,7 +4057,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000003F-34EC-4405-9320-5F6869E40500}"/>
+                <c16:uniqueId val="{0000003F-29A0-4928-B035-F007210780C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4068,7 +4074,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000041-34EC-4405-9320-5F6869E40500}"/>
+                <c16:uniqueId val="{00000041-29A0-4928-B035-F007210780C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4085,7 +4091,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000043-34EC-4405-9320-5F6869E40500}"/>
+                <c16:uniqueId val="{00000043-29A0-4928-B035-F007210780C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4102,7 +4108,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000045-34EC-4405-9320-5F6869E40500}"/>
+                <c16:uniqueId val="{00000045-29A0-4928-B035-F007210780C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4119,7 +4125,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000047-34EC-4405-9320-5F6869E40500}"/>
+                <c16:uniqueId val="{00000047-29A0-4928-B035-F007210780C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4136,7 +4142,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000049-34EC-4405-9320-5F6869E40500}"/>
+                <c16:uniqueId val="{00000049-29A0-4928-B035-F007210780C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4153,7 +4159,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000004B-34EC-4405-9320-5F6869E40500}"/>
+                <c16:uniqueId val="{0000004B-29A0-4928-B035-F007210780C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4170,7 +4176,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000004D-34EC-4405-9320-5F6869E40500}"/>
+                <c16:uniqueId val="{0000004D-29A0-4928-B035-F007210780C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4187,7 +4193,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000004F-34EC-4405-9320-5F6869E40500}"/>
+                <c16:uniqueId val="{0000004F-29A0-4928-B035-F007210780C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4204,7 +4210,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000051-34EC-4405-9320-5F6869E40500}"/>
+                <c16:uniqueId val="{00000051-29A0-4928-B035-F007210780C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4221,7 +4227,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000053-34EC-4405-9320-5F6869E40500}"/>
+                <c16:uniqueId val="{00000053-29A0-4928-B035-F007210780C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4238,7 +4244,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000055-34EC-4405-9320-5F6869E40500}"/>
+                <c16:uniqueId val="{00000055-29A0-4928-B035-F007210780C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4255,7 +4261,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000057-34EC-4405-9320-5F6869E40500}"/>
+                <c16:uniqueId val="{00000057-29A0-4928-B035-F007210780C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4272,7 +4278,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000059-34EC-4405-9320-5F6869E40500}"/>
+                <c16:uniqueId val="{00000059-29A0-4928-B035-F007210780C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4289,7 +4295,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000005B-34EC-4405-9320-5F6869E40500}"/>
+                <c16:uniqueId val="{0000005B-29A0-4928-B035-F007210780C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4306,7 +4312,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000005D-34EC-4405-9320-5F6869E40500}"/>
+                <c16:uniqueId val="{0000005D-29A0-4928-B035-F007210780C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4323,7 +4329,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000005F-34EC-4405-9320-5F6869E40500}"/>
+                <c16:uniqueId val="{0000005F-29A0-4928-B035-F007210780C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4340,7 +4346,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000061-34EC-4405-9320-5F6869E40500}"/>
+                <c16:uniqueId val="{00000061-29A0-4928-B035-F007210780C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4659,7 +4665,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000062-34EC-4405-9320-5F6869E40500}"/>
+              <c16:uniqueId val="{00000062-29A0-4928-B035-F007210780C8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4891,7 +4897,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A19D-4EC5-AECC-ADFD2AFB4D22}"/>
+              <c16:uniqueId val="{00000000-4AAD-46B4-90C6-BFB9D5FAB190}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4943,7 +4949,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A19D-4EC5-AECC-ADFD2AFB4D22}"/>
+              <c16:uniqueId val="{00000001-4AAD-46B4-90C6-BFB9D5FAB190}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4995,7 +5001,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A19D-4EC5-AECC-ADFD2AFB4D22}"/>
+              <c16:uniqueId val="{00000002-4AAD-46B4-90C6-BFB9D5FAB190}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5047,7 +5053,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-A19D-4EC5-AECC-ADFD2AFB4D22}"/>
+              <c16:uniqueId val="{00000003-4AAD-46B4-90C6-BFB9D5FAB190}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5099,7 +5105,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-A19D-4EC5-AECC-ADFD2AFB4D22}"/>
+              <c16:uniqueId val="{00000004-4AAD-46B4-90C6-BFB9D5FAB190}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5151,7 +5157,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-A19D-4EC5-AECC-ADFD2AFB4D22}"/>
+              <c16:uniqueId val="{00000005-4AAD-46B4-90C6-BFB9D5FAB190}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5203,7 +5209,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-A19D-4EC5-AECC-ADFD2AFB4D22}"/>
+              <c16:uniqueId val="{00000006-4AAD-46B4-90C6-BFB9D5FAB190}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5255,7 +5261,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-A19D-4EC5-AECC-ADFD2AFB4D22}"/>
+              <c16:uniqueId val="{00000007-4AAD-46B4-90C6-BFB9D5FAB190}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5307,7 +5313,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-A19D-4EC5-AECC-ADFD2AFB4D22}"/>
+              <c16:uniqueId val="{00000008-4AAD-46B4-90C6-BFB9D5FAB190}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5359,7 +5365,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-A19D-4EC5-AECC-ADFD2AFB4D22}"/>
+              <c16:uniqueId val="{00000009-4AAD-46B4-90C6-BFB9D5FAB190}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5411,7 +5417,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-A19D-4EC5-AECC-ADFD2AFB4D22}"/>
+              <c16:uniqueId val="{0000000A-4AAD-46B4-90C6-BFB9D5FAB190}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5463,7 +5469,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-A19D-4EC5-AECC-ADFD2AFB4D22}"/>
+              <c16:uniqueId val="{0000000B-4AAD-46B4-90C6-BFB9D5FAB190}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5515,7 +5521,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-A19D-4EC5-AECC-ADFD2AFB4D22}"/>
+              <c16:uniqueId val="{0000000C-4AAD-46B4-90C6-BFB9D5FAB190}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5567,7 +5573,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000D-A19D-4EC5-AECC-ADFD2AFB4D22}"/>
+              <c16:uniqueId val="{0000000D-4AAD-46B4-90C6-BFB9D5FAB190}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5619,7 +5625,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000E-A19D-4EC5-AECC-ADFD2AFB4D22}"/>
+              <c16:uniqueId val="{0000000E-4AAD-46B4-90C6-BFB9D5FAB190}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5671,7 +5677,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000F-A19D-4EC5-AECC-ADFD2AFB4D22}"/>
+              <c16:uniqueId val="{0000000F-4AAD-46B4-90C6-BFB9D5FAB190}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5723,7 +5729,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000010-A19D-4EC5-AECC-ADFD2AFB4D22}"/>
+              <c16:uniqueId val="{00000010-4AAD-46B4-90C6-BFB9D5FAB190}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5775,7 +5781,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000011-A19D-4EC5-AECC-ADFD2AFB4D22}"/>
+              <c16:uniqueId val="{00000011-4AAD-46B4-90C6-BFB9D5FAB190}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5827,7 +5833,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000012-A19D-4EC5-AECC-ADFD2AFB4D22}"/>
+              <c16:uniqueId val="{00000012-4AAD-46B4-90C6-BFB9D5FAB190}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5879,7 +5885,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000013-A19D-4EC5-AECC-ADFD2AFB4D22}"/>
+              <c16:uniqueId val="{00000013-4AAD-46B4-90C6-BFB9D5FAB190}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5931,7 +5937,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000014-A19D-4EC5-AECC-ADFD2AFB4D22}"/>
+              <c16:uniqueId val="{00000014-4AAD-46B4-90C6-BFB9D5FAB190}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5983,7 +5989,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000015-A19D-4EC5-AECC-ADFD2AFB4D22}"/>
+              <c16:uniqueId val="{00000015-4AAD-46B4-90C6-BFB9D5FAB190}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6035,7 +6041,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000016-A19D-4EC5-AECC-ADFD2AFB4D22}"/>
+              <c16:uniqueId val="{00000016-4AAD-46B4-90C6-BFB9D5FAB190}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6087,7 +6093,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000017-A19D-4EC5-AECC-ADFD2AFB4D22}"/>
+              <c16:uniqueId val="{00000017-4AAD-46B4-90C6-BFB9D5FAB190}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6139,7 +6145,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000018-A19D-4EC5-AECC-ADFD2AFB4D22}"/>
+              <c16:uniqueId val="{00000018-4AAD-46B4-90C6-BFB9D5FAB190}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6191,7 +6197,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000019-A19D-4EC5-AECC-ADFD2AFB4D22}"/>
+              <c16:uniqueId val="{00000019-4AAD-46B4-90C6-BFB9D5FAB190}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6243,7 +6249,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001A-A19D-4EC5-AECC-ADFD2AFB4D22}"/>
+              <c16:uniqueId val="{0000001A-4AAD-46B4-90C6-BFB9D5FAB190}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6295,7 +6301,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001B-A19D-4EC5-AECC-ADFD2AFB4D22}"/>
+              <c16:uniqueId val="{0000001B-4AAD-46B4-90C6-BFB9D5FAB190}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6347,7 +6353,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001C-A19D-4EC5-AECC-ADFD2AFB4D22}"/>
+              <c16:uniqueId val="{0000001C-4AAD-46B4-90C6-BFB9D5FAB190}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6399,7 +6405,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001D-A19D-4EC5-AECC-ADFD2AFB4D22}"/>
+              <c16:uniqueId val="{0000001D-4AAD-46B4-90C6-BFB9D5FAB190}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6451,7 +6457,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001E-A19D-4EC5-AECC-ADFD2AFB4D22}"/>
+              <c16:uniqueId val="{0000001E-4AAD-46B4-90C6-BFB9D5FAB190}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6503,7 +6509,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001F-A19D-4EC5-AECC-ADFD2AFB4D22}"/>
+              <c16:uniqueId val="{0000001F-4AAD-46B4-90C6-BFB9D5FAB190}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6555,7 +6561,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000020-A19D-4EC5-AECC-ADFD2AFB4D22}"/>
+              <c16:uniqueId val="{00000020-4AAD-46B4-90C6-BFB9D5FAB190}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6607,7 +6613,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000021-A19D-4EC5-AECC-ADFD2AFB4D22}"/>
+              <c16:uniqueId val="{00000021-4AAD-46B4-90C6-BFB9D5FAB190}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6659,7 +6665,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000022-A19D-4EC5-AECC-ADFD2AFB4D22}"/>
+              <c16:uniqueId val="{00000022-4AAD-46B4-90C6-BFB9D5FAB190}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6711,7 +6717,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000023-A19D-4EC5-AECC-ADFD2AFB4D22}"/>
+              <c16:uniqueId val="{00000023-4AAD-46B4-90C6-BFB9D5FAB190}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6763,7 +6769,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000024-A19D-4EC5-AECC-ADFD2AFB4D22}"/>
+              <c16:uniqueId val="{00000024-4AAD-46B4-90C6-BFB9D5FAB190}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6815,7 +6821,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000025-A19D-4EC5-AECC-ADFD2AFB4D22}"/>
+              <c16:uniqueId val="{00000025-4AAD-46B4-90C6-BFB9D5FAB190}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6867,7 +6873,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000026-A19D-4EC5-AECC-ADFD2AFB4D22}"/>
+              <c16:uniqueId val="{00000026-4AAD-46B4-90C6-BFB9D5FAB190}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6919,7 +6925,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000027-A19D-4EC5-AECC-ADFD2AFB4D22}"/>
+              <c16:uniqueId val="{00000027-4AAD-46B4-90C6-BFB9D5FAB190}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6971,7 +6977,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000028-A19D-4EC5-AECC-ADFD2AFB4D22}"/>
+              <c16:uniqueId val="{00000028-4AAD-46B4-90C6-BFB9D5FAB190}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7023,7 +7029,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000029-A19D-4EC5-AECC-ADFD2AFB4D22}"/>
+              <c16:uniqueId val="{00000029-4AAD-46B4-90C6-BFB9D5FAB190}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7075,7 +7081,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002A-A19D-4EC5-AECC-ADFD2AFB4D22}"/>
+              <c16:uniqueId val="{0000002A-4AAD-46B4-90C6-BFB9D5FAB190}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7127,7 +7133,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002B-A19D-4EC5-AECC-ADFD2AFB4D22}"/>
+              <c16:uniqueId val="{0000002B-4AAD-46B4-90C6-BFB9D5FAB190}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7179,7 +7185,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002C-A19D-4EC5-AECC-ADFD2AFB4D22}"/>
+              <c16:uniqueId val="{0000002C-4AAD-46B4-90C6-BFB9D5FAB190}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7231,7 +7237,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002D-A19D-4EC5-AECC-ADFD2AFB4D22}"/>
+              <c16:uniqueId val="{0000002D-4AAD-46B4-90C6-BFB9D5FAB190}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7283,7 +7289,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002E-A19D-4EC5-AECC-ADFD2AFB4D22}"/>
+              <c16:uniqueId val="{0000002E-4AAD-46B4-90C6-BFB9D5FAB190}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7335,7 +7341,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002F-A19D-4EC5-AECC-ADFD2AFB4D22}"/>
+              <c16:uniqueId val="{0000002F-4AAD-46B4-90C6-BFB9D5FAB190}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7387,7 +7393,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000030-A19D-4EC5-AECC-ADFD2AFB4D22}"/>
+              <c16:uniqueId val="{00000030-4AAD-46B4-90C6-BFB9D5FAB190}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7533,7 +7539,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9C07-4339-8767-16EBF5B69B73}"/>
+              <c16:uniqueId val="{00000000-7B2A-4ACC-9726-EDA74BD70872}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7585,7 +7591,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9C07-4339-8767-16EBF5B69B73}"/>
+              <c16:uniqueId val="{00000001-7B2A-4ACC-9726-EDA74BD70872}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7637,7 +7643,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9C07-4339-8767-16EBF5B69B73}"/>
+              <c16:uniqueId val="{00000002-7B2A-4ACC-9726-EDA74BD70872}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7689,7 +7695,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-9C07-4339-8767-16EBF5B69B73}"/>
+              <c16:uniqueId val="{00000003-7B2A-4ACC-9726-EDA74BD70872}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7741,7 +7747,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-9C07-4339-8767-16EBF5B69B73}"/>
+              <c16:uniqueId val="{00000004-7B2A-4ACC-9726-EDA74BD70872}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7793,7 +7799,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-9C07-4339-8767-16EBF5B69B73}"/>
+              <c16:uniqueId val="{00000005-7B2A-4ACC-9726-EDA74BD70872}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7845,7 +7851,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-9C07-4339-8767-16EBF5B69B73}"/>
+              <c16:uniqueId val="{00000006-7B2A-4ACC-9726-EDA74BD70872}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7897,7 +7903,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-9C07-4339-8767-16EBF5B69B73}"/>
+              <c16:uniqueId val="{00000007-7B2A-4ACC-9726-EDA74BD70872}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7949,7 +7955,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-9C07-4339-8767-16EBF5B69B73}"/>
+              <c16:uniqueId val="{00000008-7B2A-4ACC-9726-EDA74BD70872}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8001,7 +8007,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-9C07-4339-8767-16EBF5B69B73}"/>
+              <c16:uniqueId val="{00000009-7B2A-4ACC-9726-EDA74BD70872}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8053,7 +8059,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-9C07-4339-8767-16EBF5B69B73}"/>
+              <c16:uniqueId val="{0000000A-7B2A-4ACC-9726-EDA74BD70872}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8105,7 +8111,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-9C07-4339-8767-16EBF5B69B73}"/>
+              <c16:uniqueId val="{0000000B-7B2A-4ACC-9726-EDA74BD70872}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8157,7 +8163,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-9C07-4339-8767-16EBF5B69B73}"/>
+              <c16:uniqueId val="{0000000C-7B2A-4ACC-9726-EDA74BD70872}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8209,7 +8215,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000D-9C07-4339-8767-16EBF5B69B73}"/>
+              <c16:uniqueId val="{0000000D-7B2A-4ACC-9726-EDA74BD70872}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8261,7 +8267,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000E-9C07-4339-8767-16EBF5B69B73}"/>
+              <c16:uniqueId val="{0000000E-7B2A-4ACC-9726-EDA74BD70872}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8313,7 +8319,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000F-9C07-4339-8767-16EBF5B69B73}"/>
+              <c16:uniqueId val="{0000000F-7B2A-4ACC-9726-EDA74BD70872}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8365,7 +8371,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000010-9C07-4339-8767-16EBF5B69B73}"/>
+              <c16:uniqueId val="{00000010-7B2A-4ACC-9726-EDA74BD70872}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8417,7 +8423,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000011-9C07-4339-8767-16EBF5B69B73}"/>
+              <c16:uniqueId val="{00000011-7B2A-4ACC-9726-EDA74BD70872}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8469,7 +8475,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000012-9C07-4339-8767-16EBF5B69B73}"/>
+              <c16:uniqueId val="{00000012-7B2A-4ACC-9726-EDA74BD70872}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8521,7 +8527,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000013-9C07-4339-8767-16EBF5B69B73}"/>
+              <c16:uniqueId val="{00000013-7B2A-4ACC-9726-EDA74BD70872}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8573,7 +8579,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000014-9C07-4339-8767-16EBF5B69B73}"/>
+              <c16:uniqueId val="{00000014-7B2A-4ACC-9726-EDA74BD70872}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8625,7 +8631,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000015-9C07-4339-8767-16EBF5B69B73}"/>
+              <c16:uniqueId val="{00000015-7B2A-4ACC-9726-EDA74BD70872}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8677,7 +8683,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000016-9C07-4339-8767-16EBF5B69B73}"/>
+              <c16:uniqueId val="{00000016-7B2A-4ACC-9726-EDA74BD70872}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8729,7 +8735,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000017-9C07-4339-8767-16EBF5B69B73}"/>
+              <c16:uniqueId val="{00000017-7B2A-4ACC-9726-EDA74BD70872}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8781,7 +8787,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000018-9C07-4339-8767-16EBF5B69B73}"/>
+              <c16:uniqueId val="{00000018-7B2A-4ACC-9726-EDA74BD70872}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8833,7 +8839,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000019-9C07-4339-8767-16EBF5B69B73}"/>
+              <c16:uniqueId val="{00000019-7B2A-4ACC-9726-EDA74BD70872}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8885,7 +8891,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001A-9C07-4339-8767-16EBF5B69B73}"/>
+              <c16:uniqueId val="{0000001A-7B2A-4ACC-9726-EDA74BD70872}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8937,7 +8943,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001B-9C07-4339-8767-16EBF5B69B73}"/>
+              <c16:uniqueId val="{0000001B-7B2A-4ACC-9726-EDA74BD70872}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8989,7 +8995,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001C-9C07-4339-8767-16EBF5B69B73}"/>
+              <c16:uniqueId val="{0000001C-7B2A-4ACC-9726-EDA74BD70872}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9041,7 +9047,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001D-9C07-4339-8767-16EBF5B69B73}"/>
+              <c16:uniqueId val="{0000001D-7B2A-4ACC-9726-EDA74BD70872}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9093,7 +9099,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001E-9C07-4339-8767-16EBF5B69B73}"/>
+              <c16:uniqueId val="{0000001E-7B2A-4ACC-9726-EDA74BD70872}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9145,7 +9151,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001F-9C07-4339-8767-16EBF5B69B73}"/>
+              <c16:uniqueId val="{0000001F-7B2A-4ACC-9726-EDA74BD70872}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9197,7 +9203,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000020-9C07-4339-8767-16EBF5B69B73}"/>
+              <c16:uniqueId val="{00000020-7B2A-4ACC-9726-EDA74BD70872}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9249,7 +9255,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000021-9C07-4339-8767-16EBF5B69B73}"/>
+              <c16:uniqueId val="{00000021-7B2A-4ACC-9726-EDA74BD70872}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9301,7 +9307,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000022-9C07-4339-8767-16EBF5B69B73}"/>
+              <c16:uniqueId val="{00000022-7B2A-4ACC-9726-EDA74BD70872}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9353,7 +9359,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000023-9C07-4339-8767-16EBF5B69B73}"/>
+              <c16:uniqueId val="{00000023-7B2A-4ACC-9726-EDA74BD70872}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9405,7 +9411,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000024-9C07-4339-8767-16EBF5B69B73}"/>
+              <c16:uniqueId val="{00000024-7B2A-4ACC-9726-EDA74BD70872}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9457,7 +9463,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000025-9C07-4339-8767-16EBF5B69B73}"/>
+              <c16:uniqueId val="{00000025-7B2A-4ACC-9726-EDA74BD70872}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9509,7 +9515,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000026-9C07-4339-8767-16EBF5B69B73}"/>
+              <c16:uniqueId val="{00000026-7B2A-4ACC-9726-EDA74BD70872}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9561,7 +9567,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000027-9C07-4339-8767-16EBF5B69B73}"/>
+              <c16:uniqueId val="{00000027-7B2A-4ACC-9726-EDA74BD70872}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9613,7 +9619,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000028-9C07-4339-8767-16EBF5B69B73}"/>
+              <c16:uniqueId val="{00000028-7B2A-4ACC-9726-EDA74BD70872}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9665,7 +9671,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000029-9C07-4339-8767-16EBF5B69B73}"/>
+              <c16:uniqueId val="{00000029-7B2A-4ACC-9726-EDA74BD70872}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9717,7 +9723,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002A-9C07-4339-8767-16EBF5B69B73}"/>
+              <c16:uniqueId val="{0000002A-7B2A-4ACC-9726-EDA74BD70872}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9769,7 +9775,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002B-9C07-4339-8767-16EBF5B69B73}"/>
+              <c16:uniqueId val="{0000002B-7B2A-4ACC-9726-EDA74BD70872}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9821,7 +9827,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002C-9C07-4339-8767-16EBF5B69B73}"/>
+              <c16:uniqueId val="{0000002C-7B2A-4ACC-9726-EDA74BD70872}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9873,7 +9879,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002D-9C07-4339-8767-16EBF5B69B73}"/>
+              <c16:uniqueId val="{0000002D-7B2A-4ACC-9726-EDA74BD70872}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9925,7 +9931,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002E-9C07-4339-8767-16EBF5B69B73}"/>
+              <c16:uniqueId val="{0000002E-7B2A-4ACC-9726-EDA74BD70872}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9977,7 +9983,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002F-9C07-4339-8767-16EBF5B69B73}"/>
+              <c16:uniqueId val="{0000002F-7B2A-4ACC-9726-EDA74BD70872}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10029,7 +10035,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000030-9C07-4339-8767-16EBF5B69B73}"/>
+              <c16:uniqueId val="{00000030-7B2A-4ACC-9726-EDA74BD70872}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10175,7 +10181,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-54FB-46F3-93A8-78F53E3F055E}"/>
+              <c16:uniqueId val="{00000000-F101-4D83-80FF-EA53DC3E29F2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10227,7 +10233,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-54FB-46F3-93A8-78F53E3F055E}"/>
+              <c16:uniqueId val="{00000001-F101-4D83-80FF-EA53DC3E29F2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10279,7 +10285,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-54FB-46F3-93A8-78F53E3F055E}"/>
+              <c16:uniqueId val="{00000002-F101-4D83-80FF-EA53DC3E29F2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10331,7 +10337,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-54FB-46F3-93A8-78F53E3F055E}"/>
+              <c16:uniqueId val="{00000003-F101-4D83-80FF-EA53DC3E29F2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10383,7 +10389,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-54FB-46F3-93A8-78F53E3F055E}"/>
+              <c16:uniqueId val="{00000004-F101-4D83-80FF-EA53DC3E29F2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10435,7 +10441,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-54FB-46F3-93A8-78F53E3F055E}"/>
+              <c16:uniqueId val="{00000005-F101-4D83-80FF-EA53DC3E29F2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10487,7 +10493,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-54FB-46F3-93A8-78F53E3F055E}"/>
+              <c16:uniqueId val="{00000006-F101-4D83-80FF-EA53DC3E29F2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10539,7 +10545,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-54FB-46F3-93A8-78F53E3F055E}"/>
+              <c16:uniqueId val="{00000007-F101-4D83-80FF-EA53DC3E29F2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10591,7 +10597,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-54FB-46F3-93A8-78F53E3F055E}"/>
+              <c16:uniqueId val="{00000008-F101-4D83-80FF-EA53DC3E29F2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10643,7 +10649,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-54FB-46F3-93A8-78F53E3F055E}"/>
+              <c16:uniqueId val="{00000009-F101-4D83-80FF-EA53DC3E29F2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10695,7 +10701,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-54FB-46F3-93A8-78F53E3F055E}"/>
+              <c16:uniqueId val="{0000000A-F101-4D83-80FF-EA53DC3E29F2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10747,7 +10753,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-54FB-46F3-93A8-78F53E3F055E}"/>
+              <c16:uniqueId val="{0000000B-F101-4D83-80FF-EA53DC3E29F2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10799,7 +10805,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-54FB-46F3-93A8-78F53E3F055E}"/>
+              <c16:uniqueId val="{0000000C-F101-4D83-80FF-EA53DC3E29F2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10851,7 +10857,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000D-54FB-46F3-93A8-78F53E3F055E}"/>
+              <c16:uniqueId val="{0000000D-F101-4D83-80FF-EA53DC3E29F2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10903,7 +10909,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000E-54FB-46F3-93A8-78F53E3F055E}"/>
+              <c16:uniqueId val="{0000000E-F101-4D83-80FF-EA53DC3E29F2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10955,7 +10961,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000F-54FB-46F3-93A8-78F53E3F055E}"/>
+              <c16:uniqueId val="{0000000F-F101-4D83-80FF-EA53DC3E29F2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11007,7 +11013,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000010-54FB-46F3-93A8-78F53E3F055E}"/>
+              <c16:uniqueId val="{00000010-F101-4D83-80FF-EA53DC3E29F2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11059,7 +11065,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000011-54FB-46F3-93A8-78F53E3F055E}"/>
+              <c16:uniqueId val="{00000011-F101-4D83-80FF-EA53DC3E29F2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11111,7 +11117,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000012-54FB-46F3-93A8-78F53E3F055E}"/>
+              <c16:uniqueId val="{00000012-F101-4D83-80FF-EA53DC3E29F2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11163,7 +11169,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000013-54FB-46F3-93A8-78F53E3F055E}"/>
+              <c16:uniqueId val="{00000013-F101-4D83-80FF-EA53DC3E29F2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11215,7 +11221,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000014-54FB-46F3-93A8-78F53E3F055E}"/>
+              <c16:uniqueId val="{00000014-F101-4D83-80FF-EA53DC3E29F2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11267,7 +11273,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000015-54FB-46F3-93A8-78F53E3F055E}"/>
+              <c16:uniqueId val="{00000015-F101-4D83-80FF-EA53DC3E29F2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11319,7 +11325,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000016-54FB-46F3-93A8-78F53E3F055E}"/>
+              <c16:uniqueId val="{00000016-F101-4D83-80FF-EA53DC3E29F2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11371,7 +11377,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000017-54FB-46F3-93A8-78F53E3F055E}"/>
+              <c16:uniqueId val="{00000017-F101-4D83-80FF-EA53DC3E29F2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11423,7 +11429,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000018-54FB-46F3-93A8-78F53E3F055E}"/>
+              <c16:uniqueId val="{00000018-F101-4D83-80FF-EA53DC3E29F2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11475,7 +11481,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000019-54FB-46F3-93A8-78F53E3F055E}"/>
+              <c16:uniqueId val="{00000019-F101-4D83-80FF-EA53DC3E29F2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11527,7 +11533,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001A-54FB-46F3-93A8-78F53E3F055E}"/>
+              <c16:uniqueId val="{0000001A-F101-4D83-80FF-EA53DC3E29F2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11579,7 +11585,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001B-54FB-46F3-93A8-78F53E3F055E}"/>
+              <c16:uniqueId val="{0000001B-F101-4D83-80FF-EA53DC3E29F2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11631,7 +11637,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001C-54FB-46F3-93A8-78F53E3F055E}"/>
+              <c16:uniqueId val="{0000001C-F101-4D83-80FF-EA53DC3E29F2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11683,7 +11689,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001D-54FB-46F3-93A8-78F53E3F055E}"/>
+              <c16:uniqueId val="{0000001D-F101-4D83-80FF-EA53DC3E29F2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11735,7 +11741,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001E-54FB-46F3-93A8-78F53E3F055E}"/>
+              <c16:uniqueId val="{0000001E-F101-4D83-80FF-EA53DC3E29F2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11787,7 +11793,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001F-54FB-46F3-93A8-78F53E3F055E}"/>
+              <c16:uniqueId val="{0000001F-F101-4D83-80FF-EA53DC3E29F2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11839,7 +11845,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000020-54FB-46F3-93A8-78F53E3F055E}"/>
+              <c16:uniqueId val="{00000020-F101-4D83-80FF-EA53DC3E29F2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11891,7 +11897,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000021-54FB-46F3-93A8-78F53E3F055E}"/>
+              <c16:uniqueId val="{00000021-F101-4D83-80FF-EA53DC3E29F2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11943,7 +11949,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000022-54FB-46F3-93A8-78F53E3F055E}"/>
+              <c16:uniqueId val="{00000022-F101-4D83-80FF-EA53DC3E29F2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11995,7 +12001,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000023-54FB-46F3-93A8-78F53E3F055E}"/>
+              <c16:uniqueId val="{00000023-F101-4D83-80FF-EA53DC3E29F2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12047,7 +12053,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000024-54FB-46F3-93A8-78F53E3F055E}"/>
+              <c16:uniqueId val="{00000024-F101-4D83-80FF-EA53DC3E29F2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12099,7 +12105,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000025-54FB-46F3-93A8-78F53E3F055E}"/>
+              <c16:uniqueId val="{00000025-F101-4D83-80FF-EA53DC3E29F2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12151,7 +12157,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000026-54FB-46F3-93A8-78F53E3F055E}"/>
+              <c16:uniqueId val="{00000026-F101-4D83-80FF-EA53DC3E29F2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12203,7 +12209,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000027-54FB-46F3-93A8-78F53E3F055E}"/>
+              <c16:uniqueId val="{00000027-F101-4D83-80FF-EA53DC3E29F2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12255,7 +12261,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000028-54FB-46F3-93A8-78F53E3F055E}"/>
+              <c16:uniqueId val="{00000028-F101-4D83-80FF-EA53DC3E29F2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12307,7 +12313,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000029-54FB-46F3-93A8-78F53E3F055E}"/>
+              <c16:uniqueId val="{00000029-F101-4D83-80FF-EA53DC3E29F2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12359,7 +12365,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002A-54FB-46F3-93A8-78F53E3F055E}"/>
+              <c16:uniqueId val="{0000002A-F101-4D83-80FF-EA53DC3E29F2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12411,7 +12417,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002B-54FB-46F3-93A8-78F53E3F055E}"/>
+              <c16:uniqueId val="{0000002B-F101-4D83-80FF-EA53DC3E29F2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12463,7 +12469,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002C-54FB-46F3-93A8-78F53E3F055E}"/>
+              <c16:uniqueId val="{0000002C-F101-4D83-80FF-EA53DC3E29F2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12515,7 +12521,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002D-54FB-46F3-93A8-78F53E3F055E}"/>
+              <c16:uniqueId val="{0000002D-F101-4D83-80FF-EA53DC3E29F2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12567,7 +12573,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002E-54FB-46F3-93A8-78F53E3F055E}"/>
+              <c16:uniqueId val="{0000002E-F101-4D83-80FF-EA53DC3E29F2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12619,7 +12625,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002F-54FB-46F3-93A8-78F53E3F055E}"/>
+              <c16:uniqueId val="{0000002F-F101-4D83-80FF-EA53DC3E29F2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12671,7 +12677,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000030-54FB-46F3-93A8-78F53E3F055E}"/>
+              <c16:uniqueId val="{00000030-F101-4D83-80FF-EA53DC3E29F2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12817,7 +12823,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-60C7-4756-AAA2-8318242F2712}"/>
+              <c16:uniqueId val="{00000000-8FE9-495D-B143-C7B72FA00258}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12869,7 +12875,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-60C7-4756-AAA2-8318242F2712}"/>
+              <c16:uniqueId val="{00000001-8FE9-495D-B143-C7B72FA00258}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12921,7 +12927,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-60C7-4756-AAA2-8318242F2712}"/>
+              <c16:uniqueId val="{00000002-8FE9-495D-B143-C7B72FA00258}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12973,7 +12979,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-60C7-4756-AAA2-8318242F2712}"/>
+              <c16:uniqueId val="{00000003-8FE9-495D-B143-C7B72FA00258}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13025,7 +13031,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-60C7-4756-AAA2-8318242F2712}"/>
+              <c16:uniqueId val="{00000004-8FE9-495D-B143-C7B72FA00258}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13077,7 +13083,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-60C7-4756-AAA2-8318242F2712}"/>
+              <c16:uniqueId val="{00000005-8FE9-495D-B143-C7B72FA00258}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13129,7 +13135,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-60C7-4756-AAA2-8318242F2712}"/>
+              <c16:uniqueId val="{00000006-8FE9-495D-B143-C7B72FA00258}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13181,7 +13187,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-60C7-4756-AAA2-8318242F2712}"/>
+              <c16:uniqueId val="{00000007-8FE9-495D-B143-C7B72FA00258}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13233,7 +13239,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-60C7-4756-AAA2-8318242F2712}"/>
+              <c16:uniqueId val="{00000008-8FE9-495D-B143-C7B72FA00258}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13285,7 +13291,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-60C7-4756-AAA2-8318242F2712}"/>
+              <c16:uniqueId val="{00000009-8FE9-495D-B143-C7B72FA00258}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13337,7 +13343,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-60C7-4756-AAA2-8318242F2712}"/>
+              <c16:uniqueId val="{0000000A-8FE9-495D-B143-C7B72FA00258}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13389,7 +13395,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-60C7-4756-AAA2-8318242F2712}"/>
+              <c16:uniqueId val="{0000000B-8FE9-495D-B143-C7B72FA00258}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13441,7 +13447,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-60C7-4756-AAA2-8318242F2712}"/>
+              <c16:uniqueId val="{0000000C-8FE9-495D-B143-C7B72FA00258}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13493,7 +13499,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000D-60C7-4756-AAA2-8318242F2712}"/>
+              <c16:uniqueId val="{0000000D-8FE9-495D-B143-C7B72FA00258}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13545,7 +13551,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000E-60C7-4756-AAA2-8318242F2712}"/>
+              <c16:uniqueId val="{0000000E-8FE9-495D-B143-C7B72FA00258}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13597,7 +13603,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000F-60C7-4756-AAA2-8318242F2712}"/>
+              <c16:uniqueId val="{0000000F-8FE9-495D-B143-C7B72FA00258}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13649,7 +13655,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000010-60C7-4756-AAA2-8318242F2712}"/>
+              <c16:uniqueId val="{00000010-8FE9-495D-B143-C7B72FA00258}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13701,7 +13707,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000011-60C7-4756-AAA2-8318242F2712}"/>
+              <c16:uniqueId val="{00000011-8FE9-495D-B143-C7B72FA00258}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13753,7 +13759,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000012-60C7-4756-AAA2-8318242F2712}"/>
+              <c16:uniqueId val="{00000012-8FE9-495D-B143-C7B72FA00258}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13805,7 +13811,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000013-60C7-4756-AAA2-8318242F2712}"/>
+              <c16:uniqueId val="{00000013-8FE9-495D-B143-C7B72FA00258}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13857,7 +13863,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000014-60C7-4756-AAA2-8318242F2712}"/>
+              <c16:uniqueId val="{00000014-8FE9-495D-B143-C7B72FA00258}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13909,7 +13915,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000015-60C7-4756-AAA2-8318242F2712}"/>
+              <c16:uniqueId val="{00000015-8FE9-495D-B143-C7B72FA00258}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13961,7 +13967,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000016-60C7-4756-AAA2-8318242F2712}"/>
+              <c16:uniqueId val="{00000016-8FE9-495D-B143-C7B72FA00258}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -14013,7 +14019,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000017-60C7-4756-AAA2-8318242F2712}"/>
+              <c16:uniqueId val="{00000017-8FE9-495D-B143-C7B72FA00258}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -14065,7 +14071,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000018-60C7-4756-AAA2-8318242F2712}"/>
+              <c16:uniqueId val="{00000018-8FE9-495D-B143-C7B72FA00258}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -14117,7 +14123,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000019-60C7-4756-AAA2-8318242F2712}"/>
+              <c16:uniqueId val="{00000019-8FE9-495D-B143-C7B72FA00258}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -14169,7 +14175,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001A-60C7-4756-AAA2-8318242F2712}"/>
+              <c16:uniqueId val="{0000001A-8FE9-495D-B143-C7B72FA00258}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -14221,7 +14227,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001B-60C7-4756-AAA2-8318242F2712}"/>
+              <c16:uniqueId val="{0000001B-8FE9-495D-B143-C7B72FA00258}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -14273,7 +14279,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001C-60C7-4756-AAA2-8318242F2712}"/>
+              <c16:uniqueId val="{0000001C-8FE9-495D-B143-C7B72FA00258}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -14325,7 +14331,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001D-60C7-4756-AAA2-8318242F2712}"/>
+              <c16:uniqueId val="{0000001D-8FE9-495D-B143-C7B72FA00258}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -14377,7 +14383,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001E-60C7-4756-AAA2-8318242F2712}"/>
+              <c16:uniqueId val="{0000001E-8FE9-495D-B143-C7B72FA00258}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -14429,7 +14435,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001F-60C7-4756-AAA2-8318242F2712}"/>
+              <c16:uniqueId val="{0000001F-8FE9-495D-B143-C7B72FA00258}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -14481,7 +14487,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000020-60C7-4756-AAA2-8318242F2712}"/>
+              <c16:uniqueId val="{00000020-8FE9-495D-B143-C7B72FA00258}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -14533,7 +14539,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000021-60C7-4756-AAA2-8318242F2712}"/>
+              <c16:uniqueId val="{00000021-8FE9-495D-B143-C7B72FA00258}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -14585,7 +14591,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000022-60C7-4756-AAA2-8318242F2712}"/>
+              <c16:uniqueId val="{00000022-8FE9-495D-B143-C7B72FA00258}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -14637,7 +14643,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000023-60C7-4756-AAA2-8318242F2712}"/>
+              <c16:uniqueId val="{00000023-8FE9-495D-B143-C7B72FA00258}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -14689,7 +14695,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000024-60C7-4756-AAA2-8318242F2712}"/>
+              <c16:uniqueId val="{00000024-8FE9-495D-B143-C7B72FA00258}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -14741,7 +14747,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000025-60C7-4756-AAA2-8318242F2712}"/>
+              <c16:uniqueId val="{00000025-8FE9-495D-B143-C7B72FA00258}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -14793,7 +14799,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000026-60C7-4756-AAA2-8318242F2712}"/>
+              <c16:uniqueId val="{00000026-8FE9-495D-B143-C7B72FA00258}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -14845,7 +14851,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000027-60C7-4756-AAA2-8318242F2712}"/>
+              <c16:uniqueId val="{00000027-8FE9-495D-B143-C7B72FA00258}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -14897,7 +14903,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000028-60C7-4756-AAA2-8318242F2712}"/>
+              <c16:uniqueId val="{00000028-8FE9-495D-B143-C7B72FA00258}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -14949,7 +14955,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000029-60C7-4756-AAA2-8318242F2712}"/>
+              <c16:uniqueId val="{00000029-8FE9-495D-B143-C7B72FA00258}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -15001,7 +15007,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002A-60C7-4756-AAA2-8318242F2712}"/>
+              <c16:uniqueId val="{0000002A-8FE9-495D-B143-C7B72FA00258}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -15053,7 +15059,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002B-60C7-4756-AAA2-8318242F2712}"/>
+              <c16:uniqueId val="{0000002B-8FE9-495D-B143-C7B72FA00258}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -15105,7 +15111,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002C-60C7-4756-AAA2-8318242F2712}"/>
+              <c16:uniqueId val="{0000002C-8FE9-495D-B143-C7B72FA00258}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -15157,7 +15163,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002D-60C7-4756-AAA2-8318242F2712}"/>
+              <c16:uniqueId val="{0000002D-8FE9-495D-B143-C7B72FA00258}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -15209,7 +15215,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002E-60C7-4756-AAA2-8318242F2712}"/>
+              <c16:uniqueId val="{0000002E-8FE9-495D-B143-C7B72FA00258}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -15261,7 +15267,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002F-60C7-4756-AAA2-8318242F2712}"/>
+              <c16:uniqueId val="{0000002F-8FE9-495D-B143-C7B72FA00258}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -15313,7 +15319,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000030-60C7-4756-AAA2-8318242F2712}"/>
+              <c16:uniqueId val="{00000030-8FE9-495D-B143-C7B72FA00258}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -15490,7 +15496,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-2B1C-4DF4-ACE0-01E4CCEE231A}"/>
+                <c16:uniqueId val="{00000001-3A99-4D8C-8C10-5D0AF280E386}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -15507,7 +15513,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-2B1C-4DF4-ACE0-01E4CCEE231A}"/>
+                <c16:uniqueId val="{00000003-3A99-4D8C-8C10-5D0AF280E386}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -15524,7 +15530,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-2B1C-4DF4-ACE0-01E4CCEE231A}"/>
+                <c16:uniqueId val="{00000005-3A99-4D8C-8C10-5D0AF280E386}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -15541,7 +15547,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-2B1C-4DF4-ACE0-01E4CCEE231A}"/>
+                <c16:uniqueId val="{00000007-3A99-4D8C-8C10-5D0AF280E386}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -15558,7 +15564,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-2B1C-4DF4-ACE0-01E4CCEE231A}"/>
+                <c16:uniqueId val="{00000009-3A99-4D8C-8C10-5D0AF280E386}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -15575,7 +15581,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-2B1C-4DF4-ACE0-01E4CCEE231A}"/>
+                <c16:uniqueId val="{0000000B-3A99-4D8C-8C10-5D0AF280E386}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -15592,7 +15598,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-2B1C-4DF4-ACE0-01E4CCEE231A}"/>
+                <c16:uniqueId val="{0000000D-3A99-4D8C-8C10-5D0AF280E386}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -15609,7 +15615,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000F-2B1C-4DF4-ACE0-01E4CCEE231A}"/>
+                <c16:uniqueId val="{0000000F-3A99-4D8C-8C10-5D0AF280E386}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -15626,7 +15632,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000011-2B1C-4DF4-ACE0-01E4CCEE231A}"/>
+                <c16:uniqueId val="{00000011-3A99-4D8C-8C10-5D0AF280E386}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -15643,7 +15649,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000013-2B1C-4DF4-ACE0-01E4CCEE231A}"/>
+                <c16:uniqueId val="{00000013-3A99-4D8C-8C10-5D0AF280E386}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -15660,7 +15666,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000015-2B1C-4DF4-ACE0-01E4CCEE231A}"/>
+                <c16:uniqueId val="{00000015-3A99-4D8C-8C10-5D0AF280E386}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -15677,7 +15683,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000017-2B1C-4DF4-ACE0-01E4CCEE231A}"/>
+                <c16:uniqueId val="{00000017-3A99-4D8C-8C10-5D0AF280E386}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -15694,7 +15700,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000019-2B1C-4DF4-ACE0-01E4CCEE231A}"/>
+                <c16:uniqueId val="{00000019-3A99-4D8C-8C10-5D0AF280E386}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -15711,7 +15717,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001B-2B1C-4DF4-ACE0-01E4CCEE231A}"/>
+                <c16:uniqueId val="{0000001B-3A99-4D8C-8C10-5D0AF280E386}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -15728,7 +15734,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001D-2B1C-4DF4-ACE0-01E4CCEE231A}"/>
+                <c16:uniqueId val="{0000001D-3A99-4D8C-8C10-5D0AF280E386}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -15745,7 +15751,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001F-2B1C-4DF4-ACE0-01E4CCEE231A}"/>
+                <c16:uniqueId val="{0000001F-3A99-4D8C-8C10-5D0AF280E386}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -15762,7 +15768,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000021-2B1C-4DF4-ACE0-01E4CCEE231A}"/>
+                <c16:uniqueId val="{00000021-3A99-4D8C-8C10-5D0AF280E386}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -15779,7 +15785,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000023-2B1C-4DF4-ACE0-01E4CCEE231A}"/>
+                <c16:uniqueId val="{00000023-3A99-4D8C-8C10-5D0AF280E386}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -15796,7 +15802,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000025-2B1C-4DF4-ACE0-01E4CCEE231A}"/>
+                <c16:uniqueId val="{00000025-3A99-4D8C-8C10-5D0AF280E386}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -15813,7 +15819,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000027-2B1C-4DF4-ACE0-01E4CCEE231A}"/>
+                <c16:uniqueId val="{00000027-3A99-4D8C-8C10-5D0AF280E386}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -15830,7 +15836,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000029-2B1C-4DF4-ACE0-01E4CCEE231A}"/>
+                <c16:uniqueId val="{00000029-3A99-4D8C-8C10-5D0AF280E386}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -15847,7 +15853,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002B-2B1C-4DF4-ACE0-01E4CCEE231A}"/>
+                <c16:uniqueId val="{0000002B-3A99-4D8C-8C10-5D0AF280E386}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -15864,7 +15870,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002D-2B1C-4DF4-ACE0-01E4CCEE231A}"/>
+                <c16:uniqueId val="{0000002D-3A99-4D8C-8C10-5D0AF280E386}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -15881,7 +15887,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002F-2B1C-4DF4-ACE0-01E4CCEE231A}"/>
+                <c16:uniqueId val="{0000002F-3A99-4D8C-8C10-5D0AF280E386}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -15898,7 +15904,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000031-2B1C-4DF4-ACE0-01E4CCEE231A}"/>
+                <c16:uniqueId val="{00000031-3A99-4D8C-8C10-5D0AF280E386}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -15915,7 +15921,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000033-2B1C-4DF4-ACE0-01E4CCEE231A}"/>
+                <c16:uniqueId val="{00000033-3A99-4D8C-8C10-5D0AF280E386}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -15932,7 +15938,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000035-2B1C-4DF4-ACE0-01E4CCEE231A}"/>
+                <c16:uniqueId val="{00000035-3A99-4D8C-8C10-5D0AF280E386}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -15949,7 +15955,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000037-2B1C-4DF4-ACE0-01E4CCEE231A}"/>
+                <c16:uniqueId val="{00000037-3A99-4D8C-8C10-5D0AF280E386}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -15966,7 +15972,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000039-2B1C-4DF4-ACE0-01E4CCEE231A}"/>
+                <c16:uniqueId val="{00000039-3A99-4D8C-8C10-5D0AF280E386}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -15983,7 +15989,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000003B-2B1C-4DF4-ACE0-01E4CCEE231A}"/>
+                <c16:uniqueId val="{0000003B-3A99-4D8C-8C10-5D0AF280E386}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -16000,7 +16006,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000003D-2B1C-4DF4-ACE0-01E4CCEE231A}"/>
+                <c16:uniqueId val="{0000003D-3A99-4D8C-8C10-5D0AF280E386}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -16017,7 +16023,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000003F-2B1C-4DF4-ACE0-01E4CCEE231A}"/>
+                <c16:uniqueId val="{0000003F-3A99-4D8C-8C10-5D0AF280E386}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -16034,7 +16040,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000041-2B1C-4DF4-ACE0-01E4CCEE231A}"/>
+                <c16:uniqueId val="{00000041-3A99-4D8C-8C10-5D0AF280E386}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -16051,7 +16057,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000043-2B1C-4DF4-ACE0-01E4CCEE231A}"/>
+                <c16:uniqueId val="{00000043-3A99-4D8C-8C10-5D0AF280E386}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -16068,7 +16074,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000045-2B1C-4DF4-ACE0-01E4CCEE231A}"/>
+                <c16:uniqueId val="{00000045-3A99-4D8C-8C10-5D0AF280E386}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -16085,7 +16091,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000047-2B1C-4DF4-ACE0-01E4CCEE231A}"/>
+                <c16:uniqueId val="{00000047-3A99-4D8C-8C10-5D0AF280E386}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -16102,7 +16108,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000049-2B1C-4DF4-ACE0-01E4CCEE231A}"/>
+                <c16:uniqueId val="{00000049-3A99-4D8C-8C10-5D0AF280E386}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -16119,7 +16125,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000004B-2B1C-4DF4-ACE0-01E4CCEE231A}"/>
+                <c16:uniqueId val="{0000004B-3A99-4D8C-8C10-5D0AF280E386}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -16136,7 +16142,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000004D-2B1C-4DF4-ACE0-01E4CCEE231A}"/>
+                <c16:uniqueId val="{0000004D-3A99-4D8C-8C10-5D0AF280E386}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -16153,7 +16159,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000004F-2B1C-4DF4-ACE0-01E4CCEE231A}"/>
+                <c16:uniqueId val="{0000004F-3A99-4D8C-8C10-5D0AF280E386}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -16170,7 +16176,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000051-2B1C-4DF4-ACE0-01E4CCEE231A}"/>
+                <c16:uniqueId val="{00000051-3A99-4D8C-8C10-5D0AF280E386}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -16187,7 +16193,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000053-2B1C-4DF4-ACE0-01E4CCEE231A}"/>
+                <c16:uniqueId val="{00000053-3A99-4D8C-8C10-5D0AF280E386}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -16204,7 +16210,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000055-2B1C-4DF4-ACE0-01E4CCEE231A}"/>
+                <c16:uniqueId val="{00000055-3A99-4D8C-8C10-5D0AF280E386}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -16221,7 +16227,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000057-2B1C-4DF4-ACE0-01E4CCEE231A}"/>
+                <c16:uniqueId val="{00000057-3A99-4D8C-8C10-5D0AF280E386}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -16238,7 +16244,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000059-2B1C-4DF4-ACE0-01E4CCEE231A}"/>
+                <c16:uniqueId val="{00000059-3A99-4D8C-8C10-5D0AF280E386}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -16255,7 +16261,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000005B-2B1C-4DF4-ACE0-01E4CCEE231A}"/>
+                <c16:uniqueId val="{0000005B-3A99-4D8C-8C10-5D0AF280E386}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -16272,7 +16278,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000005D-2B1C-4DF4-ACE0-01E4CCEE231A}"/>
+                <c16:uniqueId val="{0000005D-3A99-4D8C-8C10-5D0AF280E386}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -16289,7 +16295,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000005F-2B1C-4DF4-ACE0-01E4CCEE231A}"/>
+                <c16:uniqueId val="{0000005F-3A99-4D8C-8C10-5D0AF280E386}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -16306,7 +16312,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000061-2B1C-4DF4-ACE0-01E4CCEE231A}"/>
+                <c16:uniqueId val="{00000061-3A99-4D8C-8C10-5D0AF280E386}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -16625,7 +16631,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000062-2B1C-4DF4-ACE0-01E4CCEE231A}"/>
+              <c16:uniqueId val="{00000062-3A99-4D8C-8C10-5D0AF280E386}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -16888,7 +16894,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-7178-4D0E-8717-0580A4278BCA}"/>
+                <c16:uniqueId val="{00000001-DCAE-489B-9CD5-EFFCCCDFC8D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -16905,7 +16911,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-7178-4D0E-8717-0580A4278BCA}"/>
+                <c16:uniqueId val="{00000003-DCAE-489B-9CD5-EFFCCCDFC8D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -16922,7 +16928,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-7178-4D0E-8717-0580A4278BCA}"/>
+                <c16:uniqueId val="{00000005-DCAE-489B-9CD5-EFFCCCDFC8D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -16939,7 +16945,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-7178-4D0E-8717-0580A4278BCA}"/>
+                <c16:uniqueId val="{00000007-DCAE-489B-9CD5-EFFCCCDFC8D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -16956,7 +16962,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-7178-4D0E-8717-0580A4278BCA}"/>
+                <c16:uniqueId val="{00000009-DCAE-489B-9CD5-EFFCCCDFC8D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -16973,7 +16979,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-7178-4D0E-8717-0580A4278BCA}"/>
+                <c16:uniqueId val="{0000000B-DCAE-489B-9CD5-EFFCCCDFC8D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -16990,7 +16996,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-7178-4D0E-8717-0580A4278BCA}"/>
+                <c16:uniqueId val="{0000000D-DCAE-489B-9CD5-EFFCCCDFC8D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17007,7 +17013,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000F-7178-4D0E-8717-0580A4278BCA}"/>
+                <c16:uniqueId val="{0000000F-DCAE-489B-9CD5-EFFCCCDFC8D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17024,7 +17030,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000011-7178-4D0E-8717-0580A4278BCA}"/>
+                <c16:uniqueId val="{00000011-DCAE-489B-9CD5-EFFCCCDFC8D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17041,7 +17047,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000013-7178-4D0E-8717-0580A4278BCA}"/>
+                <c16:uniqueId val="{00000013-DCAE-489B-9CD5-EFFCCCDFC8D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17058,7 +17064,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000015-7178-4D0E-8717-0580A4278BCA}"/>
+                <c16:uniqueId val="{00000015-DCAE-489B-9CD5-EFFCCCDFC8D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17075,7 +17081,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000017-7178-4D0E-8717-0580A4278BCA}"/>
+                <c16:uniqueId val="{00000017-DCAE-489B-9CD5-EFFCCCDFC8D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17092,7 +17098,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000019-7178-4D0E-8717-0580A4278BCA}"/>
+                <c16:uniqueId val="{00000019-DCAE-489B-9CD5-EFFCCCDFC8D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17109,7 +17115,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001B-7178-4D0E-8717-0580A4278BCA}"/>
+                <c16:uniqueId val="{0000001B-DCAE-489B-9CD5-EFFCCCDFC8D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17126,7 +17132,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001D-7178-4D0E-8717-0580A4278BCA}"/>
+                <c16:uniqueId val="{0000001D-DCAE-489B-9CD5-EFFCCCDFC8D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17143,7 +17149,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001F-7178-4D0E-8717-0580A4278BCA}"/>
+                <c16:uniqueId val="{0000001F-DCAE-489B-9CD5-EFFCCCDFC8D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17160,7 +17166,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000021-7178-4D0E-8717-0580A4278BCA}"/>
+                <c16:uniqueId val="{00000021-DCAE-489B-9CD5-EFFCCCDFC8D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17177,7 +17183,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000023-7178-4D0E-8717-0580A4278BCA}"/>
+                <c16:uniqueId val="{00000023-DCAE-489B-9CD5-EFFCCCDFC8D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17194,7 +17200,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000025-7178-4D0E-8717-0580A4278BCA}"/>
+                <c16:uniqueId val="{00000025-DCAE-489B-9CD5-EFFCCCDFC8D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17211,7 +17217,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000027-7178-4D0E-8717-0580A4278BCA}"/>
+                <c16:uniqueId val="{00000027-DCAE-489B-9CD5-EFFCCCDFC8D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17228,7 +17234,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000029-7178-4D0E-8717-0580A4278BCA}"/>
+                <c16:uniqueId val="{00000029-DCAE-489B-9CD5-EFFCCCDFC8D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17245,7 +17251,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002B-7178-4D0E-8717-0580A4278BCA}"/>
+                <c16:uniqueId val="{0000002B-DCAE-489B-9CD5-EFFCCCDFC8D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17262,7 +17268,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002D-7178-4D0E-8717-0580A4278BCA}"/>
+                <c16:uniqueId val="{0000002D-DCAE-489B-9CD5-EFFCCCDFC8D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17279,7 +17285,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002F-7178-4D0E-8717-0580A4278BCA}"/>
+                <c16:uniqueId val="{0000002F-DCAE-489B-9CD5-EFFCCCDFC8D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17296,7 +17302,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000031-7178-4D0E-8717-0580A4278BCA}"/>
+                <c16:uniqueId val="{00000031-DCAE-489B-9CD5-EFFCCCDFC8D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17313,7 +17319,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000033-7178-4D0E-8717-0580A4278BCA}"/>
+                <c16:uniqueId val="{00000033-DCAE-489B-9CD5-EFFCCCDFC8D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17330,7 +17336,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000035-7178-4D0E-8717-0580A4278BCA}"/>
+                <c16:uniqueId val="{00000035-DCAE-489B-9CD5-EFFCCCDFC8D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17347,7 +17353,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000037-7178-4D0E-8717-0580A4278BCA}"/>
+                <c16:uniqueId val="{00000037-DCAE-489B-9CD5-EFFCCCDFC8D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17364,7 +17370,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000039-7178-4D0E-8717-0580A4278BCA}"/>
+                <c16:uniqueId val="{00000039-DCAE-489B-9CD5-EFFCCCDFC8D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17381,7 +17387,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000003B-7178-4D0E-8717-0580A4278BCA}"/>
+                <c16:uniqueId val="{0000003B-DCAE-489B-9CD5-EFFCCCDFC8D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17398,7 +17404,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000003D-7178-4D0E-8717-0580A4278BCA}"/>
+                <c16:uniqueId val="{0000003D-DCAE-489B-9CD5-EFFCCCDFC8D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17415,7 +17421,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000003F-7178-4D0E-8717-0580A4278BCA}"/>
+                <c16:uniqueId val="{0000003F-DCAE-489B-9CD5-EFFCCCDFC8D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17432,7 +17438,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000041-7178-4D0E-8717-0580A4278BCA}"/>
+                <c16:uniqueId val="{00000041-DCAE-489B-9CD5-EFFCCCDFC8D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17449,7 +17455,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000043-7178-4D0E-8717-0580A4278BCA}"/>
+                <c16:uniqueId val="{00000043-DCAE-489B-9CD5-EFFCCCDFC8D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17466,7 +17472,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000045-7178-4D0E-8717-0580A4278BCA}"/>
+                <c16:uniqueId val="{00000045-DCAE-489B-9CD5-EFFCCCDFC8D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17483,7 +17489,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000047-7178-4D0E-8717-0580A4278BCA}"/>
+                <c16:uniqueId val="{00000047-DCAE-489B-9CD5-EFFCCCDFC8D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17500,7 +17506,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000049-7178-4D0E-8717-0580A4278BCA}"/>
+                <c16:uniqueId val="{00000049-DCAE-489B-9CD5-EFFCCCDFC8D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17517,7 +17523,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000004B-7178-4D0E-8717-0580A4278BCA}"/>
+                <c16:uniqueId val="{0000004B-DCAE-489B-9CD5-EFFCCCDFC8D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17534,7 +17540,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000004D-7178-4D0E-8717-0580A4278BCA}"/>
+                <c16:uniqueId val="{0000004D-DCAE-489B-9CD5-EFFCCCDFC8D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17551,7 +17557,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000004F-7178-4D0E-8717-0580A4278BCA}"/>
+                <c16:uniqueId val="{0000004F-DCAE-489B-9CD5-EFFCCCDFC8D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17568,7 +17574,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000051-7178-4D0E-8717-0580A4278BCA}"/>
+                <c16:uniqueId val="{00000051-DCAE-489B-9CD5-EFFCCCDFC8D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17585,7 +17591,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000053-7178-4D0E-8717-0580A4278BCA}"/>
+                <c16:uniqueId val="{00000053-DCAE-489B-9CD5-EFFCCCDFC8D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17602,7 +17608,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000055-7178-4D0E-8717-0580A4278BCA}"/>
+                <c16:uniqueId val="{00000055-DCAE-489B-9CD5-EFFCCCDFC8D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17619,7 +17625,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000057-7178-4D0E-8717-0580A4278BCA}"/>
+                <c16:uniqueId val="{00000057-DCAE-489B-9CD5-EFFCCCDFC8D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17636,7 +17642,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000059-7178-4D0E-8717-0580A4278BCA}"/>
+                <c16:uniqueId val="{00000059-DCAE-489B-9CD5-EFFCCCDFC8D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17653,7 +17659,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000005B-7178-4D0E-8717-0580A4278BCA}"/>
+                <c16:uniqueId val="{0000005B-DCAE-489B-9CD5-EFFCCCDFC8D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17670,7 +17676,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000005D-7178-4D0E-8717-0580A4278BCA}"/>
+                <c16:uniqueId val="{0000005D-DCAE-489B-9CD5-EFFCCCDFC8D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17687,7 +17693,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000005F-7178-4D0E-8717-0580A4278BCA}"/>
+                <c16:uniqueId val="{0000005F-DCAE-489B-9CD5-EFFCCCDFC8D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17704,7 +17710,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000061-7178-4D0E-8717-0580A4278BCA}"/>
+                <c16:uniqueId val="{00000061-DCAE-489B-9CD5-EFFCCCDFC8D6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18023,7 +18029,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000062-7178-4D0E-8717-0580A4278BCA}"/>
+              <c16:uniqueId val="{00000062-DCAE-489B-9CD5-EFFCCCDFC8D6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -18286,7 +18292,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-AC29-464C-8A31-F51FF74EA127}"/>
+                <c16:uniqueId val="{00000001-2E69-450B-9E27-F961991D5A93}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18303,7 +18309,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-AC29-464C-8A31-F51FF74EA127}"/>
+                <c16:uniqueId val="{00000003-2E69-450B-9E27-F961991D5A93}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18320,7 +18326,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-AC29-464C-8A31-F51FF74EA127}"/>
+                <c16:uniqueId val="{00000005-2E69-450B-9E27-F961991D5A93}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18337,7 +18343,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-AC29-464C-8A31-F51FF74EA127}"/>
+                <c16:uniqueId val="{00000007-2E69-450B-9E27-F961991D5A93}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18354,7 +18360,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-AC29-464C-8A31-F51FF74EA127}"/>
+                <c16:uniqueId val="{00000009-2E69-450B-9E27-F961991D5A93}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18371,7 +18377,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-AC29-464C-8A31-F51FF74EA127}"/>
+                <c16:uniqueId val="{0000000B-2E69-450B-9E27-F961991D5A93}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18388,7 +18394,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-AC29-464C-8A31-F51FF74EA127}"/>
+                <c16:uniqueId val="{0000000D-2E69-450B-9E27-F961991D5A93}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18405,7 +18411,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000F-AC29-464C-8A31-F51FF74EA127}"/>
+                <c16:uniqueId val="{0000000F-2E69-450B-9E27-F961991D5A93}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18422,7 +18428,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000011-AC29-464C-8A31-F51FF74EA127}"/>
+                <c16:uniqueId val="{00000011-2E69-450B-9E27-F961991D5A93}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18439,7 +18445,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000013-AC29-464C-8A31-F51FF74EA127}"/>
+                <c16:uniqueId val="{00000013-2E69-450B-9E27-F961991D5A93}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18456,7 +18462,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000015-AC29-464C-8A31-F51FF74EA127}"/>
+                <c16:uniqueId val="{00000015-2E69-450B-9E27-F961991D5A93}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18473,7 +18479,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000017-AC29-464C-8A31-F51FF74EA127}"/>
+                <c16:uniqueId val="{00000017-2E69-450B-9E27-F961991D5A93}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18490,7 +18496,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000019-AC29-464C-8A31-F51FF74EA127}"/>
+                <c16:uniqueId val="{00000019-2E69-450B-9E27-F961991D5A93}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18507,7 +18513,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001B-AC29-464C-8A31-F51FF74EA127}"/>
+                <c16:uniqueId val="{0000001B-2E69-450B-9E27-F961991D5A93}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18524,7 +18530,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001D-AC29-464C-8A31-F51FF74EA127}"/>
+                <c16:uniqueId val="{0000001D-2E69-450B-9E27-F961991D5A93}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18541,7 +18547,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001F-AC29-464C-8A31-F51FF74EA127}"/>
+                <c16:uniqueId val="{0000001F-2E69-450B-9E27-F961991D5A93}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18558,7 +18564,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000021-AC29-464C-8A31-F51FF74EA127}"/>
+                <c16:uniqueId val="{00000021-2E69-450B-9E27-F961991D5A93}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18575,7 +18581,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000023-AC29-464C-8A31-F51FF74EA127}"/>
+                <c16:uniqueId val="{00000023-2E69-450B-9E27-F961991D5A93}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18592,7 +18598,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000025-AC29-464C-8A31-F51FF74EA127}"/>
+                <c16:uniqueId val="{00000025-2E69-450B-9E27-F961991D5A93}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18609,7 +18615,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000027-AC29-464C-8A31-F51FF74EA127}"/>
+                <c16:uniqueId val="{00000027-2E69-450B-9E27-F961991D5A93}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18626,7 +18632,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000029-AC29-464C-8A31-F51FF74EA127}"/>
+                <c16:uniqueId val="{00000029-2E69-450B-9E27-F961991D5A93}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18643,7 +18649,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002B-AC29-464C-8A31-F51FF74EA127}"/>
+                <c16:uniqueId val="{0000002B-2E69-450B-9E27-F961991D5A93}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18660,7 +18666,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002D-AC29-464C-8A31-F51FF74EA127}"/>
+                <c16:uniqueId val="{0000002D-2E69-450B-9E27-F961991D5A93}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18677,7 +18683,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002F-AC29-464C-8A31-F51FF74EA127}"/>
+                <c16:uniqueId val="{0000002F-2E69-450B-9E27-F961991D5A93}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18694,7 +18700,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000031-AC29-464C-8A31-F51FF74EA127}"/>
+                <c16:uniqueId val="{00000031-2E69-450B-9E27-F961991D5A93}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18711,7 +18717,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000033-AC29-464C-8A31-F51FF74EA127}"/>
+                <c16:uniqueId val="{00000033-2E69-450B-9E27-F961991D5A93}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18728,7 +18734,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000035-AC29-464C-8A31-F51FF74EA127}"/>
+                <c16:uniqueId val="{00000035-2E69-450B-9E27-F961991D5A93}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18745,7 +18751,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000037-AC29-464C-8A31-F51FF74EA127}"/>
+                <c16:uniqueId val="{00000037-2E69-450B-9E27-F961991D5A93}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18762,7 +18768,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000039-AC29-464C-8A31-F51FF74EA127}"/>
+                <c16:uniqueId val="{00000039-2E69-450B-9E27-F961991D5A93}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18779,7 +18785,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000003B-AC29-464C-8A31-F51FF74EA127}"/>
+                <c16:uniqueId val="{0000003B-2E69-450B-9E27-F961991D5A93}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18796,7 +18802,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000003D-AC29-464C-8A31-F51FF74EA127}"/>
+                <c16:uniqueId val="{0000003D-2E69-450B-9E27-F961991D5A93}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18813,7 +18819,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000003F-AC29-464C-8A31-F51FF74EA127}"/>
+                <c16:uniqueId val="{0000003F-2E69-450B-9E27-F961991D5A93}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18830,7 +18836,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000041-AC29-464C-8A31-F51FF74EA127}"/>
+                <c16:uniqueId val="{00000041-2E69-450B-9E27-F961991D5A93}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18847,7 +18853,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000043-AC29-464C-8A31-F51FF74EA127}"/>
+                <c16:uniqueId val="{00000043-2E69-450B-9E27-F961991D5A93}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18864,7 +18870,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000045-AC29-464C-8A31-F51FF74EA127}"/>
+                <c16:uniqueId val="{00000045-2E69-450B-9E27-F961991D5A93}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18881,7 +18887,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000047-AC29-464C-8A31-F51FF74EA127}"/>
+                <c16:uniqueId val="{00000047-2E69-450B-9E27-F961991D5A93}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18898,7 +18904,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000049-AC29-464C-8A31-F51FF74EA127}"/>
+                <c16:uniqueId val="{00000049-2E69-450B-9E27-F961991D5A93}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18915,7 +18921,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000004B-AC29-464C-8A31-F51FF74EA127}"/>
+                <c16:uniqueId val="{0000004B-2E69-450B-9E27-F961991D5A93}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18932,7 +18938,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000004D-AC29-464C-8A31-F51FF74EA127}"/>
+                <c16:uniqueId val="{0000004D-2E69-450B-9E27-F961991D5A93}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18949,7 +18955,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000004F-AC29-464C-8A31-F51FF74EA127}"/>
+                <c16:uniqueId val="{0000004F-2E69-450B-9E27-F961991D5A93}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18966,7 +18972,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000051-AC29-464C-8A31-F51FF74EA127}"/>
+                <c16:uniqueId val="{00000051-2E69-450B-9E27-F961991D5A93}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18983,7 +18989,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000053-AC29-464C-8A31-F51FF74EA127}"/>
+                <c16:uniqueId val="{00000053-2E69-450B-9E27-F961991D5A93}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -19000,7 +19006,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000055-AC29-464C-8A31-F51FF74EA127}"/>
+                <c16:uniqueId val="{00000055-2E69-450B-9E27-F961991D5A93}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -19017,7 +19023,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000057-AC29-464C-8A31-F51FF74EA127}"/>
+                <c16:uniqueId val="{00000057-2E69-450B-9E27-F961991D5A93}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -19034,7 +19040,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000059-AC29-464C-8A31-F51FF74EA127}"/>
+                <c16:uniqueId val="{00000059-2E69-450B-9E27-F961991D5A93}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -19051,7 +19057,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000005B-AC29-464C-8A31-F51FF74EA127}"/>
+                <c16:uniqueId val="{0000005B-2E69-450B-9E27-F961991D5A93}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -19068,7 +19074,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000005D-AC29-464C-8A31-F51FF74EA127}"/>
+                <c16:uniqueId val="{0000005D-2E69-450B-9E27-F961991D5A93}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -19085,7 +19091,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000005F-AC29-464C-8A31-F51FF74EA127}"/>
+                <c16:uniqueId val="{0000005F-2E69-450B-9E27-F961991D5A93}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -19102,7 +19108,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000061-AC29-464C-8A31-F51FF74EA127}"/>
+                <c16:uniqueId val="{00000061-2E69-450B-9E27-F961991D5A93}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -19421,7 +19427,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000062-AC29-464C-8A31-F51FF74EA127}"/>
+              <c16:uniqueId val="{00000062-2E69-450B-9E27-F961991D5A93}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -19684,7 +19690,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-5882-4A60-835B-3A6349F2213D}"/>
+                <c16:uniqueId val="{00000001-D2C7-448A-905E-C2F2BFD21E43}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -19701,7 +19707,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-5882-4A60-835B-3A6349F2213D}"/>
+                <c16:uniqueId val="{00000003-D2C7-448A-905E-C2F2BFD21E43}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -19718,7 +19724,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-5882-4A60-835B-3A6349F2213D}"/>
+                <c16:uniqueId val="{00000005-D2C7-448A-905E-C2F2BFD21E43}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -19735,7 +19741,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-5882-4A60-835B-3A6349F2213D}"/>
+                <c16:uniqueId val="{00000007-D2C7-448A-905E-C2F2BFD21E43}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -19752,7 +19758,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-5882-4A60-835B-3A6349F2213D}"/>
+                <c16:uniqueId val="{00000009-D2C7-448A-905E-C2F2BFD21E43}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -19769,7 +19775,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-5882-4A60-835B-3A6349F2213D}"/>
+                <c16:uniqueId val="{0000000B-D2C7-448A-905E-C2F2BFD21E43}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -19786,7 +19792,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-5882-4A60-835B-3A6349F2213D}"/>
+                <c16:uniqueId val="{0000000D-D2C7-448A-905E-C2F2BFD21E43}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -19803,7 +19809,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000F-5882-4A60-835B-3A6349F2213D}"/>
+                <c16:uniqueId val="{0000000F-D2C7-448A-905E-C2F2BFD21E43}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -19820,7 +19826,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000011-5882-4A60-835B-3A6349F2213D}"/>
+                <c16:uniqueId val="{00000011-D2C7-448A-905E-C2F2BFD21E43}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -19837,7 +19843,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000013-5882-4A60-835B-3A6349F2213D}"/>
+                <c16:uniqueId val="{00000013-D2C7-448A-905E-C2F2BFD21E43}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -19854,7 +19860,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000015-5882-4A60-835B-3A6349F2213D}"/>
+                <c16:uniqueId val="{00000015-D2C7-448A-905E-C2F2BFD21E43}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -19871,7 +19877,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000017-5882-4A60-835B-3A6349F2213D}"/>
+                <c16:uniqueId val="{00000017-D2C7-448A-905E-C2F2BFD21E43}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -19888,7 +19894,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000019-5882-4A60-835B-3A6349F2213D}"/>
+                <c16:uniqueId val="{00000019-D2C7-448A-905E-C2F2BFD21E43}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -19905,7 +19911,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001B-5882-4A60-835B-3A6349F2213D}"/>
+                <c16:uniqueId val="{0000001B-D2C7-448A-905E-C2F2BFD21E43}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -19922,7 +19928,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001D-5882-4A60-835B-3A6349F2213D}"/>
+                <c16:uniqueId val="{0000001D-D2C7-448A-905E-C2F2BFD21E43}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -19939,7 +19945,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001F-5882-4A60-835B-3A6349F2213D}"/>
+                <c16:uniqueId val="{0000001F-D2C7-448A-905E-C2F2BFD21E43}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -19956,7 +19962,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000021-5882-4A60-835B-3A6349F2213D}"/>
+                <c16:uniqueId val="{00000021-D2C7-448A-905E-C2F2BFD21E43}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -19973,7 +19979,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000023-5882-4A60-835B-3A6349F2213D}"/>
+                <c16:uniqueId val="{00000023-D2C7-448A-905E-C2F2BFD21E43}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -19990,7 +19996,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000025-5882-4A60-835B-3A6349F2213D}"/>
+                <c16:uniqueId val="{00000025-D2C7-448A-905E-C2F2BFD21E43}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20007,7 +20013,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000027-5882-4A60-835B-3A6349F2213D}"/>
+                <c16:uniqueId val="{00000027-D2C7-448A-905E-C2F2BFD21E43}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20024,7 +20030,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000029-5882-4A60-835B-3A6349F2213D}"/>
+                <c16:uniqueId val="{00000029-D2C7-448A-905E-C2F2BFD21E43}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20041,7 +20047,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002B-5882-4A60-835B-3A6349F2213D}"/>
+                <c16:uniqueId val="{0000002B-D2C7-448A-905E-C2F2BFD21E43}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20058,7 +20064,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002D-5882-4A60-835B-3A6349F2213D}"/>
+                <c16:uniqueId val="{0000002D-D2C7-448A-905E-C2F2BFD21E43}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20075,7 +20081,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002F-5882-4A60-835B-3A6349F2213D}"/>
+                <c16:uniqueId val="{0000002F-D2C7-448A-905E-C2F2BFD21E43}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20092,7 +20098,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000031-5882-4A60-835B-3A6349F2213D}"/>
+                <c16:uniqueId val="{00000031-D2C7-448A-905E-C2F2BFD21E43}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20109,7 +20115,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000033-5882-4A60-835B-3A6349F2213D}"/>
+                <c16:uniqueId val="{00000033-D2C7-448A-905E-C2F2BFD21E43}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20126,7 +20132,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000035-5882-4A60-835B-3A6349F2213D}"/>
+                <c16:uniqueId val="{00000035-D2C7-448A-905E-C2F2BFD21E43}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20143,7 +20149,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000037-5882-4A60-835B-3A6349F2213D}"/>
+                <c16:uniqueId val="{00000037-D2C7-448A-905E-C2F2BFD21E43}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20160,7 +20166,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000039-5882-4A60-835B-3A6349F2213D}"/>
+                <c16:uniqueId val="{00000039-D2C7-448A-905E-C2F2BFD21E43}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20177,7 +20183,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000003B-5882-4A60-835B-3A6349F2213D}"/>
+                <c16:uniqueId val="{0000003B-D2C7-448A-905E-C2F2BFD21E43}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20194,7 +20200,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000003D-5882-4A60-835B-3A6349F2213D}"/>
+                <c16:uniqueId val="{0000003D-D2C7-448A-905E-C2F2BFD21E43}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20211,7 +20217,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000003F-5882-4A60-835B-3A6349F2213D}"/>
+                <c16:uniqueId val="{0000003F-D2C7-448A-905E-C2F2BFD21E43}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20228,7 +20234,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000041-5882-4A60-835B-3A6349F2213D}"/>
+                <c16:uniqueId val="{00000041-D2C7-448A-905E-C2F2BFD21E43}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20245,7 +20251,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000043-5882-4A60-835B-3A6349F2213D}"/>
+                <c16:uniqueId val="{00000043-D2C7-448A-905E-C2F2BFD21E43}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20262,7 +20268,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000045-5882-4A60-835B-3A6349F2213D}"/>
+                <c16:uniqueId val="{00000045-D2C7-448A-905E-C2F2BFD21E43}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20279,7 +20285,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000047-5882-4A60-835B-3A6349F2213D}"/>
+                <c16:uniqueId val="{00000047-D2C7-448A-905E-C2F2BFD21E43}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20296,7 +20302,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000049-5882-4A60-835B-3A6349F2213D}"/>
+                <c16:uniqueId val="{00000049-D2C7-448A-905E-C2F2BFD21E43}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20313,7 +20319,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000004B-5882-4A60-835B-3A6349F2213D}"/>
+                <c16:uniqueId val="{0000004B-D2C7-448A-905E-C2F2BFD21E43}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20330,7 +20336,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000004D-5882-4A60-835B-3A6349F2213D}"/>
+                <c16:uniqueId val="{0000004D-D2C7-448A-905E-C2F2BFD21E43}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20347,7 +20353,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000004F-5882-4A60-835B-3A6349F2213D}"/>
+                <c16:uniqueId val="{0000004F-D2C7-448A-905E-C2F2BFD21E43}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20364,7 +20370,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000051-5882-4A60-835B-3A6349F2213D}"/>
+                <c16:uniqueId val="{00000051-D2C7-448A-905E-C2F2BFD21E43}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20381,7 +20387,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000053-5882-4A60-835B-3A6349F2213D}"/>
+                <c16:uniqueId val="{00000053-D2C7-448A-905E-C2F2BFD21E43}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20398,7 +20404,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000055-5882-4A60-835B-3A6349F2213D}"/>
+                <c16:uniqueId val="{00000055-D2C7-448A-905E-C2F2BFD21E43}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20415,7 +20421,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000057-5882-4A60-835B-3A6349F2213D}"/>
+                <c16:uniqueId val="{00000057-D2C7-448A-905E-C2F2BFD21E43}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20432,7 +20438,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000059-5882-4A60-835B-3A6349F2213D}"/>
+                <c16:uniqueId val="{00000059-D2C7-448A-905E-C2F2BFD21E43}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20449,7 +20455,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000005B-5882-4A60-835B-3A6349F2213D}"/>
+                <c16:uniqueId val="{0000005B-D2C7-448A-905E-C2F2BFD21E43}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20466,7 +20472,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000005D-5882-4A60-835B-3A6349F2213D}"/>
+                <c16:uniqueId val="{0000005D-D2C7-448A-905E-C2F2BFD21E43}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20483,7 +20489,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000005F-5882-4A60-835B-3A6349F2213D}"/>
+                <c16:uniqueId val="{0000005F-D2C7-448A-905E-C2F2BFD21E43}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20500,7 +20506,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000061-5882-4A60-835B-3A6349F2213D}"/>
+                <c16:uniqueId val="{00000061-D2C7-448A-905E-C2F2BFD21E43}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -20819,7 +20825,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000062-5882-4A60-835B-3A6349F2213D}"/>
+              <c16:uniqueId val="{00000062-D2C7-448A-905E-C2F2BFD21E43}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -21082,7 +21088,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-A1BE-4C35-98D6-3D32AFB91B2F}"/>
+                <c16:uniqueId val="{00000001-93C7-4B88-848E-10A5447B430A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21099,7 +21105,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-A1BE-4C35-98D6-3D32AFB91B2F}"/>
+                <c16:uniqueId val="{00000003-93C7-4B88-848E-10A5447B430A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21116,7 +21122,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-A1BE-4C35-98D6-3D32AFB91B2F}"/>
+                <c16:uniqueId val="{00000005-93C7-4B88-848E-10A5447B430A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21133,7 +21139,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-A1BE-4C35-98D6-3D32AFB91B2F}"/>
+                <c16:uniqueId val="{00000007-93C7-4B88-848E-10A5447B430A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21150,7 +21156,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-A1BE-4C35-98D6-3D32AFB91B2F}"/>
+                <c16:uniqueId val="{00000009-93C7-4B88-848E-10A5447B430A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21167,7 +21173,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-A1BE-4C35-98D6-3D32AFB91B2F}"/>
+                <c16:uniqueId val="{0000000B-93C7-4B88-848E-10A5447B430A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21184,7 +21190,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-A1BE-4C35-98D6-3D32AFB91B2F}"/>
+                <c16:uniqueId val="{0000000D-93C7-4B88-848E-10A5447B430A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21201,7 +21207,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000F-A1BE-4C35-98D6-3D32AFB91B2F}"/>
+                <c16:uniqueId val="{0000000F-93C7-4B88-848E-10A5447B430A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21218,7 +21224,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000011-A1BE-4C35-98D6-3D32AFB91B2F}"/>
+                <c16:uniqueId val="{00000011-93C7-4B88-848E-10A5447B430A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21235,7 +21241,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000013-A1BE-4C35-98D6-3D32AFB91B2F}"/>
+                <c16:uniqueId val="{00000013-93C7-4B88-848E-10A5447B430A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21252,7 +21258,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000015-A1BE-4C35-98D6-3D32AFB91B2F}"/>
+                <c16:uniqueId val="{00000015-93C7-4B88-848E-10A5447B430A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21269,7 +21275,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000017-A1BE-4C35-98D6-3D32AFB91B2F}"/>
+                <c16:uniqueId val="{00000017-93C7-4B88-848E-10A5447B430A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21286,7 +21292,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000019-A1BE-4C35-98D6-3D32AFB91B2F}"/>
+                <c16:uniqueId val="{00000019-93C7-4B88-848E-10A5447B430A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21303,7 +21309,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001B-A1BE-4C35-98D6-3D32AFB91B2F}"/>
+                <c16:uniqueId val="{0000001B-93C7-4B88-848E-10A5447B430A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21320,7 +21326,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001D-A1BE-4C35-98D6-3D32AFB91B2F}"/>
+                <c16:uniqueId val="{0000001D-93C7-4B88-848E-10A5447B430A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21337,7 +21343,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001F-A1BE-4C35-98D6-3D32AFB91B2F}"/>
+                <c16:uniqueId val="{0000001F-93C7-4B88-848E-10A5447B430A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21354,7 +21360,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000021-A1BE-4C35-98D6-3D32AFB91B2F}"/>
+                <c16:uniqueId val="{00000021-93C7-4B88-848E-10A5447B430A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21371,7 +21377,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000023-A1BE-4C35-98D6-3D32AFB91B2F}"/>
+                <c16:uniqueId val="{00000023-93C7-4B88-848E-10A5447B430A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21388,7 +21394,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000025-A1BE-4C35-98D6-3D32AFB91B2F}"/>
+                <c16:uniqueId val="{00000025-93C7-4B88-848E-10A5447B430A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21405,7 +21411,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000027-A1BE-4C35-98D6-3D32AFB91B2F}"/>
+                <c16:uniqueId val="{00000027-93C7-4B88-848E-10A5447B430A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21422,7 +21428,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000029-A1BE-4C35-98D6-3D32AFB91B2F}"/>
+                <c16:uniqueId val="{00000029-93C7-4B88-848E-10A5447B430A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21439,7 +21445,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002B-A1BE-4C35-98D6-3D32AFB91B2F}"/>
+                <c16:uniqueId val="{0000002B-93C7-4B88-848E-10A5447B430A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21456,7 +21462,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002D-A1BE-4C35-98D6-3D32AFB91B2F}"/>
+                <c16:uniqueId val="{0000002D-93C7-4B88-848E-10A5447B430A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21473,7 +21479,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002F-A1BE-4C35-98D6-3D32AFB91B2F}"/>
+                <c16:uniqueId val="{0000002F-93C7-4B88-848E-10A5447B430A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21490,7 +21496,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000031-A1BE-4C35-98D6-3D32AFB91B2F}"/>
+                <c16:uniqueId val="{00000031-93C7-4B88-848E-10A5447B430A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21507,7 +21513,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000033-A1BE-4C35-98D6-3D32AFB91B2F}"/>
+                <c16:uniqueId val="{00000033-93C7-4B88-848E-10A5447B430A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21524,7 +21530,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000035-A1BE-4C35-98D6-3D32AFB91B2F}"/>
+                <c16:uniqueId val="{00000035-93C7-4B88-848E-10A5447B430A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21541,7 +21547,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000037-A1BE-4C35-98D6-3D32AFB91B2F}"/>
+                <c16:uniqueId val="{00000037-93C7-4B88-848E-10A5447B430A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21558,7 +21564,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000039-A1BE-4C35-98D6-3D32AFB91B2F}"/>
+                <c16:uniqueId val="{00000039-93C7-4B88-848E-10A5447B430A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21575,7 +21581,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000003B-A1BE-4C35-98D6-3D32AFB91B2F}"/>
+                <c16:uniqueId val="{0000003B-93C7-4B88-848E-10A5447B430A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21592,7 +21598,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000003D-A1BE-4C35-98D6-3D32AFB91B2F}"/>
+                <c16:uniqueId val="{0000003D-93C7-4B88-848E-10A5447B430A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21609,7 +21615,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000003F-A1BE-4C35-98D6-3D32AFB91B2F}"/>
+                <c16:uniqueId val="{0000003F-93C7-4B88-848E-10A5447B430A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21626,7 +21632,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000041-A1BE-4C35-98D6-3D32AFB91B2F}"/>
+                <c16:uniqueId val="{00000041-93C7-4B88-848E-10A5447B430A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21643,7 +21649,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000043-A1BE-4C35-98D6-3D32AFB91B2F}"/>
+                <c16:uniqueId val="{00000043-93C7-4B88-848E-10A5447B430A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21660,7 +21666,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000045-A1BE-4C35-98D6-3D32AFB91B2F}"/>
+                <c16:uniqueId val="{00000045-93C7-4B88-848E-10A5447B430A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21677,7 +21683,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000047-A1BE-4C35-98D6-3D32AFB91B2F}"/>
+                <c16:uniqueId val="{00000047-93C7-4B88-848E-10A5447B430A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21694,7 +21700,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000049-A1BE-4C35-98D6-3D32AFB91B2F}"/>
+                <c16:uniqueId val="{00000049-93C7-4B88-848E-10A5447B430A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21711,7 +21717,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000004B-A1BE-4C35-98D6-3D32AFB91B2F}"/>
+                <c16:uniqueId val="{0000004B-93C7-4B88-848E-10A5447B430A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21728,7 +21734,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000004D-A1BE-4C35-98D6-3D32AFB91B2F}"/>
+                <c16:uniqueId val="{0000004D-93C7-4B88-848E-10A5447B430A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21745,7 +21751,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000004F-A1BE-4C35-98D6-3D32AFB91B2F}"/>
+                <c16:uniqueId val="{0000004F-93C7-4B88-848E-10A5447B430A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21762,7 +21768,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000051-A1BE-4C35-98D6-3D32AFB91B2F}"/>
+                <c16:uniqueId val="{00000051-93C7-4B88-848E-10A5447B430A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21779,7 +21785,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000053-A1BE-4C35-98D6-3D32AFB91B2F}"/>
+                <c16:uniqueId val="{00000053-93C7-4B88-848E-10A5447B430A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21796,7 +21802,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000055-A1BE-4C35-98D6-3D32AFB91B2F}"/>
+                <c16:uniqueId val="{00000055-93C7-4B88-848E-10A5447B430A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21813,7 +21819,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000057-A1BE-4C35-98D6-3D32AFB91B2F}"/>
+                <c16:uniqueId val="{00000057-93C7-4B88-848E-10A5447B430A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21830,7 +21836,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000059-A1BE-4C35-98D6-3D32AFB91B2F}"/>
+                <c16:uniqueId val="{00000059-93C7-4B88-848E-10A5447B430A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21847,7 +21853,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000005B-A1BE-4C35-98D6-3D32AFB91B2F}"/>
+                <c16:uniqueId val="{0000005B-93C7-4B88-848E-10A5447B430A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21864,7 +21870,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000005D-A1BE-4C35-98D6-3D32AFB91B2F}"/>
+                <c16:uniqueId val="{0000005D-93C7-4B88-848E-10A5447B430A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21881,7 +21887,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000005F-A1BE-4C35-98D6-3D32AFB91B2F}"/>
+                <c16:uniqueId val="{0000005F-93C7-4B88-848E-10A5447B430A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -21898,7 +21904,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000061-A1BE-4C35-98D6-3D32AFB91B2F}"/>
+                <c16:uniqueId val="{00000061-93C7-4B88-848E-10A5447B430A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -22217,7 +22223,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000062-A1BE-4C35-98D6-3D32AFB91B2F}"/>
+              <c16:uniqueId val="{00000062-93C7-4B88-848E-10A5447B430A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -22491,7 +22497,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-6118-4E63-9B7F-3B4AB892F568}"/>
+                <c16:uniqueId val="{00000001-369A-45A5-89AF-17DA6D4188C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -22508,7 +22514,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-6118-4E63-9B7F-3B4AB892F568}"/>
+                <c16:uniqueId val="{00000003-369A-45A5-89AF-17DA6D4188C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -22525,7 +22531,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-6118-4E63-9B7F-3B4AB892F568}"/>
+                <c16:uniqueId val="{00000005-369A-45A5-89AF-17DA6D4188C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -22542,7 +22548,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-6118-4E63-9B7F-3B4AB892F568}"/>
+                <c16:uniqueId val="{00000007-369A-45A5-89AF-17DA6D4188C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -22559,7 +22565,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-6118-4E63-9B7F-3B4AB892F568}"/>
+                <c16:uniqueId val="{00000009-369A-45A5-89AF-17DA6D4188C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -22576,7 +22582,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-6118-4E63-9B7F-3B4AB892F568}"/>
+                <c16:uniqueId val="{0000000B-369A-45A5-89AF-17DA6D4188C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -22593,7 +22599,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-6118-4E63-9B7F-3B4AB892F568}"/>
+                <c16:uniqueId val="{0000000D-369A-45A5-89AF-17DA6D4188C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -22610,7 +22616,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000F-6118-4E63-9B7F-3B4AB892F568}"/>
+                <c16:uniqueId val="{0000000F-369A-45A5-89AF-17DA6D4188C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -22627,7 +22633,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000011-6118-4E63-9B7F-3B4AB892F568}"/>
+                <c16:uniqueId val="{00000011-369A-45A5-89AF-17DA6D4188C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -22644,7 +22650,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000013-6118-4E63-9B7F-3B4AB892F568}"/>
+                <c16:uniqueId val="{00000013-369A-45A5-89AF-17DA6D4188C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -22661,7 +22667,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000015-6118-4E63-9B7F-3B4AB892F568}"/>
+                <c16:uniqueId val="{00000015-369A-45A5-89AF-17DA6D4188C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -22678,7 +22684,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000017-6118-4E63-9B7F-3B4AB892F568}"/>
+                <c16:uniqueId val="{00000017-369A-45A5-89AF-17DA6D4188C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -22695,7 +22701,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000019-6118-4E63-9B7F-3B4AB892F568}"/>
+                <c16:uniqueId val="{00000019-369A-45A5-89AF-17DA6D4188C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -22712,7 +22718,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001B-6118-4E63-9B7F-3B4AB892F568}"/>
+                <c16:uniqueId val="{0000001B-369A-45A5-89AF-17DA6D4188C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -22729,7 +22735,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001D-6118-4E63-9B7F-3B4AB892F568}"/>
+                <c16:uniqueId val="{0000001D-369A-45A5-89AF-17DA6D4188C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -22746,7 +22752,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001F-6118-4E63-9B7F-3B4AB892F568}"/>
+                <c16:uniqueId val="{0000001F-369A-45A5-89AF-17DA6D4188C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -22763,7 +22769,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000021-6118-4E63-9B7F-3B4AB892F568}"/>
+                <c16:uniqueId val="{00000021-369A-45A5-89AF-17DA6D4188C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -22780,7 +22786,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000023-6118-4E63-9B7F-3B4AB892F568}"/>
+                <c16:uniqueId val="{00000023-369A-45A5-89AF-17DA6D4188C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -22797,7 +22803,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000025-6118-4E63-9B7F-3B4AB892F568}"/>
+                <c16:uniqueId val="{00000025-369A-45A5-89AF-17DA6D4188C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -22814,7 +22820,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000027-6118-4E63-9B7F-3B4AB892F568}"/>
+                <c16:uniqueId val="{00000027-369A-45A5-89AF-17DA6D4188C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -22831,7 +22837,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000029-6118-4E63-9B7F-3B4AB892F568}"/>
+                <c16:uniqueId val="{00000029-369A-45A5-89AF-17DA6D4188C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -22848,7 +22854,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002B-6118-4E63-9B7F-3B4AB892F568}"/>
+                <c16:uniqueId val="{0000002B-369A-45A5-89AF-17DA6D4188C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -22865,7 +22871,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002D-6118-4E63-9B7F-3B4AB892F568}"/>
+                <c16:uniqueId val="{0000002D-369A-45A5-89AF-17DA6D4188C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -22882,7 +22888,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002F-6118-4E63-9B7F-3B4AB892F568}"/>
+                <c16:uniqueId val="{0000002F-369A-45A5-89AF-17DA6D4188C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -22899,7 +22905,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000031-6118-4E63-9B7F-3B4AB892F568}"/>
+                <c16:uniqueId val="{00000031-369A-45A5-89AF-17DA6D4188C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -22916,7 +22922,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000033-6118-4E63-9B7F-3B4AB892F568}"/>
+                <c16:uniqueId val="{00000033-369A-45A5-89AF-17DA6D4188C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -22933,7 +22939,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000035-6118-4E63-9B7F-3B4AB892F568}"/>
+                <c16:uniqueId val="{00000035-369A-45A5-89AF-17DA6D4188C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -22950,7 +22956,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000037-6118-4E63-9B7F-3B4AB892F568}"/>
+                <c16:uniqueId val="{00000037-369A-45A5-89AF-17DA6D4188C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -22967,7 +22973,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000039-6118-4E63-9B7F-3B4AB892F568}"/>
+                <c16:uniqueId val="{00000039-369A-45A5-89AF-17DA6D4188C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -22984,7 +22990,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000003B-6118-4E63-9B7F-3B4AB892F568}"/>
+                <c16:uniqueId val="{0000003B-369A-45A5-89AF-17DA6D4188C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -23001,7 +23007,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000003D-6118-4E63-9B7F-3B4AB892F568}"/>
+                <c16:uniqueId val="{0000003D-369A-45A5-89AF-17DA6D4188C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -23018,7 +23024,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000003F-6118-4E63-9B7F-3B4AB892F568}"/>
+                <c16:uniqueId val="{0000003F-369A-45A5-89AF-17DA6D4188C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -23035,7 +23041,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000041-6118-4E63-9B7F-3B4AB892F568}"/>
+                <c16:uniqueId val="{00000041-369A-45A5-89AF-17DA6D4188C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -23052,7 +23058,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000043-6118-4E63-9B7F-3B4AB892F568}"/>
+                <c16:uniqueId val="{00000043-369A-45A5-89AF-17DA6D4188C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -23069,7 +23075,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000045-6118-4E63-9B7F-3B4AB892F568}"/>
+                <c16:uniqueId val="{00000045-369A-45A5-89AF-17DA6D4188C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -23086,7 +23092,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000047-6118-4E63-9B7F-3B4AB892F568}"/>
+                <c16:uniqueId val="{00000047-369A-45A5-89AF-17DA6D4188C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -23103,7 +23109,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000049-6118-4E63-9B7F-3B4AB892F568}"/>
+                <c16:uniqueId val="{00000049-369A-45A5-89AF-17DA6D4188C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -23120,7 +23126,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000004B-6118-4E63-9B7F-3B4AB892F568}"/>
+                <c16:uniqueId val="{0000004B-369A-45A5-89AF-17DA6D4188C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -23137,7 +23143,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000004D-6118-4E63-9B7F-3B4AB892F568}"/>
+                <c16:uniqueId val="{0000004D-369A-45A5-89AF-17DA6D4188C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -23154,7 +23160,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000004F-6118-4E63-9B7F-3B4AB892F568}"/>
+                <c16:uniqueId val="{0000004F-369A-45A5-89AF-17DA6D4188C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -23171,7 +23177,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000051-6118-4E63-9B7F-3B4AB892F568}"/>
+                <c16:uniqueId val="{00000051-369A-45A5-89AF-17DA6D4188C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -23188,7 +23194,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000053-6118-4E63-9B7F-3B4AB892F568}"/>
+                <c16:uniqueId val="{00000053-369A-45A5-89AF-17DA6D4188C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -23205,7 +23211,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000055-6118-4E63-9B7F-3B4AB892F568}"/>
+                <c16:uniqueId val="{00000055-369A-45A5-89AF-17DA6D4188C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -23222,7 +23228,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000057-6118-4E63-9B7F-3B4AB892F568}"/>
+                <c16:uniqueId val="{00000057-369A-45A5-89AF-17DA6D4188C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -23239,7 +23245,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000059-6118-4E63-9B7F-3B4AB892F568}"/>
+                <c16:uniqueId val="{00000059-369A-45A5-89AF-17DA6D4188C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -23256,7 +23262,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000005B-6118-4E63-9B7F-3B4AB892F568}"/>
+                <c16:uniqueId val="{0000005B-369A-45A5-89AF-17DA6D4188C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -23273,7 +23279,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000005D-6118-4E63-9B7F-3B4AB892F568}"/>
+                <c16:uniqueId val="{0000005D-369A-45A5-89AF-17DA6D4188C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -23290,7 +23296,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000005F-6118-4E63-9B7F-3B4AB892F568}"/>
+                <c16:uniqueId val="{0000005F-369A-45A5-89AF-17DA6D4188C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -23307,7 +23313,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000061-6118-4E63-9B7F-3B4AB892F568}"/>
+                <c16:uniqueId val="{00000061-369A-45A5-89AF-17DA6D4188C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -23324,7 +23330,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000063-6118-4E63-9B7F-3B4AB892F568}"/>
+                <c16:uniqueId val="{00000063-369A-45A5-89AF-17DA6D4188C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -23341,7 +23347,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000065-6118-4E63-9B7F-3B4AB892F568}"/>
+                <c16:uniqueId val="{00000065-369A-45A5-89AF-17DA6D4188C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -23358,7 +23364,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000067-6118-4E63-9B7F-3B4AB892F568}"/>
+                <c16:uniqueId val="{00000067-369A-45A5-89AF-17DA6D4188C8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -23683,7 +23689,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000068-6118-4E63-9B7F-3B4AB892F568}"/>
+              <c16:uniqueId val="{00000068-369A-45A5-89AF-17DA6D4188C8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -23957,7 +23963,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-AC3D-4219-957C-BAC5FA3C752F}"/>
+                <c16:uniqueId val="{00000001-904A-489C-839C-67A7E5874F75}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -23974,7 +23980,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-AC3D-4219-957C-BAC5FA3C752F}"/>
+                <c16:uniqueId val="{00000003-904A-489C-839C-67A7E5874F75}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -23991,7 +23997,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-AC3D-4219-957C-BAC5FA3C752F}"/>
+                <c16:uniqueId val="{00000005-904A-489C-839C-67A7E5874F75}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -24008,7 +24014,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-AC3D-4219-957C-BAC5FA3C752F}"/>
+                <c16:uniqueId val="{00000007-904A-489C-839C-67A7E5874F75}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -24025,7 +24031,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-AC3D-4219-957C-BAC5FA3C752F}"/>
+                <c16:uniqueId val="{00000009-904A-489C-839C-67A7E5874F75}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -24042,7 +24048,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-AC3D-4219-957C-BAC5FA3C752F}"/>
+                <c16:uniqueId val="{0000000B-904A-489C-839C-67A7E5874F75}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -24059,7 +24065,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-AC3D-4219-957C-BAC5FA3C752F}"/>
+                <c16:uniqueId val="{0000000D-904A-489C-839C-67A7E5874F75}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -24076,7 +24082,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000F-AC3D-4219-957C-BAC5FA3C752F}"/>
+                <c16:uniqueId val="{0000000F-904A-489C-839C-67A7E5874F75}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -24093,7 +24099,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000011-AC3D-4219-957C-BAC5FA3C752F}"/>
+                <c16:uniqueId val="{00000011-904A-489C-839C-67A7E5874F75}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -24110,7 +24116,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000013-AC3D-4219-957C-BAC5FA3C752F}"/>
+                <c16:uniqueId val="{00000013-904A-489C-839C-67A7E5874F75}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -24127,7 +24133,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000015-AC3D-4219-957C-BAC5FA3C752F}"/>
+                <c16:uniqueId val="{00000015-904A-489C-839C-67A7E5874F75}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -24144,7 +24150,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000017-AC3D-4219-957C-BAC5FA3C752F}"/>
+                <c16:uniqueId val="{00000017-904A-489C-839C-67A7E5874F75}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -24161,7 +24167,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000019-AC3D-4219-957C-BAC5FA3C752F}"/>
+                <c16:uniqueId val="{00000019-904A-489C-839C-67A7E5874F75}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -24178,7 +24184,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001B-AC3D-4219-957C-BAC5FA3C752F}"/>
+                <c16:uniqueId val="{0000001B-904A-489C-839C-67A7E5874F75}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -24195,7 +24201,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001D-AC3D-4219-957C-BAC5FA3C752F}"/>
+                <c16:uniqueId val="{0000001D-904A-489C-839C-67A7E5874F75}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -24212,7 +24218,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001F-AC3D-4219-957C-BAC5FA3C752F}"/>
+                <c16:uniqueId val="{0000001F-904A-489C-839C-67A7E5874F75}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -24229,7 +24235,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000021-AC3D-4219-957C-BAC5FA3C752F}"/>
+                <c16:uniqueId val="{00000021-904A-489C-839C-67A7E5874F75}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -24246,7 +24252,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000023-AC3D-4219-957C-BAC5FA3C752F}"/>
+                <c16:uniqueId val="{00000023-904A-489C-839C-67A7E5874F75}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -24263,7 +24269,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000025-AC3D-4219-957C-BAC5FA3C752F}"/>
+                <c16:uniqueId val="{00000025-904A-489C-839C-67A7E5874F75}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -24280,7 +24286,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000027-AC3D-4219-957C-BAC5FA3C752F}"/>
+                <c16:uniqueId val="{00000027-904A-489C-839C-67A7E5874F75}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -24297,7 +24303,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000029-AC3D-4219-957C-BAC5FA3C752F}"/>
+                <c16:uniqueId val="{00000029-904A-489C-839C-67A7E5874F75}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -24314,7 +24320,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002B-AC3D-4219-957C-BAC5FA3C752F}"/>
+                <c16:uniqueId val="{0000002B-904A-489C-839C-67A7E5874F75}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -24331,7 +24337,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002D-AC3D-4219-957C-BAC5FA3C752F}"/>
+                <c16:uniqueId val="{0000002D-904A-489C-839C-67A7E5874F75}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -24348,7 +24354,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002F-AC3D-4219-957C-BAC5FA3C752F}"/>
+                <c16:uniqueId val="{0000002F-904A-489C-839C-67A7E5874F75}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -24365,7 +24371,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000031-AC3D-4219-957C-BAC5FA3C752F}"/>
+                <c16:uniqueId val="{00000031-904A-489C-839C-67A7E5874F75}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -24382,7 +24388,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000033-AC3D-4219-957C-BAC5FA3C752F}"/>
+                <c16:uniqueId val="{00000033-904A-489C-839C-67A7E5874F75}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -24399,7 +24405,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000035-AC3D-4219-957C-BAC5FA3C752F}"/>
+                <c16:uniqueId val="{00000035-904A-489C-839C-67A7E5874F75}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -24416,7 +24422,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000037-AC3D-4219-957C-BAC5FA3C752F}"/>
+                <c16:uniqueId val="{00000037-904A-489C-839C-67A7E5874F75}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -24433,7 +24439,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000039-AC3D-4219-957C-BAC5FA3C752F}"/>
+                <c16:uniqueId val="{00000039-904A-489C-839C-67A7E5874F75}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -24450,7 +24456,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000003B-AC3D-4219-957C-BAC5FA3C752F}"/>
+                <c16:uniqueId val="{0000003B-904A-489C-839C-67A7E5874F75}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -24467,7 +24473,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000003D-AC3D-4219-957C-BAC5FA3C752F}"/>
+                <c16:uniqueId val="{0000003D-904A-489C-839C-67A7E5874F75}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -24484,7 +24490,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000003F-AC3D-4219-957C-BAC5FA3C752F}"/>
+                <c16:uniqueId val="{0000003F-904A-489C-839C-67A7E5874F75}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -24501,7 +24507,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000041-AC3D-4219-957C-BAC5FA3C752F}"/>
+                <c16:uniqueId val="{00000041-904A-489C-839C-67A7E5874F75}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -24518,7 +24524,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000043-AC3D-4219-957C-BAC5FA3C752F}"/>
+                <c16:uniqueId val="{00000043-904A-489C-839C-67A7E5874F75}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -24535,7 +24541,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000045-AC3D-4219-957C-BAC5FA3C752F}"/>
+                <c16:uniqueId val="{00000045-904A-489C-839C-67A7E5874F75}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -24552,7 +24558,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000047-AC3D-4219-957C-BAC5FA3C752F}"/>
+                <c16:uniqueId val="{00000047-904A-489C-839C-67A7E5874F75}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -24569,7 +24575,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000049-AC3D-4219-957C-BAC5FA3C752F}"/>
+                <c16:uniqueId val="{00000049-904A-489C-839C-67A7E5874F75}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -24586,7 +24592,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000004B-AC3D-4219-957C-BAC5FA3C752F}"/>
+                <c16:uniqueId val="{0000004B-904A-489C-839C-67A7E5874F75}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -24603,7 +24609,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000004D-AC3D-4219-957C-BAC5FA3C752F}"/>
+                <c16:uniqueId val="{0000004D-904A-489C-839C-67A7E5874F75}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -24620,7 +24626,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000004F-AC3D-4219-957C-BAC5FA3C752F}"/>
+                <c16:uniqueId val="{0000004F-904A-489C-839C-67A7E5874F75}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -24637,7 +24643,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000051-AC3D-4219-957C-BAC5FA3C752F}"/>
+                <c16:uniqueId val="{00000051-904A-489C-839C-67A7E5874F75}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -24654,7 +24660,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000053-AC3D-4219-957C-BAC5FA3C752F}"/>
+                <c16:uniqueId val="{00000053-904A-489C-839C-67A7E5874F75}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -24671,7 +24677,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000055-AC3D-4219-957C-BAC5FA3C752F}"/>
+                <c16:uniqueId val="{00000055-904A-489C-839C-67A7E5874F75}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -24688,7 +24694,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000057-AC3D-4219-957C-BAC5FA3C752F}"/>
+                <c16:uniqueId val="{00000057-904A-489C-839C-67A7E5874F75}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -24705,7 +24711,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000059-AC3D-4219-957C-BAC5FA3C752F}"/>
+                <c16:uniqueId val="{00000059-904A-489C-839C-67A7E5874F75}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -24722,7 +24728,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000005B-AC3D-4219-957C-BAC5FA3C752F}"/>
+                <c16:uniqueId val="{0000005B-904A-489C-839C-67A7E5874F75}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -24739,7 +24745,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000005D-AC3D-4219-957C-BAC5FA3C752F}"/>
+                <c16:uniqueId val="{0000005D-904A-489C-839C-67A7E5874F75}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -24756,7 +24762,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000005F-AC3D-4219-957C-BAC5FA3C752F}"/>
+                <c16:uniqueId val="{0000005F-904A-489C-839C-67A7E5874F75}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -24773,7 +24779,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000061-AC3D-4219-957C-BAC5FA3C752F}"/>
+                <c16:uniqueId val="{00000061-904A-489C-839C-67A7E5874F75}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -24790,7 +24796,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000063-AC3D-4219-957C-BAC5FA3C752F}"/>
+                <c16:uniqueId val="{00000063-904A-489C-839C-67A7E5874F75}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -24807,7 +24813,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000065-AC3D-4219-957C-BAC5FA3C752F}"/>
+                <c16:uniqueId val="{00000065-904A-489C-839C-67A7E5874F75}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -24824,7 +24830,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000067-AC3D-4219-957C-BAC5FA3C752F}"/>
+                <c16:uniqueId val="{00000067-904A-489C-839C-67A7E5874F75}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -24841,7 +24847,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000069-AC3D-4219-957C-BAC5FA3C752F}"/>
+                <c16:uniqueId val="{00000069-904A-489C-839C-67A7E5874F75}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -24858,7 +24864,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000006B-AC3D-4219-957C-BAC5FA3C752F}"/>
+                <c16:uniqueId val="{0000006B-904A-489C-839C-67A7E5874F75}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -24875,7 +24881,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000006D-AC3D-4219-957C-BAC5FA3C752F}"/>
+                <c16:uniqueId val="{0000006D-904A-489C-839C-67A7E5874F75}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -24892,7 +24898,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000006F-AC3D-4219-957C-BAC5FA3C752F}"/>
+                <c16:uniqueId val="{0000006F-904A-489C-839C-67A7E5874F75}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -24909,7 +24915,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000071-AC3D-4219-957C-BAC5FA3C752F}"/>
+                <c16:uniqueId val="{00000071-904A-489C-839C-67A7E5874F75}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -24926,7 +24932,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000073-AC3D-4219-957C-BAC5FA3C752F}"/>
+                <c16:uniqueId val="{00000073-904A-489C-839C-67A7E5874F75}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -24943,7 +24949,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000075-AC3D-4219-957C-BAC5FA3C752F}"/>
+                <c16:uniqueId val="{00000075-904A-489C-839C-67A7E5874F75}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -25268,7 +25274,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000076-AC3D-4219-957C-BAC5FA3C752F}"/>
+              <c16:uniqueId val="{00000076-904A-489C-839C-67A7E5874F75}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -25542,7 +25548,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-DA70-45BA-9625-3118E0E0DCDA}"/>
+                <c16:uniqueId val="{00000001-994D-40DA-ABC6-8A90DD74FBCE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -25559,7 +25565,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-DA70-45BA-9625-3118E0E0DCDA}"/>
+                <c16:uniqueId val="{00000003-994D-40DA-ABC6-8A90DD74FBCE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -25576,7 +25582,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-DA70-45BA-9625-3118E0E0DCDA}"/>
+                <c16:uniqueId val="{00000005-994D-40DA-ABC6-8A90DD74FBCE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -25593,7 +25599,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-DA70-45BA-9625-3118E0E0DCDA}"/>
+                <c16:uniqueId val="{00000007-994D-40DA-ABC6-8A90DD74FBCE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -25610,7 +25616,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-DA70-45BA-9625-3118E0E0DCDA}"/>
+                <c16:uniqueId val="{00000009-994D-40DA-ABC6-8A90DD74FBCE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -25627,7 +25633,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-DA70-45BA-9625-3118E0E0DCDA}"/>
+                <c16:uniqueId val="{0000000B-994D-40DA-ABC6-8A90DD74FBCE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -25644,7 +25650,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-DA70-45BA-9625-3118E0E0DCDA}"/>
+                <c16:uniqueId val="{0000000D-994D-40DA-ABC6-8A90DD74FBCE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -25661,7 +25667,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000F-DA70-45BA-9625-3118E0E0DCDA}"/>
+                <c16:uniqueId val="{0000000F-994D-40DA-ABC6-8A90DD74FBCE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -25678,7 +25684,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000011-DA70-45BA-9625-3118E0E0DCDA}"/>
+                <c16:uniqueId val="{00000011-994D-40DA-ABC6-8A90DD74FBCE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -25695,7 +25701,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000013-DA70-45BA-9625-3118E0E0DCDA}"/>
+                <c16:uniqueId val="{00000013-994D-40DA-ABC6-8A90DD74FBCE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -25712,7 +25718,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000015-DA70-45BA-9625-3118E0E0DCDA}"/>
+                <c16:uniqueId val="{00000015-994D-40DA-ABC6-8A90DD74FBCE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -25729,7 +25735,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000017-DA70-45BA-9625-3118E0E0DCDA}"/>
+                <c16:uniqueId val="{00000017-994D-40DA-ABC6-8A90DD74FBCE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -25746,7 +25752,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000019-DA70-45BA-9625-3118E0E0DCDA}"/>
+                <c16:uniqueId val="{00000019-994D-40DA-ABC6-8A90DD74FBCE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -25763,7 +25769,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001B-DA70-45BA-9625-3118E0E0DCDA}"/>
+                <c16:uniqueId val="{0000001B-994D-40DA-ABC6-8A90DD74FBCE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -25780,7 +25786,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001D-DA70-45BA-9625-3118E0E0DCDA}"/>
+                <c16:uniqueId val="{0000001D-994D-40DA-ABC6-8A90DD74FBCE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -25797,7 +25803,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001F-DA70-45BA-9625-3118E0E0DCDA}"/>
+                <c16:uniqueId val="{0000001F-994D-40DA-ABC6-8A90DD74FBCE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -25814,7 +25820,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000021-DA70-45BA-9625-3118E0E0DCDA}"/>
+                <c16:uniqueId val="{00000021-994D-40DA-ABC6-8A90DD74FBCE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -25831,7 +25837,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000023-DA70-45BA-9625-3118E0E0DCDA}"/>
+                <c16:uniqueId val="{00000023-994D-40DA-ABC6-8A90DD74FBCE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -25848,7 +25854,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000025-DA70-45BA-9625-3118E0E0DCDA}"/>
+                <c16:uniqueId val="{00000025-994D-40DA-ABC6-8A90DD74FBCE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -25865,7 +25871,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000027-DA70-45BA-9625-3118E0E0DCDA}"/>
+                <c16:uniqueId val="{00000027-994D-40DA-ABC6-8A90DD74FBCE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -25882,7 +25888,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000029-DA70-45BA-9625-3118E0E0DCDA}"/>
+                <c16:uniqueId val="{00000029-994D-40DA-ABC6-8A90DD74FBCE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -25899,7 +25905,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002B-DA70-45BA-9625-3118E0E0DCDA}"/>
+                <c16:uniqueId val="{0000002B-994D-40DA-ABC6-8A90DD74FBCE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -25916,7 +25922,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002D-DA70-45BA-9625-3118E0E0DCDA}"/>
+                <c16:uniqueId val="{0000002D-994D-40DA-ABC6-8A90DD74FBCE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -25933,7 +25939,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002F-DA70-45BA-9625-3118E0E0DCDA}"/>
+                <c16:uniqueId val="{0000002F-994D-40DA-ABC6-8A90DD74FBCE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -25950,7 +25956,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000031-DA70-45BA-9625-3118E0E0DCDA}"/>
+                <c16:uniqueId val="{00000031-994D-40DA-ABC6-8A90DD74FBCE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -25967,7 +25973,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000033-DA70-45BA-9625-3118E0E0DCDA}"/>
+                <c16:uniqueId val="{00000033-994D-40DA-ABC6-8A90DD74FBCE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -25984,7 +25990,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000035-DA70-45BA-9625-3118E0E0DCDA}"/>
+                <c16:uniqueId val="{00000035-994D-40DA-ABC6-8A90DD74FBCE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -26001,7 +26007,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000037-DA70-45BA-9625-3118E0E0DCDA}"/>
+                <c16:uniqueId val="{00000037-994D-40DA-ABC6-8A90DD74FBCE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -26018,7 +26024,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000039-DA70-45BA-9625-3118E0E0DCDA}"/>
+                <c16:uniqueId val="{00000039-994D-40DA-ABC6-8A90DD74FBCE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -26035,7 +26041,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000003B-DA70-45BA-9625-3118E0E0DCDA}"/>
+                <c16:uniqueId val="{0000003B-994D-40DA-ABC6-8A90DD74FBCE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -26052,7 +26058,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000003D-DA70-45BA-9625-3118E0E0DCDA}"/>
+                <c16:uniqueId val="{0000003D-994D-40DA-ABC6-8A90DD74FBCE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -26069,7 +26075,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000003F-DA70-45BA-9625-3118E0E0DCDA}"/>
+                <c16:uniqueId val="{0000003F-994D-40DA-ABC6-8A90DD74FBCE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -26086,7 +26092,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000041-DA70-45BA-9625-3118E0E0DCDA}"/>
+                <c16:uniqueId val="{00000041-994D-40DA-ABC6-8A90DD74FBCE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -26103,7 +26109,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000043-DA70-45BA-9625-3118E0E0DCDA}"/>
+                <c16:uniqueId val="{00000043-994D-40DA-ABC6-8A90DD74FBCE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -26120,7 +26126,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000045-DA70-45BA-9625-3118E0E0DCDA}"/>
+                <c16:uniqueId val="{00000045-994D-40DA-ABC6-8A90DD74FBCE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -26137,7 +26143,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000047-DA70-45BA-9625-3118E0E0DCDA}"/>
+                <c16:uniqueId val="{00000047-994D-40DA-ABC6-8A90DD74FBCE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -26154,7 +26160,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000049-DA70-45BA-9625-3118E0E0DCDA}"/>
+                <c16:uniqueId val="{00000049-994D-40DA-ABC6-8A90DD74FBCE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -26171,7 +26177,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000004B-DA70-45BA-9625-3118E0E0DCDA}"/>
+                <c16:uniqueId val="{0000004B-994D-40DA-ABC6-8A90DD74FBCE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -26188,7 +26194,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000004D-DA70-45BA-9625-3118E0E0DCDA}"/>
+                <c16:uniqueId val="{0000004D-994D-40DA-ABC6-8A90DD74FBCE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -26205,7 +26211,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000004F-DA70-45BA-9625-3118E0E0DCDA}"/>
+                <c16:uniqueId val="{0000004F-994D-40DA-ABC6-8A90DD74FBCE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -26222,7 +26228,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000051-DA70-45BA-9625-3118E0E0DCDA}"/>
+                <c16:uniqueId val="{00000051-994D-40DA-ABC6-8A90DD74FBCE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -26239,7 +26245,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000053-DA70-45BA-9625-3118E0E0DCDA}"/>
+                <c16:uniqueId val="{00000053-994D-40DA-ABC6-8A90DD74FBCE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -26256,7 +26262,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000055-DA70-45BA-9625-3118E0E0DCDA}"/>
+                <c16:uniqueId val="{00000055-994D-40DA-ABC6-8A90DD74FBCE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -26273,7 +26279,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000057-DA70-45BA-9625-3118E0E0DCDA}"/>
+                <c16:uniqueId val="{00000057-994D-40DA-ABC6-8A90DD74FBCE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -26290,7 +26296,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000059-DA70-45BA-9625-3118E0E0DCDA}"/>
+                <c16:uniqueId val="{00000059-994D-40DA-ABC6-8A90DD74FBCE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -26307,7 +26313,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000005B-DA70-45BA-9625-3118E0E0DCDA}"/>
+                <c16:uniqueId val="{0000005B-994D-40DA-ABC6-8A90DD74FBCE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -26324,7 +26330,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000005D-DA70-45BA-9625-3118E0E0DCDA}"/>
+                <c16:uniqueId val="{0000005D-994D-40DA-ABC6-8A90DD74FBCE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -26341,7 +26347,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000005F-DA70-45BA-9625-3118E0E0DCDA}"/>
+                <c16:uniqueId val="{0000005F-994D-40DA-ABC6-8A90DD74FBCE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -26358,7 +26364,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000061-DA70-45BA-9625-3118E0E0DCDA}"/>
+                <c16:uniqueId val="{00000061-994D-40DA-ABC6-8A90DD74FBCE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -26375,7 +26381,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000063-DA70-45BA-9625-3118E0E0DCDA}"/>
+                <c16:uniqueId val="{00000063-994D-40DA-ABC6-8A90DD74FBCE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -26392,7 +26398,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000065-DA70-45BA-9625-3118E0E0DCDA}"/>
+                <c16:uniqueId val="{00000065-994D-40DA-ABC6-8A90DD74FBCE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -26409,7 +26415,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000067-DA70-45BA-9625-3118E0E0DCDA}"/>
+                <c16:uniqueId val="{00000067-994D-40DA-ABC6-8A90DD74FBCE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -26734,7 +26740,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000068-DA70-45BA-9625-3118E0E0DCDA}"/>
+              <c16:uniqueId val="{00000068-994D-40DA-ABC6-8A90DD74FBCE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -32740,13 +32746,15 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.26953125" style="33" customWidth="1"/>
-    <col min="4" max="4" width="15.90625" style="33" customWidth="1"/>
+    <col min="1" max="1" width="10" style="33" customWidth="1"/>
+    <col min="2" max="2" width="7.81640625" style="33" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" style="33" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" style="33" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -32766,87 +32774,95 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2">
+    <row r="2" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="36">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="36">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="36">
         <v>0</v>
       </c>
-      <c r="D2"/>
+      <c r="D2" s="36" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="37">
+      <c r="A3" s="36">
         <v>2</v>
       </c>
-      <c r="B3" s="37">
+      <c r="B3" s="36">
         <v>-1E-4</v>
       </c>
-      <c r="C3" s="37">
+      <c r="C3" s="36">
         <v>32</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="37"/>
+      <c r="D3" s="36">
+        <v>2</v>
+      </c>
+      <c r="E3" s="37"/>
+      <c r="F3" s="36"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="37">
+      <c r="A4" s="36">
         <v>3</v>
       </c>
-      <c r="B4" s="37">
+      <c r="B4" s="36">
         <v>-22.627500000000001</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="36">
         <v>22.627300000000002</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="37"/>
+      <c r="D4" s="36">
+        <v>3</v>
+      </c>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="37">
+      <c r="A5" s="36">
         <v>4</v>
       </c>
-      <c r="B5" s="37">
+      <c r="B5" s="36">
         <v>-32</v>
       </c>
-      <c r="C5" s="37">
+      <c r="C5" s="36">
         <v>-1E-4</v>
       </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="37"/>
+      <c r="D5" s="36">
+        <v>4</v>
+      </c>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="37">
+      <c r="A6" s="36">
         <v>5</v>
       </c>
-      <c r="B6" s="37">
+      <c r="B6" s="36">
         <v>-22.627300000000002</v>
       </c>
-      <c r="C6" s="37">
+      <c r="C6" s="36">
         <v>-22.627500000000001</v>
       </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="37"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="37">
+      <c r="A7" s="36">
         <v>6</v>
       </c>
-      <c r="B7" s="37">
+      <c r="B7" s="36">
         <v>1E-4</v>
       </c>
-      <c r="C7" s="37">
+      <c r="C7" s="36">
         <v>-32</v>
       </c>
       <c r="D7" s="37"/>
       <c r="E7" s="36"/>
-      <c r="F7" s="37"/>
+      <c r="F7" s="36"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
@@ -32858,7 +32874,6 @@
       <c r="C8">
         <v>-22.627300000000002</v>
       </c>
-      <c r="D8"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
@@ -32870,7 +32885,6 @@
       <c r="C9">
         <v>1E-4</v>
       </c>
-      <c r="D9"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
@@ -32882,7 +32896,6 @@
       <c r="C10">
         <v>22.627500000000001</v>
       </c>
-      <c r="D10"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
@@ -32894,7 +32907,6 @@
       <c r="C11">
         <v>64</v>
       </c>
-      <c r="D11"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
@@ -32906,7 +32918,6 @@
       <c r="C12">
         <v>59.1282</v>
       </c>
-      <c r="D12"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
@@ -32918,7 +32929,6 @@
       <c r="C13">
         <v>45.2547</v>
       </c>
-      <c r="D13"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
@@ -32930,7 +32940,6 @@
       <c r="C14">
         <v>24.491499999999998</v>
       </c>
-      <c r="D14"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
@@ -32942,7 +32951,6 @@
       <c r="C15">
         <v>-2.9999999999999997E-4</v>
       </c>
-      <c r="D15"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
@@ -32954,9 +32962,8 @@
       <c r="C16">
         <v>-24.492000000000001</v>
       </c>
-      <c r="D16"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -32966,9 +32973,8 @@
       <c r="C17">
         <v>-45.255000000000003</v>
       </c>
-      <c r="D17"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -32978,9 +32984,8 @@
       <c r="C18">
         <v>-59.128399999999999</v>
       </c>
-      <c r="D18"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="34">
         <v>18</v>
       </c>
@@ -32990,9 +32995,8 @@
       <c r="C19">
         <v>-64</v>
       </c>
-      <c r="D19"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -33002,9 +33006,8 @@
       <c r="C20">
         <v>-59.1282</v>
       </c>
-      <c r="D20"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -33014,9 +33017,8 @@
       <c r="C21">
         <v>-45.2547</v>
       </c>
-      <c r="D21"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -33026,9 +33028,8 @@
       <c r="C22">
         <v>-24.491499999999998</v>
       </c>
-      <c r="D22"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -33038,9 +33039,8 @@
       <c r="C23">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="D23"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -33050,9 +33050,8 @@
       <c r="C24">
         <v>24.492000000000001</v>
       </c>
-      <c r="D24"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -33062,9 +33061,8 @@
       <c r="C25">
         <v>45.255099999999999</v>
       </c>
-      <c r="D25"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -33074,9 +33072,8 @@
       <c r="C26">
         <v>59.128399999999999</v>
       </c>
-      <c r="D26"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -33086,9 +33083,8 @@
       <c r="C27">
         <v>96</v>
       </c>
-      <c r="D27"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -33098,9 +33094,8 @@
       <c r="C28">
         <v>92.728800000000007</v>
       </c>
-      <c r="D28"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -33110,9 +33105,8 @@
       <c r="C29">
         <v>83.138300000000001</v>
       </c>
-      <c r="D29"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -33122,9 +33116,8 @@
       <c r="C30">
         <v>67.882000000000005</v>
       </c>
-      <c r="D30"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -33134,9 +33127,8 @@
       <c r="C31">
         <v>47.999699999999997</v>
       </c>
-      <c r="D31"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -33146,7 +33138,6 @@
       <c r="C32">
         <v>24.8462</v>
       </c>
-      <c r="D32"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
@@ -33158,7 +33149,6 @@
       <c r="C33">
         <v>-4.0000000000000002E-4</v>
       </c>
-      <c r="D33"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
@@ -33170,7 +33160,6 @@
       <c r="C34">
         <v>-24.847000000000001</v>
       </c>
-      <c r="D34"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
@@ -33194,7 +33183,6 @@
       <c r="C36">
         <v>-67.882599999999996</v>
       </c>
-      <c r="D36"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="34">
@@ -33206,7 +33194,6 @@
       <c r="C37">
         <v>-83.138599999999997</v>
       </c>
-      <c r="D37"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
@@ -33218,7 +33205,6 @@
       <c r="C38">
         <v>-92.728999999999999</v>
       </c>
-      <c r="D38"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="34">
@@ -33230,7 +33216,6 @@
       <c r="C39">
         <v>-96</v>
       </c>
-      <c r="D39"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="34">
@@ -33242,7 +33227,6 @@
       <c r="C40">
         <v>-92.728800000000007</v>
       </c>
-      <c r="D40"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="34">
@@ -33254,7 +33238,6 @@
       <c r="C41">
         <v>-83.138199999999998</v>
       </c>
-      <c r="D41"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="34">
@@ -33266,7 +33249,6 @@
       <c r="C42">
         <v>-67.882000000000005</v>
       </c>
-      <c r="D42"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="34">
@@ -33290,7 +33272,6 @@
       <c r="C44">
         <v>-24.8462</v>
       </c>
-      <c r="D44"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="34">
@@ -33302,7 +33283,6 @@
       <c r="C45">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="D45"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="34">
@@ -33314,7 +33294,6 @@
       <c r="C46">
         <v>24.847000000000001</v>
       </c>
-      <c r="D46"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="34">
@@ -33326,7 +33305,6 @@
       <c r="C47">
         <v>48.000399999999999</v>
       </c>
-      <c r="D47"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="34">
@@ -33362,11 +33340,137 @@
       <c r="C50">
         <v>92.728999999999999</v>
       </c>
-      <c r="D50"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="60" style="33" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="38"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="38"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 

--- a/wafer-mapping-automation-test.xlsx
+++ b/wafer-mapping-automation-test.xlsx
@@ -24832,7 +24832,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
     <sheetView zoomScale="107" zoomScaleNormal="49" workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
@@ -25818,6 +25818,26 @@
       <c r="E50" s="9">
         <f>(D50*100)</f>
         <v/>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="36" t="n"/>
+      <c r="B85" s="36" t="n"/>
+      <c r="C85" s="36" t="n"/>
+      <c r="D85" s="36" t="inlineStr">
+        <is>
+          <t>mapitin</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="36" t="n"/>
+      <c r="B86" s="36" t="n"/>
+      <c r="C86" s="36" t="n"/>
+      <c r="D86" s="36" t="inlineStr">
+        <is>
+          <t>mapitin</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -30695,7 +30715,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:J88"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D11"/>
@@ -31703,6 +31723,22 @@
         <v>0</v>
       </c>
     </row>
+    <row r="87">
+      <c r="A87" s="36" t="n"/>
+      <c r="B87" s="36" t="n"/>
+      <c r="C87" s="36" t="n"/>
+      <c r="D87" s="36" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="36" t="n"/>
+      <c r="B88" s="36" t="n"/>
+      <c r="C88" s="36" t="n"/>
+      <c r="D88" s="36" t="n">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -31721,7 +31757,7 @@
   <dimension ref="A1:N53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -33073,6 +33109,12 @@
         <f>PRODUCT(D38*100)</f>
         <v/>
       </c>
+      <c r="H38" s="9" t="n">
+        <v>-24.8462</v>
+      </c>
+      <c r="I38" s="9" t="n">
+        <v>-92.729</v>
+      </c>
       <c r="J38" t="n">
         <v>37</v>
       </c>
@@ -33106,6 +33148,12 @@
         <f>PRODUCT(D39*100)</f>
         <v/>
       </c>
+      <c r="H39" s="9" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="I39" s="9" t="n">
+        <v>-96</v>
+      </c>
       <c r="J39" t="n">
         <v>38</v>
       </c>
@@ -33139,6 +33187,12 @@
         <f>PRODUCT(D40*100)</f>
         <v/>
       </c>
+      <c r="H40" s="9" t="n">
+        <v>24.847</v>
+      </c>
+      <c r="I40" s="9" t="n">
+        <v>-92.72880000000001</v>
+      </c>
       <c r="J40" t="n">
         <v>39</v>
       </c>
@@ -33171,6 +33225,12 @@
       <c r="E41" s="9">
         <f>PRODUCT(D41*100)</f>
         <v/>
+      </c>
+      <c r="H41" s="9" t="n">
+        <v>48.0004</v>
+      </c>
+      <c r="I41" s="9" t="n">
+        <v>-83.1382</v>
       </c>
       <c r="J41" t="n">
         <v>40</v>

--- a/wafer-mapping-automation-test.xlsx
+++ b/wafer-mapping-automation-test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gohja\Desktop\wafer-map-automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96AF5AD6-5A1A-4507-AD97-CE5421C9628E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57AD3847-1DF1-4DDC-A562-1BC163CADFAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="532" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="532" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1st Wafer (ML 1)" sheetId="1" r:id="rId1"/>
@@ -25646,7 +25646,7 @@
         <v>2.7999999999999998E-4</v>
       </c>
       <c r="E34" s="9">
-        <f t="shared" ref="E34:E65" si="1">(D34*100)</f>
+        <f t="shared" ref="E34:E50" si="1">(D34*100)</f>
         <v>2.7999999999999997E-2</v>
       </c>
     </row>
@@ -26623,7 +26623,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="E34" s="9">
-        <f t="shared" ref="E34:E65" si="1">PRODUCT(D34*100)</f>
+        <f t="shared" ref="E34:E50" si="1">PRODUCT(D34*100)</f>
         <v>0.03</v>
       </c>
     </row>
@@ -27604,7 +27604,7 @@
         <v>8.4000000000000003E-4</v>
       </c>
       <c r="E34" s="9">
-        <f t="shared" ref="E34:E65" si="1">PRODUCT(D34*100)</f>
+        <f t="shared" ref="E34:E50" si="1">PRODUCT(D34*100)</f>
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -28583,7 +28583,7 @@
         <v>1.24E-3</v>
       </c>
       <c r="E34" s="9">
-        <f t="shared" ref="E34:E65" si="1">PRODUCT(D34*100)</f>
+        <f t="shared" ref="E34:E50" si="1">PRODUCT(D34*100)</f>
         <v>0.124</v>
       </c>
     </row>
@@ -29564,7 +29564,7 @@
         <v>6.3000000000000003E-4</v>
       </c>
       <c r="E34" s="9">
-        <f t="shared" ref="E34:E65" si="1">PRODUCT(D34*100)</f>
+        <f t="shared" ref="E34:E50" si="1">PRODUCT(D34*100)</f>
         <v>6.3E-2</v>
       </c>
     </row>
@@ -31278,7 +31278,7 @@
         <v>1.2899999999999999E-3</v>
       </c>
       <c r="E34" s="9">
-        <f t="shared" ref="E34:E65" si="1">PRODUCT(D34*100)</f>
+        <f t="shared" ref="E34:E50" si="1">PRODUCT(D34*100)</f>
         <v>0.129</v>
       </c>
     </row>
@@ -31616,8 +31616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="D5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -32780,7 +32780,7 @@
         <v>3.6999999999999999E-4</v>
       </c>
       <c r="E34" s="9">
-        <f t="shared" ref="E34:E65" si="4">PRODUCT(D34*100)</f>
+        <f t="shared" ref="E34:E50" si="4">PRODUCT(D34*100)</f>
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="J34">
@@ -33392,8 +33392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -34053,7 +34053,7 @@
         <v>1.6100000000000001E-3</v>
       </c>
       <c r="E34" s="9">
-        <f t="shared" ref="E34:E65" si="1">PRODUCT(D34*100)</f>
+        <f t="shared" ref="E34:E50" si="1">PRODUCT(D34*100)</f>
         <v>0.161</v>
       </c>
     </row>
@@ -35034,7 +35034,7 @@
         <v>1E-4</v>
       </c>
       <c r="E34" s="9">
-        <f t="shared" ref="E34:E65" si="1">PRODUCT(D34*100)</f>
+        <f t="shared" ref="E34:E50" si="1">PRODUCT(D34*100)</f>
         <v>0.01</v>
       </c>
     </row>
@@ -36018,7 +36018,7 @@
         <v>7.1000000000000002E-4</v>
       </c>
       <c r="E34" s="9">
-        <f t="shared" ref="E34:E65" si="1">PRODUCT(D34*100)</f>
+        <f t="shared" ref="E34:E50" si="1">PRODUCT(D34*100)</f>
         <v>7.1000000000000008E-2</v>
       </c>
     </row>
@@ -37980,7 +37980,7 @@
         <v>1.5200000000000001E-3</v>
       </c>
       <c r="E34" s="9">
-        <f t="shared" ref="E34:E65" si="1">PRODUCT(D34*100)</f>
+        <f t="shared" ref="E34:E50" si="1">PRODUCT(D34*100)</f>
         <v>0.152</v>
       </c>
     </row>
@@ -38962,7 +38962,7 @@
         <v>6.8999999999999997E-4</v>
       </c>
       <c r="E34" s="9">
-        <f t="shared" ref="E34:E65" si="1">PRODUCT(D34*100)</f>
+        <f t="shared" ref="E34:E50" si="1">PRODUCT(D34*100)</f>
         <v>6.8999999999999992E-2</v>
       </c>
     </row>
